--- a/vgp_database/Western_Central_TMVB.xlsx
+++ b/vgp_database/Western_Central_TMVB.xlsx
@@ -458,7 +458,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +489,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -496,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -607,6 +613,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -835,7 +844,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="33.33"/>
+    <col customWidth="1" min="2" max="2" width="30.67"/>
     <col customWidth="1" min="3" max="3" width="10.67"/>
     <col customWidth="1" min="4" max="4" width="8.56"/>
     <col customWidth="1" min="5" max="5" width="7.67"/>
@@ -2574,12 +2583,8 @@
         <v>5.0</v>
       </c>
       <c r="J22" s="30"/>
-      <c r="K22" s="20">
-        <v>60.6</v>
-      </c>
-      <c r="L22" s="20">
-        <v>269.6</v>
-      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
@@ -4033,11 +4038,11 @@
       <c r="R39" s="19">
         <v>0.49000000000000005</v>
       </c>
-      <c r="S39" s="39"/>
+      <c r="S39" s="40"/>
       <c r="T39" s="19">
         <v>0.6100000000000001</v>
       </c>
-      <c r="U39" s="39"/>
+      <c r="U39" s="40"/>
       <c r="V39" s="20" t="s">
         <v>67</v>
       </c>
@@ -4632,7 +4637,7 @@
       <c r="R46" s="19">
         <v>0.47000000000000003</v>
       </c>
-      <c r="S46" s="39"/>
+      <c r="S46" s="40"/>
       <c r="T46" s="19">
         <v>0.6100000000000001</v>
       </c>
@@ -4718,7 +4723,7 @@
       <c r="R47" s="19">
         <v>0.82</v>
       </c>
-      <c r="S47" s="39"/>
+      <c r="S47" s="40"/>
       <c r="T47" s="19">
         <v>0.92</v>
       </c>
@@ -5576,7 +5581,7 @@
       <c r="R57" s="19">
         <v>1.2</v>
       </c>
-      <c r="S57" s="39"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="19">
         <v>1.8</v>
       </c>
@@ -5746,7 +5751,7 @@
       <c r="R59" s="19">
         <v>1.3</v>
       </c>
-      <c r="S59" s="39"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="19">
         <v>1.9000000000000001</v>
       </c>
@@ -5832,7 +5837,7 @@
       <c r="R60" s="19">
         <v>0.6000000000000001</v>
       </c>
-      <c r="S60" s="39"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="19">
         <v>0.74</v>
       </c>
@@ -5901,8 +5906,8 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="26"/>
       <c r="L62" s="26"/>
       <c r="M62" s="26"/>
@@ -5942,8 +5947,8 @@
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="26"/>
       <c r="L63" s="26"/>
       <c r="M63" s="26"/>
@@ -5984,8 +5989,8 @@
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
@@ -6029,8 +6034,8 @@
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
       <c r="L65" s="26"/>
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
@@ -6074,8 +6079,8 @@
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
@@ -6119,8 +6124,8 @@
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
@@ -6163,9 +6168,9 @@
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="40"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="41"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
@@ -6209,8 +6214,8 @@
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
@@ -6254,8 +6259,8 @@
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
       <c r="N70" s="26"/>
@@ -6299,8 +6304,8 @@
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
       <c r="L71" s="26"/>
       <c r="M71" s="26"/>
       <c r="N71" s="26"/>
@@ -6344,8 +6349,8 @@
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
       <c r="L72" s="26"/>
       <c r="M72" s="26"/>
       <c r="N72" s="26"/>
@@ -6389,8 +6394,8 @@
       <c r="G73" s="26"/>
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
       <c r="N73" s="26"/>
@@ -6434,8 +6439,8 @@
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
       <c r="N74" s="26"/>
@@ -6479,8 +6484,8 @@
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
       <c r="N75" s="26"/>
@@ -6524,8 +6529,8 @@
       <c r="G76" s="26"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
       <c r="L76" s="26"/>
       <c r="M76" s="26"/>
       <c r="N76" s="26"/>
@@ -6569,8 +6574,8 @@
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
       <c r="L77" s="26"/>
       <c r="M77" s="26"/>
       <c r="N77" s="26"/>
@@ -6614,8 +6619,8 @@
       <c r="G78" s="26"/>
       <c r="H78" s="26"/>
       <c r="I78" s="26"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
       <c r="L78" s="26"/>
       <c r="M78" s="26"/>
       <c r="N78" s="26"/>
@@ -6659,8 +6664,8 @@
       <c r="G79" s="26"/>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
       <c r="L79" s="26"/>
       <c r="M79" s="26"/>
       <c r="N79" s="26"/>
@@ -6704,8 +6709,8 @@
       <c r="G80" s="26"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
       <c r="L80" s="26"/>
       <c r="M80" s="26"/>
       <c r="N80" s="26"/>
@@ -6749,8 +6754,8 @@
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
       <c r="L81" s="26"/>
       <c r="M81" s="26"/>
       <c r="N81" s="26"/>
@@ -6794,8 +6799,8 @@
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
       <c r="L82" s="26"/>
       <c r="M82" s="26"/>
       <c r="N82" s="26"/>
@@ -6839,8 +6844,8 @@
       <c r="G83" s="26"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
       <c r="L83" s="26"/>
       <c r="M83" s="26"/>
       <c r="N83" s="26"/>
@@ -6884,8 +6889,8 @@
       <c r="G84" s="26"/>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
       <c r="L84" s="26"/>
       <c r="M84" s="26"/>
       <c r="N84" s="26"/>
@@ -6929,8 +6934,8 @@
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
       <c r="L85" s="26"/>
       <c r="M85" s="26"/>
       <c r="N85" s="26"/>
@@ -6974,8 +6979,8 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
       <c r="L86" s="26"/>
       <c r="M86" s="26"/>
       <c r="N86" s="26"/>
@@ -7019,8 +7024,8 @@
       <c r="G87" s="26"/>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
       <c r="L87" s="26"/>
       <c r="M87" s="26"/>
       <c r="N87" s="26"/>
@@ -7064,8 +7069,8 @@
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
       <c r="L88" s="26"/>
       <c r="M88" s="26"/>
       <c r="N88" s="26"/>
@@ -7109,8 +7114,8 @@
       <c r="G89" s="26"/>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
       <c r="N89" s="26"/>
@@ -7154,8 +7159,8 @@
       <c r="G90" s="26"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
       <c r="N90" s="26"/>
@@ -7199,8 +7204,8 @@
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
       <c r="L91" s="26"/>
       <c r="M91" s="26"/>
       <c r="N91" s="26"/>
@@ -7244,8 +7249,8 @@
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
       <c r="N92" s="26"/>
@@ -7289,8 +7294,8 @@
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
       <c r="L93" s="26"/>
       <c r="M93" s="26"/>
       <c r="N93" s="26"/>
@@ -7334,8 +7339,8 @@
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
       <c r="L94" s="26"/>
       <c r="M94" s="26"/>
       <c r="N94" s="26"/>
@@ -7379,8 +7384,8 @@
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
       <c r="N95" s="26"/>
@@ -7424,8 +7429,8 @@
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
       <c r="N96" s="26"/>
@@ -7469,8 +7474,8 @@
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
       <c r="N97" s="26"/>
@@ -7514,8 +7519,8 @@
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
       <c r="N98" s="26"/>
@@ -7559,8 +7564,8 @@
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
       <c r="N99" s="26"/>
@@ -7604,8 +7609,8 @@
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
       <c r="N100" s="26"/>
@@ -7649,8 +7654,8 @@
       <c r="G101" s="26"/>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
       <c r="L101" s="26"/>
       <c r="M101" s="26"/>
       <c r="N101" s="26"/>
@@ -7694,8 +7699,8 @@
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
       <c r="L102" s="26"/>
       <c r="M102" s="26"/>
       <c r="N102" s="26"/>
@@ -7739,8 +7744,8 @@
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
       <c r="L103" s="26"/>
       <c r="M103" s="26"/>
       <c r="N103" s="26"/>
@@ -7784,8 +7789,8 @@
       <c r="G104" s="26"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="40"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
       <c r="L104" s="26"/>
       <c r="M104" s="26"/>
       <c r="N104" s="26"/>
@@ -7829,8 +7834,8 @@
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
       <c r="L105" s="26"/>
       <c r="M105" s="26"/>
       <c r="N105" s="26"/>
@@ -7874,8 +7879,8 @@
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
       <c r="L106" s="26"/>
       <c r="M106" s="26"/>
       <c r="N106" s="26"/>
@@ -7919,8 +7924,8 @@
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
       <c r="L107" s="26"/>
       <c r="M107" s="26"/>
       <c r="N107" s="26"/>
@@ -7964,8 +7969,8 @@
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
       <c r="L108" s="26"/>
       <c r="M108" s="26"/>
       <c r="N108" s="26"/>
@@ -8009,8 +8014,8 @@
       <c r="G109" s="26"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
       <c r="L109" s="26"/>
       <c r="M109" s="26"/>
       <c r="N109" s="26"/>
@@ -8054,8 +8059,8 @@
       <c r="G110" s="26"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
@@ -8099,8 +8104,8 @@
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
       <c r="L111" s="26"/>
       <c r="M111" s="26"/>
       <c r="N111" s="26"/>
@@ -8144,8 +8149,8 @@
       <c r="G112" s="26"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
       <c r="L112" s="26"/>
       <c r="M112" s="26"/>
       <c r="N112" s="26"/>
@@ -8189,8 +8194,8 @@
       <c r="G113" s="26"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
       <c r="L113" s="26"/>
       <c r="M113" s="26"/>
       <c r="N113" s="26"/>
@@ -8234,8 +8239,8 @@
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
       <c r="L114" s="26"/>
       <c r="M114" s="26"/>
       <c r="N114" s="26"/>
@@ -8279,8 +8284,8 @@
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
-      <c r="J115" s="40"/>
-      <c r="K115" s="40"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
       <c r="L115" s="26"/>
       <c r="M115" s="26"/>
       <c r="N115" s="26"/>
@@ -8324,8 +8329,8 @@
       <c r="G116" s="26"/>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
-      <c r="J116" s="40"/>
-      <c r="K116" s="40"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
       <c r="N116" s="26"/>
@@ -8369,8 +8374,8 @@
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
-      <c r="J117" s="40"/>
-      <c r="K117" s="40"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
       <c r="L117" s="26"/>
       <c r="M117" s="26"/>
       <c r="N117" s="26"/>
@@ -8414,8 +8419,8 @@
       <c r="G118" s="26"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
       <c r="N118" s="26"/>
@@ -8459,8 +8464,8 @@
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
-      <c r="J119" s="40"/>
-      <c r="K119" s="40"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
       <c r="L119" s="26"/>
       <c r="M119" s="26"/>
       <c r="N119" s="26"/>
@@ -8504,8 +8509,8 @@
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
       <c r="N120" s="26"/>
@@ -8549,8 +8554,8 @@
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
-      <c r="J121" s="40"/>
-      <c r="K121" s="40"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
       <c r="N121" s="26"/>
@@ -8594,8 +8599,8 @@
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
       <c r="N122" s="26"/>
@@ -8639,8 +8644,8 @@
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
-      <c r="J123" s="40"/>
-      <c r="K123" s="40"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
       <c r="L123" s="26"/>
       <c r="M123" s="26"/>
       <c r="N123" s="26"/>
@@ -8684,8 +8689,8 @@
       <c r="G124" s="26"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="40"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
       <c r="L124" s="26"/>
       <c r="M124" s="26"/>
       <c r="N124" s="26"/>
@@ -8729,8 +8734,8 @@
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="40"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
       <c r="L125" s="26"/>
       <c r="M125" s="26"/>
       <c r="N125" s="26"/>
@@ -8774,8 +8779,8 @@
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
-      <c r="J126" s="40"/>
-      <c r="K126" s="40"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
       <c r="L126" s="26"/>
       <c r="M126" s="26"/>
       <c r="N126" s="26"/>
@@ -8819,8 +8824,8 @@
       <c r="G127" s="26"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
-      <c r="J127" s="40"/>
-      <c r="K127" s="40"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
       <c r="L127" s="26"/>
       <c r="M127" s="26"/>
       <c r="N127" s="26"/>
@@ -8864,8 +8869,8 @@
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
-      <c r="J128" s="40"/>
-      <c r="K128" s="40"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
       <c r="L128" s="26"/>
       <c r="M128" s="26"/>
       <c r="N128" s="26"/>
@@ -8909,8 +8914,8 @@
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
-      <c r="J129" s="40"/>
-      <c r="K129" s="40"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
       <c r="L129" s="26"/>
       <c r="M129" s="26"/>
       <c r="N129" s="26"/>
@@ -8954,8 +8959,8 @@
       <c r="G130" s="26"/>
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
       <c r="L130" s="26"/>
       <c r="M130" s="26"/>
       <c r="N130" s="26"/>
@@ -8999,8 +9004,8 @@
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="40"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
       <c r="L131" s="26"/>
       <c r="M131" s="26"/>
       <c r="N131" s="26"/>
@@ -9044,8 +9049,8 @@
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
       <c r="L132" s="26"/>
       <c r="M132" s="26"/>
       <c r="N132" s="26"/>
@@ -9089,8 +9094,8 @@
       <c r="G133" s="26"/>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
-      <c r="J133" s="40"/>
-      <c r="K133" s="40"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
       <c r="L133" s="26"/>
       <c r="M133" s="26"/>
       <c r="N133" s="26"/>
@@ -9134,8 +9139,8 @@
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
       <c r="I134" s="26"/>
-      <c r="J134" s="40"/>
-      <c r="K134" s="40"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
       <c r="L134" s="26"/>
       <c r="M134" s="26"/>
       <c r="N134" s="26"/>
@@ -9179,8 +9184,8 @@
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
       <c r="L135" s="26"/>
       <c r="M135" s="26"/>
       <c r="N135" s="26"/>
@@ -9224,8 +9229,8 @@
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="40"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
       <c r="L136" s="26"/>
       <c r="M136" s="26"/>
       <c r="N136" s="26"/>
@@ -9269,8 +9274,8 @@
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="40"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
       <c r="L137" s="26"/>
       <c r="M137" s="26"/>
       <c r="N137" s="26"/>
@@ -9314,8 +9319,8 @@
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="40"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
       <c r="L138" s="26"/>
       <c r="M138" s="26"/>
       <c r="N138" s="26"/>
@@ -9359,8 +9364,8 @@
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
       <c r="L139" s="26"/>
       <c r="M139" s="26"/>
       <c r="N139" s="26"/>
@@ -9404,8 +9409,8 @@
       <c r="G140" s="26"/>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
-      <c r="J140" s="40"/>
-      <c r="K140" s="40"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
       <c r="L140" s="26"/>
       <c r="M140" s="26"/>
       <c r="N140" s="26"/>
@@ -9449,8 +9454,8 @@
       <c r="G141" s="26"/>
       <c r="H141" s="26"/>
       <c r="I141" s="26"/>
-      <c r="J141" s="40"/>
-      <c r="K141" s="40"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
       <c r="L141" s="26"/>
       <c r="M141" s="26"/>
       <c r="N141" s="26"/>
@@ -9494,8 +9499,8 @@
       <c r="G142" s="26"/>
       <c r="H142" s="26"/>
       <c r="I142" s="26"/>
-      <c r="J142" s="40"/>
-      <c r="K142" s="40"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
       <c r="L142" s="26"/>
       <c r="M142" s="26"/>
       <c r="N142" s="26"/>
@@ -9539,8 +9544,8 @@
       <c r="G143" s="26"/>
       <c r="H143" s="26"/>
       <c r="I143" s="26"/>
-      <c r="J143" s="40"/>
-      <c r="K143" s="40"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="41"/>
       <c r="L143" s="26"/>
       <c r="M143" s="26"/>
       <c r="N143" s="26"/>
@@ -9584,8 +9589,8 @@
       <c r="G144" s="26"/>
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
-      <c r="J144" s="40"/>
-      <c r="K144" s="40"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
       <c r="L144" s="26"/>
       <c r="M144" s="26"/>
       <c r="N144" s="26"/>
@@ -9629,8 +9634,8 @@
       <c r="G145" s="26"/>
       <c r="H145" s="26"/>
       <c r="I145" s="26"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="40"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
       <c r="L145" s="26"/>
       <c r="M145" s="26"/>
       <c r="N145" s="26"/>
@@ -9674,8 +9679,8 @@
       <c r="G146" s="26"/>
       <c r="H146" s="26"/>
       <c r="I146" s="26"/>
-      <c r="J146" s="40"/>
-      <c r="K146" s="40"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
@@ -9719,8 +9724,8 @@
       <c r="G147" s="26"/>
       <c r="H147" s="26"/>
       <c r="I147" s="26"/>
-      <c r="J147" s="40"/>
-      <c r="K147" s="40"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
       <c r="L147" s="26"/>
       <c r="M147" s="26"/>
       <c r="N147" s="26"/>
@@ -9764,8 +9769,8 @@
       <c r="G148" s="26"/>
       <c r="H148" s="26"/>
       <c r="I148" s="26"/>
-      <c r="J148" s="40"/>
-      <c r="K148" s="40"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
       <c r="L148" s="26"/>
       <c r="M148" s="26"/>
       <c r="N148" s="26"/>
@@ -9809,8 +9814,8 @@
       <c r="G149" s="26"/>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
-      <c r="J149" s="40"/>
-      <c r="K149" s="40"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
       <c r="L149" s="26"/>
       <c r="M149" s="26"/>
       <c r="N149" s="26"/>
@@ -9854,8 +9859,8 @@
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
-      <c r="J150" s="40"/>
-      <c r="K150" s="40"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
       <c r="L150" s="26"/>
       <c r="M150" s="26"/>
       <c r="N150" s="26"/>
@@ -9899,8 +9904,8 @@
       <c r="G151" s="26"/>
       <c r="H151" s="26"/>
       <c r="I151" s="26"/>
-      <c r="J151" s="40"/>
-      <c r="K151" s="40"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
       <c r="L151" s="26"/>
       <c r="M151" s="26"/>
       <c r="N151" s="26"/>
@@ -9944,8 +9949,8 @@
       <c r="G152" s="26"/>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
-      <c r="J152" s="40"/>
-      <c r="K152" s="40"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="41"/>
       <c r="L152" s="26"/>
       <c r="M152" s="26"/>
       <c r="N152" s="26"/>
@@ -9989,8 +9994,8 @@
       <c r="G153" s="26"/>
       <c r="H153" s="26"/>
       <c r="I153" s="26"/>
-      <c r="J153" s="40"/>
-      <c r="K153" s="40"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
       <c r="L153" s="26"/>
       <c r="M153" s="26"/>
       <c r="N153" s="26"/>
@@ -10034,8 +10039,8 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
       <c r="I154" s="26"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="40"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="41"/>
       <c r="L154" s="26"/>
       <c r="M154" s="26"/>
       <c r="N154" s="26"/>
@@ -10079,8 +10084,8 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
       <c r="I155" s="26"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="40"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
       <c r="L155" s="26"/>
       <c r="M155" s="26"/>
       <c r="N155" s="26"/>
@@ -10124,8 +10129,8 @@
       <c r="G156" s="26"/>
       <c r="H156" s="26"/>
       <c r="I156" s="26"/>
-      <c r="J156" s="40"/>
-      <c r="K156" s="40"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
       <c r="L156" s="26"/>
       <c r="M156" s="26"/>
       <c r="N156" s="26"/>
@@ -10169,8 +10174,8 @@
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
       <c r="I157" s="26"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="40"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
       <c r="L157" s="26"/>
       <c r="M157" s="26"/>
       <c r="N157" s="26"/>
@@ -10214,8 +10219,8 @@
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
-      <c r="J158" s="40"/>
-      <c r="K158" s="40"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
       <c r="L158" s="26"/>
       <c r="M158" s="26"/>
       <c r="N158" s="26"/>
@@ -10259,8 +10264,8 @@
       <c r="G159" s="26"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
-      <c r="J159" s="40"/>
-      <c r="K159" s="40"/>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
       <c r="L159" s="26"/>
       <c r="M159" s="26"/>
       <c r="N159" s="26"/>
@@ -10304,8 +10309,8 @@
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
-      <c r="J160" s="40"/>
-      <c r="K160" s="40"/>
+      <c r="J160" s="41"/>
+      <c r="K160" s="41"/>
       <c r="L160" s="26"/>
       <c r="M160" s="26"/>
       <c r="N160" s="26"/>
@@ -10349,8 +10354,8 @@
       <c r="G161" s="26"/>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
-      <c r="J161" s="40"/>
-      <c r="K161" s="40"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
       <c r="L161" s="26"/>
       <c r="M161" s="26"/>
       <c r="N161" s="26"/>
@@ -10394,8 +10399,8 @@
       <c r="G162" s="26"/>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
-      <c r="J162" s="40"/>
-      <c r="K162" s="40"/>
+      <c r="J162" s="41"/>
+      <c r="K162" s="41"/>
       <c r="L162" s="26"/>
       <c r="M162" s="26"/>
       <c r="N162" s="26"/>
@@ -10439,8 +10444,8 @@
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
       <c r="I163" s="26"/>
-      <c r="J163" s="40"/>
-      <c r="K163" s="40"/>
+      <c r="J163" s="41"/>
+      <c r="K163" s="41"/>
       <c r="L163" s="26"/>
       <c r="M163" s="26"/>
       <c r="N163" s="26"/>
@@ -10484,8 +10489,8 @@
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
-      <c r="J164" s="40"/>
-      <c r="K164" s="40"/>
+      <c r="J164" s="41"/>
+      <c r="K164" s="41"/>
       <c r="L164" s="26"/>
       <c r="M164" s="26"/>
       <c r="N164" s="26"/>
@@ -10529,8 +10534,8 @@
       <c r="G165" s="26"/>
       <c r="H165" s="26"/>
       <c r="I165" s="26"/>
-      <c r="J165" s="40"/>
-      <c r="K165" s="40"/>
+      <c r="J165" s="41"/>
+      <c r="K165" s="41"/>
       <c r="L165" s="26"/>
       <c r="M165" s="26"/>
       <c r="N165" s="26"/>
@@ -10574,8 +10579,8 @@
       <c r="G166" s="26"/>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
-      <c r="J166" s="40"/>
-      <c r="K166" s="40"/>
+      <c r="J166" s="41"/>
+      <c r="K166" s="41"/>
       <c r="L166" s="26"/>
       <c r="M166" s="26"/>
       <c r="N166" s="26"/>
@@ -10619,8 +10624,8 @@
       <c r="G167" s="26"/>
       <c r="H167" s="26"/>
       <c r="I167" s="26"/>
-      <c r="J167" s="40"/>
-      <c r="K167" s="40"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="41"/>
       <c r="L167" s="26"/>
       <c r="M167" s="26"/>
       <c r="N167" s="26"/>
@@ -10664,8 +10669,8 @@
       <c r="G168" s="26"/>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
-      <c r="J168" s="40"/>
-      <c r="K168" s="40"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="41"/>
       <c r="L168" s="26"/>
       <c r="M168" s="26"/>
       <c r="N168" s="26"/>
@@ -10709,8 +10714,8 @@
       <c r="G169" s="26"/>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
-      <c r="J169" s="40"/>
-      <c r="K169" s="40"/>
+      <c r="J169" s="41"/>
+      <c r="K169" s="41"/>
       <c r="L169" s="26"/>
       <c r="M169" s="26"/>
       <c r="N169" s="26"/>
@@ -10754,8 +10759,8 @@
       <c r="G170" s="26"/>
       <c r="H170" s="26"/>
       <c r="I170" s="26"/>
-      <c r="J170" s="40"/>
-      <c r="K170" s="40"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
       <c r="L170" s="26"/>
       <c r="M170" s="26"/>
       <c r="N170" s="26"/>
@@ -10799,8 +10804,8 @@
       <c r="G171" s="26"/>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
-      <c r="J171" s="40"/>
-      <c r="K171" s="40"/>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
       <c r="L171" s="26"/>
       <c r="M171" s="26"/>
       <c r="N171" s="26"/>
@@ -10844,8 +10849,8 @@
       <c r="G172" s="26"/>
       <c r="H172" s="26"/>
       <c r="I172" s="26"/>
-      <c r="J172" s="40"/>
-      <c r="K172" s="40"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="41"/>
       <c r="L172" s="26"/>
       <c r="M172" s="26"/>
       <c r="N172" s="26"/>
@@ -10889,8 +10894,8 @@
       <c r="G173" s="26"/>
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
-      <c r="J173" s="40"/>
-      <c r="K173" s="40"/>
+      <c r="J173" s="41"/>
+      <c r="K173" s="41"/>
       <c r="L173" s="26"/>
       <c r="M173" s="26"/>
       <c r="N173" s="26"/>
@@ -10934,8 +10939,8 @@
       <c r="G174" s="26"/>
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
-      <c r="J174" s="40"/>
-      <c r="K174" s="40"/>
+      <c r="J174" s="41"/>
+      <c r="K174" s="41"/>
       <c r="L174" s="26"/>
       <c r="M174" s="26"/>
       <c r="N174" s="26"/>
@@ -10979,8 +10984,8 @@
       <c r="G175" s="26"/>
       <c r="H175" s="26"/>
       <c r="I175" s="26"/>
-      <c r="J175" s="40"/>
-      <c r="K175" s="40"/>
+      <c r="J175" s="41"/>
+      <c r="K175" s="41"/>
       <c r="L175" s="26"/>
       <c r="M175" s="26"/>
       <c r="N175" s="26"/>
@@ -11024,8 +11029,8 @@
       <c r="G176" s="26"/>
       <c r="H176" s="26"/>
       <c r="I176" s="26"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="40"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41"/>
       <c r="L176" s="26"/>
       <c r="M176" s="26"/>
       <c r="N176" s="26"/>
@@ -11069,8 +11074,8 @@
       <c r="G177" s="26"/>
       <c r="H177" s="26"/>
       <c r="I177" s="26"/>
-      <c r="J177" s="40"/>
-      <c r="K177" s="40"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
       <c r="L177" s="26"/>
       <c r="M177" s="26"/>
       <c r="N177" s="26"/>
@@ -11114,8 +11119,8 @@
       <c r="G178" s="26"/>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
-      <c r="J178" s="40"/>
-      <c r="K178" s="40"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="41"/>
       <c r="L178" s="26"/>
       <c r="M178" s="26"/>
       <c r="N178" s="26"/>
@@ -11159,8 +11164,8 @@
       <c r="G179" s="26"/>
       <c r="H179" s="26"/>
       <c r="I179" s="26"/>
-      <c r="J179" s="40"/>
-      <c r="K179" s="40"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="41"/>
       <c r="L179" s="26"/>
       <c r="M179" s="26"/>
       <c r="N179" s="26"/>
@@ -11204,8 +11209,8 @@
       <c r="G180" s="26"/>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
-      <c r="J180" s="40"/>
-      <c r="K180" s="40"/>
+      <c r="J180" s="41"/>
+      <c r="K180" s="41"/>
       <c r="L180" s="26"/>
       <c r="M180" s="26"/>
       <c r="N180" s="26"/>
@@ -11249,8 +11254,8 @@
       <c r="G181" s="26"/>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
-      <c r="J181" s="40"/>
-      <c r="K181" s="40"/>
+      <c r="J181" s="41"/>
+      <c r="K181" s="41"/>
       <c r="L181" s="26"/>
       <c r="M181" s="26"/>
       <c r="N181" s="26"/>
@@ -11294,8 +11299,8 @@
       <c r="G182" s="26"/>
       <c r="H182" s="26"/>
       <c r="I182" s="26"/>
-      <c r="J182" s="40"/>
-      <c r="K182" s="40"/>
+      <c r="J182" s="41"/>
+      <c r="K182" s="41"/>
       <c r="L182" s="26"/>
       <c r="M182" s="26"/>
       <c r="N182" s="26"/>
@@ -11339,8 +11344,8 @@
       <c r="G183" s="26"/>
       <c r="H183" s="26"/>
       <c r="I183" s="26"/>
-      <c r="J183" s="40"/>
-      <c r="K183" s="40"/>
+      <c r="J183" s="41"/>
+      <c r="K183" s="41"/>
       <c r="L183" s="26"/>
       <c r="M183" s="26"/>
       <c r="N183" s="26"/>
@@ -11384,8 +11389,8 @@
       <c r="G184" s="26"/>
       <c r="H184" s="26"/>
       <c r="I184" s="26"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="40"/>
+      <c r="J184" s="41"/>
+      <c r="K184" s="41"/>
       <c r="L184" s="26"/>
       <c r="M184" s="26"/>
       <c r="N184" s="26"/>
@@ -11429,8 +11434,8 @@
       <c r="G185" s="26"/>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
-      <c r="J185" s="40"/>
-      <c r="K185" s="40"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="41"/>
       <c r="L185" s="26"/>
       <c r="M185" s="26"/>
       <c r="N185" s="26"/>
@@ -11474,8 +11479,8 @@
       <c r="G186" s="26"/>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="40"/>
+      <c r="J186" s="41"/>
+      <c r="K186" s="41"/>
       <c r="L186" s="26"/>
       <c r="M186" s="26"/>
       <c r="N186" s="26"/>
@@ -11519,8 +11524,8 @@
       <c r="G187" s="26"/>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="41"/>
       <c r="L187" s="26"/>
       <c r="M187" s="26"/>
       <c r="N187" s="26"/>
@@ -11564,8 +11569,8 @@
       <c r="G188" s="26"/>
       <c r="H188" s="26"/>
       <c r="I188" s="26"/>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
+      <c r="J188" s="41"/>
+      <c r="K188" s="41"/>
       <c r="L188" s="26"/>
       <c r="M188" s="26"/>
       <c r="N188" s="26"/>
@@ -11609,8 +11614,8 @@
       <c r="G189" s="26"/>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
-      <c r="J189" s="40"/>
-      <c r="K189" s="40"/>
+      <c r="J189" s="41"/>
+      <c r="K189" s="41"/>
       <c r="L189" s="26"/>
       <c r="M189" s="26"/>
       <c r="N189" s="26"/>
@@ -11654,8 +11659,8 @@
       <c r="G190" s="26"/>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
-      <c r="J190" s="40"/>
-      <c r="K190" s="40"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
       <c r="L190" s="26"/>
       <c r="M190" s="26"/>
       <c r="N190" s="26"/>
@@ -11699,8 +11704,8 @@
       <c r="G191" s="26"/>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
       <c r="L191" s="26"/>
       <c r="M191" s="26"/>
       <c r="N191" s="26"/>
@@ -11744,8 +11749,8 @@
       <c r="G192" s="26"/>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
       <c r="L192" s="26"/>
       <c r="M192" s="26"/>
       <c r="N192" s="26"/>
@@ -11789,8 +11794,8 @@
       <c r="G193" s="26"/>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
-      <c r="J193" s="40"/>
-      <c r="K193" s="40"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="41"/>
       <c r="L193" s="26"/>
       <c r="M193" s="26"/>
       <c r="N193" s="26"/>
@@ -11834,8 +11839,8 @@
       <c r="G194" s="26"/>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
-      <c r="J194" s="40"/>
-      <c r="K194" s="40"/>
+      <c r="J194" s="41"/>
+      <c r="K194" s="41"/>
       <c r="L194" s="26"/>
       <c r="M194" s="26"/>
       <c r="N194" s="26"/>
@@ -11879,8 +11884,8 @@
       <c r="G195" s="26"/>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="40"/>
+      <c r="J195" s="41"/>
+      <c r="K195" s="41"/>
       <c r="L195" s="26"/>
       <c r="M195" s="26"/>
       <c r="N195" s="26"/>
@@ -11924,8 +11929,8 @@
       <c r="G196" s="26"/>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
+      <c r="J196" s="41"/>
+      <c r="K196" s="41"/>
       <c r="L196" s="26"/>
       <c r="M196" s="26"/>
       <c r="N196" s="26"/>
@@ -11969,8 +11974,8 @@
       <c r="G197" s="26"/>
       <c r="H197" s="26"/>
       <c r="I197" s="26"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
+      <c r="J197" s="41"/>
+      <c r="K197" s="41"/>
       <c r="L197" s="26"/>
       <c r="M197" s="26"/>
       <c r="N197" s="26"/>
@@ -12014,8 +12019,8 @@
       <c r="G198" s="26"/>
       <c r="H198" s="26"/>
       <c r="I198" s="26"/>
-      <c r="J198" s="40"/>
-      <c r="K198" s="40"/>
+      <c r="J198" s="41"/>
+      <c r="K198" s="41"/>
       <c r="L198" s="26"/>
       <c r="M198" s="26"/>
       <c r="N198" s="26"/>
@@ -12059,8 +12064,8 @@
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
       <c r="I199" s="26"/>
-      <c r="J199" s="40"/>
-      <c r="K199" s="40"/>
+      <c r="J199" s="41"/>
+      <c r="K199" s="41"/>
       <c r="L199" s="26"/>
       <c r="M199" s="26"/>
       <c r="N199" s="26"/>
@@ -12104,8 +12109,8 @@
       <c r="G200" s="26"/>
       <c r="H200" s="26"/>
       <c r="I200" s="26"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="40"/>
+      <c r="J200" s="41"/>
+      <c r="K200" s="41"/>
       <c r="L200" s="26"/>
       <c r="M200" s="26"/>
       <c r="N200" s="26"/>
@@ -12149,8 +12154,8 @@
       <c r="G201" s="26"/>
       <c r="H201" s="26"/>
       <c r="I201" s="26"/>
-      <c r="J201" s="40"/>
-      <c r="K201" s="40"/>
+      <c r="J201" s="41"/>
+      <c r="K201" s="41"/>
       <c r="L201" s="26"/>
       <c r="M201" s="26"/>
       <c r="N201" s="26"/>
@@ -12194,8 +12199,8 @@
       <c r="G202" s="26"/>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="40"/>
+      <c r="J202" s="41"/>
+      <c r="K202" s="41"/>
       <c r="L202" s="26"/>
       <c r="M202" s="26"/>
       <c r="N202" s="26"/>
@@ -12239,8 +12244,8 @@
       <c r="G203" s="26"/>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
-      <c r="J203" s="40"/>
-      <c r="K203" s="40"/>
+      <c r="J203" s="41"/>
+      <c r="K203" s="41"/>
       <c r="L203" s="26"/>
       <c r="M203" s="26"/>
       <c r="N203" s="26"/>
@@ -12284,8 +12289,8 @@
       <c r="G204" s="26"/>
       <c r="H204" s="26"/>
       <c r="I204" s="26"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
+      <c r="J204" s="41"/>
+      <c r="K204" s="41"/>
       <c r="L204" s="26"/>
       <c r="M204" s="26"/>
       <c r="N204" s="26"/>
@@ -12329,8 +12334,8 @@
       <c r="G205" s="26"/>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
-      <c r="J205" s="40"/>
-      <c r="K205" s="40"/>
+      <c r="J205" s="41"/>
+      <c r="K205" s="41"/>
       <c r="L205" s="26"/>
       <c r="M205" s="26"/>
       <c r="N205" s="26"/>
@@ -12374,8 +12379,8 @@
       <c r="G206" s="26"/>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
-      <c r="J206" s="40"/>
-      <c r="K206" s="40"/>
+      <c r="J206" s="41"/>
+      <c r="K206" s="41"/>
       <c r="L206" s="26"/>
       <c r="M206" s="26"/>
       <c r="N206" s="26"/>
@@ -12419,8 +12424,8 @@
       <c r="G207" s="26"/>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
-      <c r="J207" s="40"/>
-      <c r="K207" s="40"/>
+      <c r="J207" s="41"/>
+      <c r="K207" s="41"/>
       <c r="L207" s="26"/>
       <c r="M207" s="26"/>
       <c r="N207" s="26"/>
@@ -12464,8 +12469,8 @@
       <c r="G208" s="26"/>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
-      <c r="J208" s="40"/>
-      <c r="K208" s="40"/>
+      <c r="J208" s="41"/>
+      <c r="K208" s="41"/>
       <c r="L208" s="26"/>
       <c r="M208" s="26"/>
       <c r="N208" s="26"/>
@@ -12509,8 +12514,8 @@
       <c r="G209" s="26"/>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="40"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
       <c r="L209" s="26"/>
       <c r="M209" s="26"/>
       <c r="N209" s="26"/>
@@ -12554,8 +12559,8 @@
       <c r="G210" s="26"/>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
-      <c r="J210" s="40"/>
-      <c r="K210" s="40"/>
+      <c r="J210" s="41"/>
+      <c r="K210" s="41"/>
       <c r="L210" s="26"/>
       <c r="M210" s="26"/>
       <c r="N210" s="26"/>
@@ -12599,8 +12604,8 @@
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
-      <c r="J211" s="40"/>
-      <c r="K211" s="40"/>
+      <c r="J211" s="41"/>
+      <c r="K211" s="41"/>
       <c r="L211" s="26"/>
       <c r="M211" s="26"/>
       <c r="N211" s="26"/>
@@ -12644,8 +12649,8 @@
       <c r="G212" s="26"/>
       <c r="H212" s="26"/>
       <c r="I212" s="26"/>
-      <c r="J212" s="40"/>
-      <c r="K212" s="40"/>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41"/>
       <c r="L212" s="26"/>
       <c r="M212" s="26"/>
       <c r="N212" s="26"/>
@@ -12689,8 +12694,8 @@
       <c r="G213" s="26"/>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
-      <c r="J213" s="40"/>
-      <c r="K213" s="40"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="41"/>
       <c r="L213" s="26"/>
       <c r="M213" s="26"/>
       <c r="N213" s="26"/>
@@ -12734,8 +12739,8 @@
       <c r="G214" s="26"/>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
-      <c r="J214" s="40"/>
-      <c r="K214" s="40"/>
+      <c r="J214" s="41"/>
+      <c r="K214" s="41"/>
       <c r="L214" s="26"/>
       <c r="M214" s="26"/>
       <c r="N214" s="26"/>
@@ -12779,8 +12784,8 @@
       <c r="G215" s="26"/>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
-      <c r="J215" s="40"/>
-      <c r="K215" s="40"/>
+      <c r="J215" s="41"/>
+      <c r="K215" s="41"/>
       <c r="L215" s="26"/>
       <c r="M215" s="26"/>
       <c r="N215" s="26"/>
@@ -12824,8 +12829,8 @@
       <c r="G216" s="26"/>
       <c r="H216" s="26"/>
       <c r="I216" s="26"/>
-      <c r="J216" s="40"/>
-      <c r="K216" s="40"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
       <c r="L216" s="26"/>
       <c r="M216" s="26"/>
       <c r="N216" s="26"/>
@@ -12869,8 +12874,8 @@
       <c r="G217" s="26"/>
       <c r="H217" s="26"/>
       <c r="I217" s="26"/>
-      <c r="J217" s="40"/>
-      <c r="K217" s="40"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
       <c r="L217" s="26"/>
       <c r="M217" s="26"/>
       <c r="N217" s="26"/>
@@ -12914,8 +12919,8 @@
       <c r="G218" s="26"/>
       <c r="H218" s="26"/>
       <c r="I218" s="26"/>
-      <c r="J218" s="40"/>
-      <c r="K218" s="40"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
       <c r="L218" s="26"/>
       <c r="M218" s="26"/>
       <c r="N218" s="26"/>
@@ -12959,8 +12964,8 @@
       <c r="G219" s="26"/>
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
-      <c r="J219" s="40"/>
-      <c r="K219" s="40"/>
+      <c r="J219" s="41"/>
+      <c r="K219" s="41"/>
       <c r="L219" s="26"/>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -13004,8 +13009,8 @@
       <c r="G220" s="26"/>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
-      <c r="J220" s="40"/>
-      <c r="K220" s="40"/>
+      <c r="J220" s="41"/>
+      <c r="K220" s="41"/>
       <c r="L220" s="26"/>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -13049,8 +13054,8 @@
       <c r="G221" s="26"/>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
-      <c r="J221" s="40"/>
-      <c r="K221" s="40"/>
+      <c r="J221" s="41"/>
+      <c r="K221" s="41"/>
       <c r="L221" s="26"/>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -13094,8 +13099,8 @@
       <c r="G222" s="26"/>
       <c r="H222" s="26"/>
       <c r="I222" s="26"/>
-      <c r="J222" s="40"/>
-      <c r="K222" s="40"/>
+      <c r="J222" s="41"/>
+      <c r="K222" s="41"/>
       <c r="L222" s="26"/>
       <c r="M222" s="26"/>
       <c r="N222" s="26"/>
@@ -13139,8 +13144,8 @@
       <c r="G223" s="26"/>
       <c r="H223" s="26"/>
       <c r="I223" s="26"/>
-      <c r="J223" s="40"/>
-      <c r="K223" s="40"/>
+      <c r="J223" s="41"/>
+      <c r="K223" s="41"/>
       <c r="L223" s="26"/>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -13184,8 +13189,8 @@
       <c r="G224" s="26"/>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
-      <c r="J224" s="40"/>
-      <c r="K224" s="40"/>
+      <c r="J224" s="41"/>
+      <c r="K224" s="41"/>
       <c r="L224" s="26"/>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -13229,8 +13234,8 @@
       <c r="G225" s="26"/>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
-      <c r="J225" s="40"/>
-      <c r="K225" s="40"/>
+      <c r="J225" s="41"/>
+      <c r="K225" s="41"/>
       <c r="L225" s="26"/>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -13274,8 +13279,8 @@
       <c r="G226" s="26"/>
       <c r="H226" s="26"/>
       <c r="I226" s="26"/>
-      <c r="J226" s="40"/>
-      <c r="K226" s="40"/>
+      <c r="J226" s="41"/>
+      <c r="K226" s="41"/>
       <c r="L226" s="26"/>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -13319,8 +13324,8 @@
       <c r="G227" s="26"/>
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
-      <c r="J227" s="40"/>
-      <c r="K227" s="40"/>
+      <c r="J227" s="41"/>
+      <c r="K227" s="41"/>
       <c r="L227" s="26"/>
       <c r="M227" s="26"/>
       <c r="N227" s="26"/>
@@ -13364,8 +13369,8 @@
       <c r="G228" s="26"/>
       <c r="H228" s="26"/>
       <c r="I228" s="26"/>
-      <c r="J228" s="40"/>
-      <c r="K228" s="40"/>
+      <c r="J228" s="41"/>
+      <c r="K228" s="41"/>
       <c r="L228" s="26"/>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -13409,8 +13414,8 @@
       <c r="G229" s="26"/>
       <c r="H229" s="26"/>
       <c r="I229" s="26"/>
-      <c r="J229" s="40"/>
-      <c r="K229" s="40"/>
+      <c r="J229" s="41"/>
+      <c r="K229" s="41"/>
       <c r="L229" s="26"/>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -13454,8 +13459,8 @@
       <c r="G230" s="26"/>
       <c r="H230" s="26"/>
       <c r="I230" s="26"/>
-      <c r="J230" s="40"/>
-      <c r="K230" s="40"/>
+      <c r="J230" s="41"/>
+      <c r="K230" s="41"/>
       <c r="L230" s="26"/>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -13499,8 +13504,8 @@
       <c r="G231" s="26"/>
       <c r="H231" s="26"/>
       <c r="I231" s="26"/>
-      <c r="J231" s="40"/>
-      <c r="K231" s="40"/>
+      <c r="J231" s="41"/>
+      <c r="K231" s="41"/>
       <c r="L231" s="26"/>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -13544,8 +13549,8 @@
       <c r="G232" s="26"/>
       <c r="H232" s="26"/>
       <c r="I232" s="26"/>
-      <c r="J232" s="40"/>
-      <c r="K232" s="40"/>
+      <c r="J232" s="41"/>
+      <c r="K232" s="41"/>
       <c r="L232" s="26"/>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -13589,8 +13594,8 @@
       <c r="G233" s="26"/>
       <c r="H233" s="26"/>
       <c r="I233" s="26"/>
-      <c r="J233" s="40"/>
-      <c r="K233" s="40"/>
+      <c r="J233" s="41"/>
+      <c r="K233" s="41"/>
       <c r="L233" s="26"/>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -13634,8 +13639,8 @@
       <c r="G234" s="26"/>
       <c r="H234" s="26"/>
       <c r="I234" s="26"/>
-      <c r="J234" s="40"/>
-      <c r="K234" s="40"/>
+      <c r="J234" s="41"/>
+      <c r="K234" s="41"/>
       <c r="L234" s="26"/>
       <c r="M234" s="26"/>
       <c r="N234" s="26"/>
@@ -13679,8 +13684,8 @@
       <c r="G235" s="26"/>
       <c r="H235" s="26"/>
       <c r="I235" s="26"/>
-      <c r="J235" s="40"/>
-      <c r="K235" s="40"/>
+      <c r="J235" s="41"/>
+      <c r="K235" s="41"/>
       <c r="L235" s="26"/>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -13724,8 +13729,8 @@
       <c r="G236" s="26"/>
       <c r="H236" s="26"/>
       <c r="I236" s="26"/>
-      <c r="J236" s="40"/>
-      <c r="K236" s="40"/>
+      <c r="J236" s="41"/>
+      <c r="K236" s="41"/>
       <c r="L236" s="26"/>
       <c r="M236" s="26"/>
       <c r="N236" s="26"/>
@@ -13769,8 +13774,8 @@
       <c r="G237" s="26"/>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
-      <c r="J237" s="40"/>
-      <c r="K237" s="40"/>
+      <c r="J237" s="41"/>
+      <c r="K237" s="41"/>
       <c r="L237" s="26"/>
       <c r="M237" s="26"/>
       <c r="N237" s="26"/>
@@ -13814,8 +13819,8 @@
       <c r="G238" s="26"/>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
-      <c r="J238" s="40"/>
-      <c r="K238" s="40"/>
+      <c r="J238" s="41"/>
+      <c r="K238" s="41"/>
       <c r="L238" s="26"/>
       <c r="M238" s="26"/>
       <c r="N238" s="26"/>
@@ -13859,8 +13864,8 @@
       <c r="G239" s="26"/>
       <c r="H239" s="26"/>
       <c r="I239" s="26"/>
-      <c r="J239" s="40"/>
-      <c r="K239" s="40"/>
+      <c r="J239" s="41"/>
+      <c r="K239" s="41"/>
       <c r="L239" s="26"/>
       <c r="M239" s="26"/>
       <c r="N239" s="26"/>
@@ -13904,8 +13909,8 @@
       <c r="G240" s="26"/>
       <c r="H240" s="26"/>
       <c r="I240" s="26"/>
-      <c r="J240" s="40"/>
-      <c r="K240" s="40"/>
+      <c r="J240" s="41"/>
+      <c r="K240" s="41"/>
       <c r="L240" s="26"/>
       <c r="M240" s="26"/>
       <c r="N240" s="26"/>
@@ -13949,8 +13954,8 @@
       <c r="G241" s="26"/>
       <c r="H241" s="26"/>
       <c r="I241" s="26"/>
-      <c r="J241" s="40"/>
-      <c r="K241" s="40"/>
+      <c r="J241" s="41"/>
+      <c r="K241" s="41"/>
       <c r="L241" s="26"/>
       <c r="M241" s="26"/>
       <c r="N241" s="26"/>
@@ -13994,8 +13999,8 @@
       <c r="G242" s="26"/>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
-      <c r="J242" s="40"/>
-      <c r="K242" s="40"/>
+      <c r="J242" s="41"/>
+      <c r="K242" s="41"/>
       <c r="L242" s="26"/>
       <c r="M242" s="26"/>
       <c r="N242" s="26"/>
@@ -14039,8 +14044,8 @@
       <c r="G243" s="26"/>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
-      <c r="J243" s="40"/>
-      <c r="K243" s="40"/>
+      <c r="J243" s="41"/>
+      <c r="K243" s="41"/>
       <c r="L243" s="26"/>
       <c r="M243" s="26"/>
       <c r="N243" s="26"/>
@@ -14084,8 +14089,8 @@
       <c r="G244" s="26"/>
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
-      <c r="J244" s="40"/>
-      <c r="K244" s="40"/>
+      <c r="J244" s="41"/>
+      <c r="K244" s="41"/>
       <c r="L244" s="26"/>
       <c r="M244" s="26"/>
       <c r="N244" s="26"/>
@@ -14129,8 +14134,8 @@
       <c r="G245" s="26"/>
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
-      <c r="J245" s="40"/>
-      <c r="K245" s="40"/>
+      <c r="J245" s="41"/>
+      <c r="K245" s="41"/>
       <c r="L245" s="26"/>
       <c r="M245" s="26"/>
       <c r="N245" s="26"/>
@@ -14174,8 +14179,8 @@
       <c r="G246" s="26"/>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
-      <c r="J246" s="40"/>
-      <c r="K246" s="40"/>
+      <c r="J246" s="41"/>
+      <c r="K246" s="41"/>
       <c r="L246" s="26"/>
       <c r="M246" s="26"/>
       <c r="N246" s="26"/>
@@ -14219,8 +14224,8 @@
       <c r="G247" s="26"/>
       <c r="H247" s="26"/>
       <c r="I247" s="26"/>
-      <c r="J247" s="40"/>
-      <c r="K247" s="40"/>
+      <c r="J247" s="41"/>
+      <c r="K247" s="41"/>
       <c r="L247" s="26"/>
       <c r="M247" s="26"/>
       <c r="N247" s="26"/>
@@ -14264,8 +14269,8 @@
       <c r="G248" s="26"/>
       <c r="H248" s="26"/>
       <c r="I248" s="26"/>
-      <c r="J248" s="40"/>
-      <c r="K248" s="40"/>
+      <c r="J248" s="41"/>
+      <c r="K248" s="41"/>
       <c r="L248" s="26"/>
       <c r="M248" s="26"/>
       <c r="N248" s="26"/>
@@ -14309,8 +14314,8 @@
       <c r="G249" s="26"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26"/>
-      <c r="J249" s="40"/>
-      <c r="K249" s="40"/>
+      <c r="J249" s="41"/>
+      <c r="K249" s="41"/>
       <c r="L249" s="26"/>
       <c r="M249" s="26"/>
       <c r="N249" s="26"/>
@@ -14354,8 +14359,8 @@
       <c r="G250" s="26"/>
       <c r="H250" s="26"/>
       <c r="I250" s="26"/>
-      <c r="J250" s="40"/>
-      <c r="K250" s="40"/>
+      <c r="J250" s="41"/>
+      <c r="K250" s="41"/>
       <c r="L250" s="26"/>
       <c r="M250" s="26"/>
       <c r="N250" s="26"/>
@@ -14399,8 +14404,8 @@
       <c r="G251" s="26"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
-      <c r="J251" s="40"/>
-      <c r="K251" s="40"/>
+      <c r="J251" s="41"/>
+      <c r="K251" s="41"/>
       <c r="L251" s="26"/>
       <c r="M251" s="26"/>
       <c r="N251" s="26"/>
@@ -14444,8 +14449,8 @@
       <c r="G252" s="26"/>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
-      <c r="J252" s="40"/>
-      <c r="K252" s="40"/>
+      <c r="J252" s="41"/>
+      <c r="K252" s="41"/>
       <c r="L252" s="26"/>
       <c r="M252" s="26"/>
       <c r="N252" s="26"/>
@@ -14489,8 +14494,8 @@
       <c r="G253" s="26"/>
       <c r="H253" s="26"/>
       <c r="I253" s="26"/>
-      <c r="J253" s="40"/>
-      <c r="K253" s="40"/>
+      <c r="J253" s="41"/>
+      <c r="K253" s="41"/>
       <c r="L253" s="26"/>
       <c r="M253" s="26"/>
       <c r="N253" s="26"/>
@@ -14534,8 +14539,8 @@
       <c r="G254" s="26"/>
       <c r="H254" s="26"/>
       <c r="I254" s="26"/>
-      <c r="J254" s="40"/>
-      <c r="K254" s="40"/>
+      <c r="J254" s="41"/>
+      <c r="K254" s="41"/>
       <c r="L254" s="26"/>
       <c r="M254" s="26"/>
       <c r="N254" s="26"/>
@@ -14579,8 +14584,8 @@
       <c r="G255" s="26"/>
       <c r="H255" s="26"/>
       <c r="I255" s="26"/>
-      <c r="J255" s="40"/>
-      <c r="K255" s="40"/>
+      <c r="J255" s="41"/>
+      <c r="K255" s="41"/>
       <c r="L255" s="26"/>
       <c r="M255" s="26"/>
       <c r="N255" s="26"/>
@@ -14624,8 +14629,8 @@
       <c r="G256" s="26"/>
       <c r="H256" s="26"/>
       <c r="I256" s="26"/>
-      <c r="J256" s="40"/>
-      <c r="K256" s="40"/>
+      <c r="J256" s="41"/>
+      <c r="K256" s="41"/>
       <c r="L256" s="26"/>
       <c r="M256" s="26"/>
       <c r="N256" s="26"/>
@@ -14669,8 +14674,8 @@
       <c r="G257" s="26"/>
       <c r="H257" s="26"/>
       <c r="I257" s="26"/>
-      <c r="J257" s="40"/>
-      <c r="K257" s="40"/>
+      <c r="J257" s="41"/>
+      <c r="K257" s="41"/>
       <c r="L257" s="26"/>
       <c r="M257" s="26"/>
       <c r="N257" s="26"/>
@@ -14714,8 +14719,8 @@
       <c r="G258" s="26"/>
       <c r="H258" s="26"/>
       <c r="I258" s="26"/>
-      <c r="J258" s="40"/>
-      <c r="K258" s="40"/>
+      <c r="J258" s="41"/>
+      <c r="K258" s="41"/>
       <c r="L258" s="26"/>
       <c r="M258" s="26"/>
       <c r="N258" s="26"/>
@@ -14759,8 +14764,8 @@
       <c r="G259" s="26"/>
       <c r="H259" s="26"/>
       <c r="I259" s="26"/>
-      <c r="J259" s="40"/>
-      <c r="K259" s="40"/>
+      <c r="J259" s="41"/>
+      <c r="K259" s="41"/>
       <c r="L259" s="26"/>
       <c r="M259" s="26"/>
       <c r="N259" s="26"/>
@@ -14804,8 +14809,8 @@
       <c r="G260" s="26"/>
       <c r="H260" s="26"/>
       <c r="I260" s="26"/>
-      <c r="J260" s="40"/>
-      <c r="K260" s="40"/>
+      <c r="J260" s="41"/>
+      <c r="K260" s="41"/>
       <c r="L260" s="26"/>
       <c r="M260" s="26"/>
       <c r="N260" s="26"/>
@@ -14849,8 +14854,8 @@
       <c r="G261" s="26"/>
       <c r="H261" s="26"/>
       <c r="I261" s="26"/>
-      <c r="J261" s="40"/>
-      <c r="K261" s="40"/>
+      <c r="J261" s="41"/>
+      <c r="K261" s="41"/>
       <c r="L261" s="26"/>
       <c r="M261" s="26"/>
       <c r="N261" s="26"/>
@@ -14894,8 +14899,8 @@
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
       <c r="I262" s="26"/>
-      <c r="J262" s="40"/>
-      <c r="K262" s="40"/>
+      <c r="J262" s="41"/>
+      <c r="K262" s="41"/>
       <c r="L262" s="26"/>
       <c r="M262" s="26"/>
       <c r="N262" s="26"/>
@@ -14939,8 +14944,8 @@
       <c r="G263" s="26"/>
       <c r="H263" s="26"/>
       <c r="I263" s="26"/>
-      <c r="J263" s="40"/>
-      <c r="K263" s="40"/>
+      <c r="J263" s="41"/>
+      <c r="K263" s="41"/>
       <c r="L263" s="26"/>
       <c r="M263" s="26"/>
       <c r="N263" s="26"/>
@@ -14984,8 +14989,8 @@
       <c r="G264" s="26"/>
       <c r="H264" s="26"/>
       <c r="I264" s="26"/>
-      <c r="J264" s="40"/>
-      <c r="K264" s="40"/>
+      <c r="J264" s="41"/>
+      <c r="K264" s="41"/>
       <c r="L264" s="26"/>
       <c r="M264" s="26"/>
       <c r="N264" s="26"/>
@@ -15029,8 +15034,8 @@
       <c r="G265" s="26"/>
       <c r="H265" s="26"/>
       <c r="I265" s="26"/>
-      <c r="J265" s="40"/>
-      <c r="K265" s="40"/>
+      <c r="J265" s="41"/>
+      <c r="K265" s="41"/>
       <c r="L265" s="26"/>
       <c r="M265" s="26"/>
       <c r="N265" s="26"/>
@@ -15074,8 +15079,8 @@
       <c r="G266" s="26"/>
       <c r="H266" s="26"/>
       <c r="I266" s="26"/>
-      <c r="J266" s="40"/>
-      <c r="K266" s="40"/>
+      <c r="J266" s="41"/>
+      <c r="K266" s="41"/>
       <c r="L266" s="26"/>
       <c r="M266" s="26"/>
       <c r="N266" s="26"/>
@@ -15119,8 +15124,8 @@
       <c r="G267" s="26"/>
       <c r="H267" s="26"/>
       <c r="I267" s="26"/>
-      <c r="J267" s="40"/>
-      <c r="K267" s="40"/>
+      <c r="J267" s="41"/>
+      <c r="K267" s="41"/>
       <c r="L267" s="26"/>
       <c r="M267" s="26"/>
       <c r="N267" s="26"/>
@@ -15164,8 +15169,8 @@
       <c r="G268" s="26"/>
       <c r="H268" s="26"/>
       <c r="I268" s="26"/>
-      <c r="J268" s="40"/>
-      <c r="K268" s="40"/>
+      <c r="J268" s="41"/>
+      <c r="K268" s="41"/>
       <c r="L268" s="26"/>
       <c r="M268" s="26"/>
       <c r="N268" s="26"/>
@@ -15209,8 +15214,8 @@
       <c r="G269" s="26"/>
       <c r="H269" s="26"/>
       <c r="I269" s="26"/>
-      <c r="J269" s="40"/>
-      <c r="K269" s="40"/>
+      <c r="J269" s="41"/>
+      <c r="K269" s="41"/>
       <c r="L269" s="26"/>
       <c r="M269" s="26"/>
       <c r="N269" s="26"/>
@@ -15254,8 +15259,8 @@
       <c r="G270" s="26"/>
       <c r="H270" s="26"/>
       <c r="I270" s="26"/>
-      <c r="J270" s="40"/>
-      <c r="K270" s="40"/>
+      <c r="J270" s="41"/>
+      <c r="K270" s="41"/>
       <c r="L270" s="26"/>
       <c r="M270" s="26"/>
       <c r="N270" s="26"/>
@@ -15299,8 +15304,8 @@
       <c r="G271" s="26"/>
       <c r="H271" s="26"/>
       <c r="I271" s="26"/>
-      <c r="J271" s="40"/>
-      <c r="K271" s="40"/>
+      <c r="J271" s="41"/>
+      <c r="K271" s="41"/>
       <c r="L271" s="26"/>
       <c r="M271" s="26"/>
       <c r="N271" s="26"/>
@@ -15344,8 +15349,8 @@
       <c r="G272" s="26"/>
       <c r="H272" s="26"/>
       <c r="I272" s="26"/>
-      <c r="J272" s="40"/>
-      <c r="K272" s="40"/>
+      <c r="J272" s="41"/>
+      <c r="K272" s="41"/>
       <c r="L272" s="26"/>
       <c r="M272" s="26"/>
       <c r="N272" s="26"/>
@@ -15389,8 +15394,8 @@
       <c r="G273" s="26"/>
       <c r="H273" s="26"/>
       <c r="I273" s="26"/>
-      <c r="J273" s="40"/>
-      <c r="K273" s="40"/>
+      <c r="J273" s="41"/>
+      <c r="K273" s="41"/>
       <c r="L273" s="26"/>
       <c r="M273" s="26"/>
       <c r="N273" s="26"/>
@@ -15434,8 +15439,8 @@
       <c r="G274" s="26"/>
       <c r="H274" s="26"/>
       <c r="I274" s="26"/>
-      <c r="J274" s="40"/>
-      <c r="K274" s="40"/>
+      <c r="J274" s="41"/>
+      <c r="K274" s="41"/>
       <c r="L274" s="26"/>
       <c r="M274" s="26"/>
       <c r="N274" s="26"/>
@@ -15479,8 +15484,8 @@
       <c r="G275" s="26"/>
       <c r="H275" s="26"/>
       <c r="I275" s="26"/>
-      <c r="J275" s="40"/>
-      <c r="K275" s="40"/>
+      <c r="J275" s="41"/>
+      <c r="K275" s="41"/>
       <c r="L275" s="26"/>
       <c r="M275" s="26"/>
       <c r="N275" s="26"/>
@@ -15524,8 +15529,8 @@
       <c r="G276" s="26"/>
       <c r="H276" s="26"/>
       <c r="I276" s="26"/>
-      <c r="J276" s="40"/>
-      <c r="K276" s="40"/>
+      <c r="J276" s="41"/>
+      <c r="K276" s="41"/>
       <c r="L276" s="26"/>
       <c r="M276" s="26"/>
       <c r="N276" s="26"/>
@@ -15569,8 +15574,8 @@
       <c r="G277" s="26"/>
       <c r="H277" s="26"/>
       <c r="I277" s="26"/>
-      <c r="J277" s="40"/>
-      <c r="K277" s="40"/>
+      <c r="J277" s="41"/>
+      <c r="K277" s="41"/>
       <c r="L277" s="26"/>
       <c r="M277" s="26"/>
       <c r="N277" s="26"/>
@@ -15614,8 +15619,8 @@
       <c r="G278" s="26"/>
       <c r="H278" s="26"/>
       <c r="I278" s="26"/>
-      <c r="J278" s="40"/>
-      <c r="K278" s="40"/>
+      <c r="J278" s="41"/>
+      <c r="K278" s="41"/>
       <c r="L278" s="26"/>
       <c r="M278" s="26"/>
       <c r="N278" s="26"/>
@@ -15659,8 +15664,8 @@
       <c r="G279" s="26"/>
       <c r="H279" s="26"/>
       <c r="I279" s="26"/>
-      <c r="J279" s="40"/>
-      <c r="K279" s="40"/>
+      <c r="J279" s="41"/>
+      <c r="K279" s="41"/>
       <c r="L279" s="26"/>
       <c r="M279" s="26"/>
       <c r="N279" s="26"/>
@@ -15704,8 +15709,8 @@
       <c r="G280" s="26"/>
       <c r="H280" s="26"/>
       <c r="I280" s="26"/>
-      <c r="J280" s="40"/>
-      <c r="K280" s="40"/>
+      <c r="J280" s="41"/>
+      <c r="K280" s="41"/>
       <c r="L280" s="26"/>
       <c r="M280" s="26"/>
       <c r="N280" s="26"/>
@@ -15749,8 +15754,8 @@
       <c r="G281" s="26"/>
       <c r="H281" s="26"/>
       <c r="I281" s="26"/>
-      <c r="J281" s="40"/>
-      <c r="K281" s="40"/>
+      <c r="J281" s="41"/>
+      <c r="K281" s="41"/>
       <c r="L281" s="26"/>
       <c r="M281" s="26"/>
       <c r="N281" s="26"/>
@@ -15794,8 +15799,8 @@
       <c r="G282" s="26"/>
       <c r="H282" s="26"/>
       <c r="I282" s="26"/>
-      <c r="J282" s="40"/>
-      <c r="K282" s="40"/>
+      <c r="J282" s="41"/>
+      <c r="K282" s="41"/>
       <c r="L282" s="26"/>
       <c r="M282" s="26"/>
       <c r="N282" s="26"/>
@@ -15839,8 +15844,8 @@
       <c r="G283" s="26"/>
       <c r="H283" s="26"/>
       <c r="I283" s="26"/>
-      <c r="J283" s="40"/>
-      <c r="K283" s="40"/>
+      <c r="J283" s="41"/>
+      <c r="K283" s="41"/>
       <c r="L283" s="26"/>
       <c r="M283" s="26"/>
       <c r="N283" s="26"/>
@@ -15884,8 +15889,8 @@
       <c r="G284" s="26"/>
       <c r="H284" s="26"/>
       <c r="I284" s="26"/>
-      <c r="J284" s="40"/>
-      <c r="K284" s="40"/>
+      <c r="J284" s="41"/>
+      <c r="K284" s="41"/>
       <c r="L284" s="26"/>
       <c r="M284" s="26"/>
       <c r="N284" s="26"/>
@@ -15929,8 +15934,8 @@
       <c r="G285" s="26"/>
       <c r="H285" s="26"/>
       <c r="I285" s="26"/>
-      <c r="J285" s="40"/>
-      <c r="K285" s="40"/>
+      <c r="J285" s="41"/>
+      <c r="K285" s="41"/>
       <c r="L285" s="26"/>
       <c r="M285" s="26"/>
       <c r="N285" s="26"/>
@@ -15974,8 +15979,8 @@
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
       <c r="I286" s="26"/>
-      <c r="J286" s="40"/>
-      <c r="K286" s="40"/>
+      <c r="J286" s="41"/>
+      <c r="K286" s="41"/>
       <c r="L286" s="26"/>
       <c r="M286" s="26"/>
       <c r="N286" s="26"/>
@@ -16019,8 +16024,8 @@
       <c r="G287" s="26"/>
       <c r="H287" s="26"/>
       <c r="I287" s="26"/>
-      <c r="J287" s="40"/>
-      <c r="K287" s="40"/>
+      <c r="J287" s="41"/>
+      <c r="K287" s="41"/>
       <c r="L287" s="26"/>
       <c r="M287" s="26"/>
       <c r="N287" s="26"/>
@@ -16064,8 +16069,8 @@
       <c r="G288" s="26"/>
       <c r="H288" s="26"/>
       <c r="I288" s="26"/>
-      <c r="J288" s="40"/>
-      <c r="K288" s="40"/>
+      <c r="J288" s="41"/>
+      <c r="K288" s="41"/>
       <c r="L288" s="26"/>
       <c r="M288" s="26"/>
       <c r="N288" s="26"/>
@@ -16109,8 +16114,8 @@
       <c r="G289" s="26"/>
       <c r="H289" s="26"/>
       <c r="I289" s="26"/>
-      <c r="J289" s="40"/>
-      <c r="K289" s="40"/>
+      <c r="J289" s="41"/>
+      <c r="K289" s="41"/>
       <c r="L289" s="26"/>
       <c r="M289" s="26"/>
       <c r="N289" s="26"/>
@@ -16154,8 +16159,8 @@
       <c r="G290" s="26"/>
       <c r="H290" s="26"/>
       <c r="I290" s="26"/>
-      <c r="J290" s="40"/>
-      <c r="K290" s="40"/>
+      <c r="J290" s="41"/>
+      <c r="K290" s="41"/>
       <c r="L290" s="26"/>
       <c r="M290" s="26"/>
       <c r="N290" s="26"/>
@@ -16199,8 +16204,8 @@
       <c r="G291" s="26"/>
       <c r="H291" s="26"/>
       <c r="I291" s="26"/>
-      <c r="J291" s="40"/>
-      <c r="K291" s="40"/>
+      <c r="J291" s="41"/>
+      <c r="K291" s="41"/>
       <c r="L291" s="26"/>
       <c r="M291" s="26"/>
       <c r="N291" s="26"/>
@@ -16244,8 +16249,8 @@
       <c r="G292" s="26"/>
       <c r="H292" s="26"/>
       <c r="I292" s="26"/>
-      <c r="J292" s="40"/>
-      <c r="K292" s="40"/>
+      <c r="J292" s="41"/>
+      <c r="K292" s="41"/>
       <c r="L292" s="26"/>
       <c r="M292" s="26"/>
       <c r="N292" s="26"/>
@@ -16289,8 +16294,8 @@
       <c r="G293" s="26"/>
       <c r="H293" s="26"/>
       <c r="I293" s="26"/>
-      <c r="J293" s="40"/>
-      <c r="K293" s="40"/>
+      <c r="J293" s="41"/>
+      <c r="K293" s="41"/>
       <c r="L293" s="26"/>
       <c r="M293" s="26"/>
       <c r="N293" s="26"/>
@@ -16334,8 +16339,8 @@
       <c r="G294" s="26"/>
       <c r="H294" s="26"/>
       <c r="I294" s="26"/>
-      <c r="J294" s="40"/>
-      <c r="K294" s="40"/>
+      <c r="J294" s="41"/>
+      <c r="K294" s="41"/>
       <c r="L294" s="26"/>
       <c r="M294" s="26"/>
       <c r="N294" s="26"/>
@@ -16379,8 +16384,8 @@
       <c r="G295" s="26"/>
       <c r="H295" s="26"/>
       <c r="I295" s="26"/>
-      <c r="J295" s="40"/>
-      <c r="K295" s="40"/>
+      <c r="J295" s="41"/>
+      <c r="K295" s="41"/>
       <c r="L295" s="26"/>
       <c r="M295" s="26"/>
       <c r="N295" s="26"/>
@@ -16424,8 +16429,8 @@
       <c r="G296" s="26"/>
       <c r="H296" s="26"/>
       <c r="I296" s="26"/>
-      <c r="J296" s="40"/>
-      <c r="K296" s="40"/>
+      <c r="J296" s="41"/>
+      <c r="K296" s="41"/>
       <c r="L296" s="26"/>
       <c r="M296" s="26"/>
       <c r="N296" s="26"/>
@@ -16469,8 +16474,8 @@
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
       <c r="I297" s="26"/>
-      <c r="J297" s="40"/>
-      <c r="K297" s="40"/>
+      <c r="J297" s="41"/>
+      <c r="K297" s="41"/>
       <c r="L297" s="26"/>
       <c r="M297" s="26"/>
       <c r="N297" s="26"/>
@@ -16514,8 +16519,8 @@
       <c r="G298" s="26"/>
       <c r="H298" s="26"/>
       <c r="I298" s="26"/>
-      <c r="J298" s="40"/>
-      <c r="K298" s="40"/>
+      <c r="J298" s="41"/>
+      <c r="K298" s="41"/>
       <c r="L298" s="26"/>
       <c r="M298" s="26"/>
       <c r="N298" s="26"/>
@@ -16559,8 +16564,8 @@
       <c r="G299" s="26"/>
       <c r="H299" s="26"/>
       <c r="I299" s="26"/>
-      <c r="J299" s="40"/>
-      <c r="K299" s="40"/>
+      <c r="J299" s="41"/>
+      <c r="K299" s="41"/>
       <c r="L299" s="26"/>
       <c r="M299" s="26"/>
       <c r="N299" s="26"/>
@@ -16604,8 +16609,8 @@
       <c r="G300" s="26"/>
       <c r="H300" s="26"/>
       <c r="I300" s="26"/>
-      <c r="J300" s="40"/>
-      <c r="K300" s="40"/>
+      <c r="J300" s="41"/>
+      <c r="K300" s="41"/>
       <c r="L300" s="26"/>
       <c r="M300" s="26"/>
       <c r="N300" s="26"/>
@@ -16649,8 +16654,8 @@
       <c r="G301" s="26"/>
       <c r="H301" s="26"/>
       <c r="I301" s="26"/>
-      <c r="J301" s="40"/>
-      <c r="K301" s="40"/>
+      <c r="J301" s="41"/>
+      <c r="K301" s="41"/>
       <c r="L301" s="26"/>
       <c r="M301" s="26"/>
       <c r="N301" s="26"/>
@@ -16694,8 +16699,8 @@
       <c r="G302" s="26"/>
       <c r="H302" s="26"/>
       <c r="I302" s="26"/>
-      <c r="J302" s="40"/>
-      <c r="K302" s="40"/>
+      <c r="J302" s="41"/>
+      <c r="K302" s="41"/>
       <c r="L302" s="26"/>
       <c r="M302" s="26"/>
       <c r="N302" s="26"/>
@@ -16739,8 +16744,8 @@
       <c r="G303" s="26"/>
       <c r="H303" s="26"/>
       <c r="I303" s="26"/>
-      <c r="J303" s="40"/>
-      <c r="K303" s="40"/>
+      <c r="J303" s="41"/>
+      <c r="K303" s="41"/>
       <c r="L303" s="26"/>
       <c r="M303" s="26"/>
       <c r="N303" s="26"/>
@@ -16784,8 +16789,8 @@
       <c r="G304" s="26"/>
       <c r="H304" s="26"/>
       <c r="I304" s="26"/>
-      <c r="J304" s="40"/>
-      <c r="K304" s="40"/>
+      <c r="J304" s="41"/>
+      <c r="K304" s="41"/>
       <c r="L304" s="26"/>
       <c r="M304" s="26"/>
       <c r="N304" s="26"/>
@@ -16829,8 +16834,8 @@
       <c r="G305" s="26"/>
       <c r="H305" s="26"/>
       <c r="I305" s="26"/>
-      <c r="J305" s="40"/>
-      <c r="K305" s="40"/>
+      <c r="J305" s="41"/>
+      <c r="K305" s="41"/>
       <c r="L305" s="26"/>
       <c r="M305" s="26"/>
       <c r="N305" s="26"/>
@@ -16874,8 +16879,8 @@
       <c r="G306" s="26"/>
       <c r="H306" s="26"/>
       <c r="I306" s="26"/>
-      <c r="J306" s="40"/>
-      <c r="K306" s="40"/>
+      <c r="J306" s="41"/>
+      <c r="K306" s="41"/>
       <c r="L306" s="26"/>
       <c r="M306" s="26"/>
       <c r="N306" s="26"/>
@@ -16919,8 +16924,8 @@
       <c r="G307" s="26"/>
       <c r="H307" s="26"/>
       <c r="I307" s="26"/>
-      <c r="J307" s="40"/>
-      <c r="K307" s="40"/>
+      <c r="J307" s="41"/>
+      <c r="K307" s="41"/>
       <c r="L307" s="26"/>
       <c r="M307" s="26"/>
       <c r="N307" s="26"/>
@@ -16964,8 +16969,8 @@
       <c r="G308" s="26"/>
       <c r="H308" s="26"/>
       <c r="I308" s="26"/>
-      <c r="J308" s="40"/>
-      <c r="K308" s="40"/>
+      <c r="J308" s="41"/>
+      <c r="K308" s="41"/>
       <c r="L308" s="26"/>
       <c r="M308" s="26"/>
       <c r="N308" s="26"/>
@@ -17009,8 +17014,8 @@
       <c r="G309" s="26"/>
       <c r="H309" s="26"/>
       <c r="I309" s="26"/>
-      <c r="J309" s="40"/>
-      <c r="K309" s="40"/>
+      <c r="J309" s="41"/>
+      <c r="K309" s="41"/>
       <c r="L309" s="26"/>
       <c r="M309" s="26"/>
       <c r="N309" s="26"/>
@@ -17054,8 +17059,8 @@
       <c r="G310" s="26"/>
       <c r="H310" s="26"/>
       <c r="I310" s="26"/>
-      <c r="J310" s="40"/>
-      <c r="K310" s="40"/>
+      <c r="J310" s="41"/>
+      <c r="K310" s="41"/>
       <c r="L310" s="26"/>
       <c r="M310" s="26"/>
       <c r="N310" s="26"/>
@@ -17099,8 +17104,8 @@
       <c r="G311" s="26"/>
       <c r="H311" s="26"/>
       <c r="I311" s="26"/>
-      <c r="J311" s="40"/>
-      <c r="K311" s="40"/>
+      <c r="J311" s="41"/>
+      <c r="K311" s="41"/>
       <c r="L311" s="26"/>
       <c r="M311" s="26"/>
       <c r="N311" s="26"/>
@@ -17144,8 +17149,8 @@
       <c r="G312" s="26"/>
       <c r="H312" s="26"/>
       <c r="I312" s="26"/>
-      <c r="J312" s="40"/>
-      <c r="K312" s="40"/>
+      <c r="J312" s="41"/>
+      <c r="K312" s="41"/>
       <c r="L312" s="26"/>
       <c r="M312" s="26"/>
       <c r="N312" s="26"/>
@@ -17189,8 +17194,8 @@
       <c r="G313" s="26"/>
       <c r="H313" s="26"/>
       <c r="I313" s="26"/>
-      <c r="J313" s="40"/>
-      <c r="K313" s="40"/>
+      <c r="J313" s="41"/>
+      <c r="K313" s="41"/>
       <c r="L313" s="26"/>
       <c r="M313" s="26"/>
       <c r="N313" s="26"/>
@@ -17234,8 +17239,8 @@
       <c r="G314" s="26"/>
       <c r="H314" s="26"/>
       <c r="I314" s="26"/>
-      <c r="J314" s="40"/>
-      <c r="K314" s="40"/>
+      <c r="J314" s="41"/>
+      <c r="K314" s="41"/>
       <c r="L314" s="26"/>
       <c r="M314" s="26"/>
       <c r="N314" s="26"/>
@@ -17279,8 +17284,8 @@
       <c r="G315" s="26"/>
       <c r="H315" s="26"/>
       <c r="I315" s="26"/>
-      <c r="J315" s="40"/>
-      <c r="K315" s="40"/>
+      <c r="J315" s="41"/>
+      <c r="K315" s="41"/>
       <c r="L315" s="26"/>
       <c r="M315" s="26"/>
       <c r="N315" s="26"/>
@@ -17324,8 +17329,8 @@
       <c r="G316" s="26"/>
       <c r="H316" s="26"/>
       <c r="I316" s="26"/>
-      <c r="J316" s="40"/>
-      <c r="K316" s="40"/>
+      <c r="J316" s="41"/>
+      <c r="K316" s="41"/>
       <c r="L316" s="26"/>
       <c r="M316" s="26"/>
       <c r="N316" s="26"/>
@@ -17369,8 +17374,8 @@
       <c r="G317" s="26"/>
       <c r="H317" s="26"/>
       <c r="I317" s="26"/>
-      <c r="J317" s="40"/>
-      <c r="K317" s="40"/>
+      <c r="J317" s="41"/>
+      <c r="K317" s="41"/>
       <c r="L317" s="26"/>
       <c r="M317" s="26"/>
       <c r="N317" s="26"/>
@@ -17414,8 +17419,8 @@
       <c r="G318" s="26"/>
       <c r="H318" s="26"/>
       <c r="I318" s="26"/>
-      <c r="J318" s="40"/>
-      <c r="K318" s="40"/>
+      <c r="J318" s="41"/>
+      <c r="K318" s="41"/>
       <c r="L318" s="26"/>
       <c r="M318" s="26"/>
       <c r="N318" s="26"/>
@@ -17459,8 +17464,8 @@
       <c r="G319" s="26"/>
       <c r="H319" s="26"/>
       <c r="I319" s="26"/>
-      <c r="J319" s="40"/>
-      <c r="K319" s="40"/>
+      <c r="J319" s="41"/>
+      <c r="K319" s="41"/>
       <c r="L319" s="26"/>
       <c r="M319" s="26"/>
       <c r="N319" s="26"/>
@@ -17504,8 +17509,8 @@
       <c r="G320" s="26"/>
       <c r="H320" s="26"/>
       <c r="I320" s="26"/>
-      <c r="J320" s="40"/>
-      <c r="K320" s="40"/>
+      <c r="J320" s="41"/>
+      <c r="K320" s="41"/>
       <c r="L320" s="26"/>
       <c r="M320" s="26"/>
       <c r="N320" s="26"/>
@@ -17549,8 +17554,8 @@
       <c r="G321" s="26"/>
       <c r="H321" s="26"/>
       <c r="I321" s="26"/>
-      <c r="J321" s="40"/>
-      <c r="K321" s="40"/>
+      <c r="J321" s="41"/>
+      <c r="K321" s="41"/>
       <c r="L321" s="26"/>
       <c r="M321" s="26"/>
       <c r="N321" s="26"/>
@@ -17594,8 +17599,8 @@
       <c r="G322" s="26"/>
       <c r="H322" s="26"/>
       <c r="I322" s="26"/>
-      <c r="J322" s="40"/>
-      <c r="K322" s="40"/>
+      <c r="J322" s="41"/>
+      <c r="K322" s="41"/>
       <c r="L322" s="26"/>
       <c r="M322" s="26"/>
       <c r="N322" s="26"/>
@@ -17639,8 +17644,8 @@
       <c r="G323" s="26"/>
       <c r="H323" s="26"/>
       <c r="I323" s="26"/>
-      <c r="J323" s="40"/>
-      <c r="K323" s="40"/>
+      <c r="J323" s="41"/>
+      <c r="K323" s="41"/>
       <c r="L323" s="26"/>
       <c r="M323" s="26"/>
       <c r="N323" s="26"/>
@@ -17684,8 +17689,8 @@
       <c r="G324" s="26"/>
       <c r="H324" s="26"/>
       <c r="I324" s="26"/>
-      <c r="J324" s="40"/>
-      <c r="K324" s="40"/>
+      <c r="J324" s="41"/>
+      <c r="K324" s="41"/>
       <c r="L324" s="26"/>
       <c r="M324" s="26"/>
       <c r="N324" s="26"/>
@@ -17729,8 +17734,8 @@
       <c r="G325" s="26"/>
       <c r="H325" s="26"/>
       <c r="I325" s="26"/>
-      <c r="J325" s="40"/>
-      <c r="K325" s="40"/>
+      <c r="J325" s="41"/>
+      <c r="K325" s="41"/>
       <c r="L325" s="26"/>
       <c r="M325" s="26"/>
       <c r="N325" s="26"/>
@@ -17774,8 +17779,8 @@
       <c r="G326" s="26"/>
       <c r="H326" s="26"/>
       <c r="I326" s="26"/>
-      <c r="J326" s="40"/>
-      <c r="K326" s="40"/>
+      <c r="J326" s="41"/>
+      <c r="K326" s="41"/>
       <c r="L326" s="26"/>
       <c r="M326" s="26"/>
       <c r="N326" s="26"/>
@@ -17819,8 +17824,8 @@
       <c r="G327" s="26"/>
       <c r="H327" s="26"/>
       <c r="I327" s="26"/>
-      <c r="J327" s="40"/>
-      <c r="K327" s="40"/>
+      <c r="J327" s="41"/>
+      <c r="K327" s="41"/>
       <c r="L327" s="26"/>
       <c r="M327" s="26"/>
       <c r="N327" s="26"/>
@@ -17864,8 +17869,8 @@
       <c r="G328" s="26"/>
       <c r="H328" s="26"/>
       <c r="I328" s="26"/>
-      <c r="J328" s="40"/>
-      <c r="K328" s="40"/>
+      <c r="J328" s="41"/>
+      <c r="K328" s="41"/>
       <c r="L328" s="26"/>
       <c r="M328" s="26"/>
       <c r="N328" s="26"/>
@@ -17909,8 +17914,8 @@
       <c r="G329" s="26"/>
       <c r="H329" s="26"/>
       <c r="I329" s="26"/>
-      <c r="J329" s="40"/>
-      <c r="K329" s="40"/>
+      <c r="J329" s="41"/>
+      <c r="K329" s="41"/>
       <c r="L329" s="26"/>
       <c r="M329" s="26"/>
       <c r="N329" s="26"/>
@@ -17954,8 +17959,8 @@
       <c r="G330" s="26"/>
       <c r="H330" s="26"/>
       <c r="I330" s="26"/>
-      <c r="J330" s="40"/>
-      <c r="K330" s="40"/>
+      <c r="J330" s="41"/>
+      <c r="K330" s="41"/>
       <c r="L330" s="26"/>
       <c r="M330" s="26"/>
       <c r="N330" s="26"/>
@@ -17999,8 +18004,8 @@
       <c r="G331" s="26"/>
       <c r="H331" s="26"/>
       <c r="I331" s="26"/>
-      <c r="J331" s="40"/>
-      <c r="K331" s="40"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
       <c r="L331" s="26"/>
       <c r="M331" s="26"/>
       <c r="N331" s="26"/>
@@ -18044,8 +18049,8 @@
       <c r="G332" s="26"/>
       <c r="H332" s="26"/>
       <c r="I332" s="26"/>
-      <c r="J332" s="40"/>
-      <c r="K332" s="40"/>
+      <c r="J332" s="41"/>
+      <c r="K332" s="41"/>
       <c r="L332" s="26"/>
       <c r="M332" s="26"/>
       <c r="N332" s="26"/>
@@ -18089,8 +18094,8 @@
       <c r="G333" s="26"/>
       <c r="H333" s="26"/>
       <c r="I333" s="26"/>
-      <c r="J333" s="40"/>
-      <c r="K333" s="40"/>
+      <c r="J333" s="41"/>
+      <c r="K333" s="41"/>
       <c r="L333" s="26"/>
       <c r="M333" s="26"/>
       <c r="N333" s="26"/>
@@ -18134,8 +18139,8 @@
       <c r="G334" s="26"/>
       <c r="H334" s="26"/>
       <c r="I334" s="26"/>
-      <c r="J334" s="40"/>
-      <c r="K334" s="40"/>
+      <c r="J334" s="41"/>
+      <c r="K334" s="41"/>
       <c r="L334" s="26"/>
       <c r="M334" s="26"/>
       <c r="N334" s="26"/>
@@ -18179,8 +18184,8 @@
       <c r="G335" s="26"/>
       <c r="H335" s="26"/>
       <c r="I335" s="26"/>
-      <c r="J335" s="40"/>
-      <c r="K335" s="40"/>
+      <c r="J335" s="41"/>
+      <c r="K335" s="41"/>
       <c r="L335" s="26"/>
       <c r="M335" s="26"/>
       <c r="N335" s="26"/>
@@ -18224,8 +18229,8 @@
       <c r="G336" s="26"/>
       <c r="H336" s="26"/>
       <c r="I336" s="26"/>
-      <c r="J336" s="40"/>
-      <c r="K336" s="40"/>
+      <c r="J336" s="41"/>
+      <c r="K336" s="41"/>
       <c r="L336" s="26"/>
       <c r="M336" s="26"/>
       <c r="N336" s="26"/>
@@ -18269,8 +18274,8 @@
       <c r="G337" s="26"/>
       <c r="H337" s="26"/>
       <c r="I337" s="26"/>
-      <c r="J337" s="40"/>
-      <c r="K337" s="40"/>
+      <c r="J337" s="41"/>
+      <c r="K337" s="41"/>
       <c r="L337" s="26"/>
       <c r="M337" s="26"/>
       <c r="N337" s="26"/>
@@ -18314,8 +18319,8 @@
       <c r="G338" s="26"/>
       <c r="H338" s="26"/>
       <c r="I338" s="26"/>
-      <c r="J338" s="40"/>
-      <c r="K338" s="40"/>
+      <c r="J338" s="41"/>
+      <c r="K338" s="41"/>
       <c r="L338" s="26"/>
       <c r="M338" s="26"/>
       <c r="N338" s="26"/>
@@ -18359,8 +18364,8 @@
       <c r="G339" s="26"/>
       <c r="H339" s="26"/>
       <c r="I339" s="26"/>
-      <c r="J339" s="40"/>
-      <c r="K339" s="40"/>
+      <c r="J339" s="41"/>
+      <c r="K339" s="41"/>
       <c r="L339" s="26"/>
       <c r="M339" s="26"/>
       <c r="N339" s="26"/>
@@ -18404,8 +18409,8 @@
       <c r="G340" s="26"/>
       <c r="H340" s="26"/>
       <c r="I340" s="26"/>
-      <c r="J340" s="40"/>
-      <c r="K340" s="40"/>
+      <c r="J340" s="41"/>
+      <c r="K340" s="41"/>
       <c r="L340" s="26"/>
       <c r="M340" s="26"/>
       <c r="N340" s="26"/>
@@ -18449,8 +18454,8 @@
       <c r="G341" s="26"/>
       <c r="H341" s="26"/>
       <c r="I341" s="26"/>
-      <c r="J341" s="40"/>
-      <c r="K341" s="40"/>
+      <c r="J341" s="41"/>
+      <c r="K341" s="41"/>
       <c r="L341" s="26"/>
       <c r="M341" s="26"/>
       <c r="N341" s="26"/>
@@ -18494,8 +18499,8 @@
       <c r="G342" s="26"/>
       <c r="H342" s="26"/>
       <c r="I342" s="26"/>
-      <c r="J342" s="40"/>
-      <c r="K342" s="40"/>
+      <c r="J342" s="41"/>
+      <c r="K342" s="41"/>
       <c r="L342" s="26"/>
       <c r="M342" s="26"/>
       <c r="N342" s="26"/>
@@ -18539,8 +18544,8 @@
       <c r="G343" s="26"/>
       <c r="H343" s="26"/>
       <c r="I343" s="26"/>
-      <c r="J343" s="40"/>
-      <c r="K343" s="40"/>
+      <c r="J343" s="41"/>
+      <c r="K343" s="41"/>
       <c r="L343" s="26"/>
       <c r="M343" s="26"/>
       <c r="N343" s="26"/>
@@ -18584,8 +18589,8 @@
       <c r="G344" s="26"/>
       <c r="H344" s="26"/>
       <c r="I344" s="26"/>
-      <c r="J344" s="40"/>
-      <c r="K344" s="40"/>
+      <c r="J344" s="41"/>
+      <c r="K344" s="41"/>
       <c r="L344" s="26"/>
       <c r="M344" s="26"/>
       <c r="N344" s="26"/>
@@ -18629,8 +18634,8 @@
       <c r="G345" s="26"/>
       <c r="H345" s="26"/>
       <c r="I345" s="26"/>
-      <c r="J345" s="40"/>
-      <c r="K345" s="40"/>
+      <c r="J345" s="41"/>
+      <c r="K345" s="41"/>
       <c r="L345" s="26"/>
       <c r="M345" s="26"/>
       <c r="N345" s="26"/>
@@ -18674,8 +18679,8 @@
       <c r="G346" s="26"/>
       <c r="H346" s="26"/>
       <c r="I346" s="26"/>
-      <c r="J346" s="40"/>
-      <c r="K346" s="40"/>
+      <c r="J346" s="41"/>
+      <c r="K346" s="41"/>
       <c r="L346" s="26"/>
       <c r="M346" s="26"/>
       <c r="N346" s="26"/>
@@ -18719,8 +18724,8 @@
       <c r="G347" s="26"/>
       <c r="H347" s="26"/>
       <c r="I347" s="26"/>
-      <c r="J347" s="40"/>
-      <c r="K347" s="40"/>
+      <c r="J347" s="41"/>
+      <c r="K347" s="41"/>
       <c r="L347" s="26"/>
       <c r="M347" s="26"/>
       <c r="N347" s="26"/>
@@ -18764,8 +18769,8 @@
       <c r="G348" s="26"/>
       <c r="H348" s="26"/>
       <c r="I348" s="26"/>
-      <c r="J348" s="40"/>
-      <c r="K348" s="40"/>
+      <c r="J348" s="41"/>
+      <c r="K348" s="41"/>
       <c r="L348" s="26"/>
       <c r="M348" s="26"/>
       <c r="N348" s="26"/>
@@ -18809,8 +18814,8 @@
       <c r="G349" s="26"/>
       <c r="H349" s="26"/>
       <c r="I349" s="26"/>
-      <c r="J349" s="40"/>
-      <c r="K349" s="40"/>
+      <c r="J349" s="41"/>
+      <c r="K349" s="41"/>
       <c r="L349" s="26"/>
       <c r="M349" s="26"/>
       <c r="N349" s="26"/>
@@ -18854,8 +18859,8 @@
       <c r="G350" s="26"/>
       <c r="H350" s="26"/>
       <c r="I350" s="26"/>
-      <c r="J350" s="40"/>
-      <c r="K350" s="40"/>
+      <c r="J350" s="41"/>
+      <c r="K350" s="41"/>
       <c r="L350" s="26"/>
       <c r="M350" s="26"/>
       <c r="N350" s="26"/>
@@ -18899,8 +18904,8 @@
       <c r="G351" s="26"/>
       <c r="H351" s="26"/>
       <c r="I351" s="26"/>
-      <c r="J351" s="40"/>
-      <c r="K351" s="40"/>
+      <c r="J351" s="41"/>
+      <c r="K351" s="41"/>
       <c r="L351" s="26"/>
       <c r="M351" s="26"/>
       <c r="N351" s="26"/>
@@ -18944,8 +18949,8 @@
       <c r="G352" s="26"/>
       <c r="H352" s="26"/>
       <c r="I352" s="26"/>
-      <c r="J352" s="40"/>
-      <c r="K352" s="40"/>
+      <c r="J352" s="41"/>
+      <c r="K352" s="41"/>
       <c r="L352" s="26"/>
       <c r="M352" s="26"/>
       <c r="N352" s="26"/>
@@ -18989,8 +18994,8 @@
       <c r="G353" s="26"/>
       <c r="H353" s="26"/>
       <c r="I353" s="26"/>
-      <c r="J353" s="40"/>
-      <c r="K353" s="40"/>
+      <c r="J353" s="41"/>
+      <c r="K353" s="41"/>
       <c r="L353" s="26"/>
       <c r="M353" s="26"/>
       <c r="N353" s="26"/>
@@ -19034,8 +19039,8 @@
       <c r="G354" s="26"/>
       <c r="H354" s="26"/>
       <c r="I354" s="26"/>
-      <c r="J354" s="40"/>
-      <c r="K354" s="40"/>
+      <c r="J354" s="41"/>
+      <c r="K354" s="41"/>
       <c r="L354" s="26"/>
       <c r="M354" s="26"/>
       <c r="N354" s="26"/>
@@ -19079,8 +19084,8 @@
       <c r="G355" s="26"/>
       <c r="H355" s="26"/>
       <c r="I355" s="26"/>
-      <c r="J355" s="40"/>
-      <c r="K355" s="40"/>
+      <c r="J355" s="41"/>
+      <c r="K355" s="41"/>
       <c r="L355" s="26"/>
       <c r="M355" s="26"/>
       <c r="N355" s="26"/>
@@ -19124,8 +19129,8 @@
       <c r="G356" s="26"/>
       <c r="H356" s="26"/>
       <c r="I356" s="26"/>
-      <c r="J356" s="40"/>
-      <c r="K356" s="40"/>
+      <c r="J356" s="41"/>
+      <c r="K356" s="41"/>
       <c r="L356" s="26"/>
       <c r="M356" s="26"/>
       <c r="N356" s="26"/>
@@ -19169,8 +19174,8 @@
       <c r="G357" s="26"/>
       <c r="H357" s="26"/>
       <c r="I357" s="26"/>
-      <c r="J357" s="40"/>
-      <c r="K357" s="40"/>
+      <c r="J357" s="41"/>
+      <c r="K357" s="41"/>
       <c r="L357" s="26"/>
       <c r="M357" s="26"/>
       <c r="N357" s="26"/>
@@ -19214,8 +19219,8 @@
       <c r="G358" s="26"/>
       <c r="H358" s="26"/>
       <c r="I358" s="26"/>
-      <c r="J358" s="40"/>
-      <c r="K358" s="40"/>
+      <c r="J358" s="41"/>
+      <c r="K358" s="41"/>
       <c r="L358" s="26"/>
       <c r="M358" s="26"/>
       <c r="N358" s="26"/>
@@ -19259,8 +19264,8 @@
       <c r="G359" s="26"/>
       <c r="H359" s="26"/>
       <c r="I359" s="26"/>
-      <c r="J359" s="40"/>
-      <c r="K359" s="40"/>
+      <c r="J359" s="41"/>
+      <c r="K359" s="41"/>
       <c r="L359" s="26"/>
       <c r="M359" s="26"/>
       <c r="N359" s="26"/>
@@ -19304,8 +19309,8 @@
       <c r="G360" s="26"/>
       <c r="H360" s="26"/>
       <c r="I360" s="26"/>
-      <c r="J360" s="40"/>
-      <c r="K360" s="40"/>
+      <c r="J360" s="41"/>
+      <c r="K360" s="41"/>
       <c r="L360" s="26"/>
       <c r="M360" s="26"/>
       <c r="N360" s="26"/>
@@ -19349,8 +19354,8 @@
       <c r="G361" s="26"/>
       <c r="H361" s="26"/>
       <c r="I361" s="26"/>
-      <c r="J361" s="40"/>
-      <c r="K361" s="40"/>
+      <c r="J361" s="41"/>
+      <c r="K361" s="41"/>
       <c r="L361" s="26"/>
       <c r="M361" s="26"/>
       <c r="N361" s="26"/>
@@ -19394,8 +19399,8 @@
       <c r="G362" s="26"/>
       <c r="H362" s="26"/>
       <c r="I362" s="26"/>
-      <c r="J362" s="40"/>
-      <c r="K362" s="40"/>
+      <c r="J362" s="41"/>
+      <c r="K362" s="41"/>
       <c r="L362" s="26"/>
       <c r="M362" s="26"/>
       <c r="N362" s="26"/>
@@ -19439,8 +19444,8 @@
       <c r="G363" s="26"/>
       <c r="H363" s="26"/>
       <c r="I363" s="26"/>
-      <c r="J363" s="40"/>
-      <c r="K363" s="40"/>
+      <c r="J363" s="41"/>
+      <c r="K363" s="41"/>
       <c r="L363" s="26"/>
       <c r="M363" s="26"/>
       <c r="N363" s="26"/>
@@ -19484,8 +19489,8 @@
       <c r="G364" s="26"/>
       <c r="H364" s="26"/>
       <c r="I364" s="26"/>
-      <c r="J364" s="40"/>
-      <c r="K364" s="40"/>
+      <c r="J364" s="41"/>
+      <c r="K364" s="41"/>
       <c r="L364" s="26"/>
       <c r="M364" s="26"/>
       <c r="N364" s="26"/>
@@ -19529,8 +19534,8 @@
       <c r="G365" s="26"/>
       <c r="H365" s="26"/>
       <c r="I365" s="26"/>
-      <c r="J365" s="40"/>
-      <c r="K365" s="40"/>
+      <c r="J365" s="41"/>
+      <c r="K365" s="41"/>
       <c r="L365" s="26"/>
       <c r="M365" s="26"/>
       <c r="N365" s="26"/>
@@ -19574,8 +19579,8 @@
       <c r="G366" s="26"/>
       <c r="H366" s="26"/>
       <c r="I366" s="26"/>
-      <c r="J366" s="40"/>
-      <c r="K366" s="40"/>
+      <c r="J366" s="41"/>
+      <c r="K366" s="41"/>
       <c r="L366" s="26"/>
       <c r="M366" s="26"/>
       <c r="N366" s="26"/>
@@ -19619,8 +19624,8 @@
       <c r="G367" s="26"/>
       <c r="H367" s="26"/>
       <c r="I367" s="26"/>
-      <c r="J367" s="40"/>
-      <c r="K367" s="40"/>
+      <c r="J367" s="41"/>
+      <c r="K367" s="41"/>
       <c r="L367" s="26"/>
       <c r="M367" s="26"/>
       <c r="N367" s="26"/>
@@ -19664,8 +19669,8 @@
       <c r="G368" s="26"/>
       <c r="H368" s="26"/>
       <c r="I368" s="26"/>
-      <c r="J368" s="40"/>
-      <c r="K368" s="40"/>
+      <c r="J368" s="41"/>
+      <c r="K368" s="41"/>
       <c r="L368" s="26"/>
       <c r="M368" s="26"/>
       <c r="N368" s="26"/>
@@ -19709,8 +19714,8 @@
       <c r="G369" s="26"/>
       <c r="H369" s="26"/>
       <c r="I369" s="26"/>
-      <c r="J369" s="40"/>
-      <c r="K369" s="40"/>
+      <c r="J369" s="41"/>
+      <c r="K369" s="41"/>
       <c r="L369" s="26"/>
       <c r="M369" s="26"/>
       <c r="N369" s="26"/>
@@ -19754,8 +19759,8 @@
       <c r="G370" s="26"/>
       <c r="H370" s="26"/>
       <c r="I370" s="26"/>
-      <c r="J370" s="40"/>
-      <c r="K370" s="40"/>
+      <c r="J370" s="41"/>
+      <c r="K370" s="41"/>
       <c r="L370" s="26"/>
       <c r="M370" s="26"/>
       <c r="N370" s="26"/>
@@ -19799,8 +19804,8 @@
       <c r="G371" s="26"/>
       <c r="H371" s="26"/>
       <c r="I371" s="26"/>
-      <c r="J371" s="40"/>
-      <c r="K371" s="40"/>
+      <c r="J371" s="41"/>
+      <c r="K371" s="41"/>
       <c r="L371" s="26"/>
       <c r="M371" s="26"/>
       <c r="N371" s="26"/>
@@ -19844,8 +19849,8 @@
       <c r="G372" s="26"/>
       <c r="H372" s="26"/>
       <c r="I372" s="26"/>
-      <c r="J372" s="40"/>
-      <c r="K372" s="40"/>
+      <c r="J372" s="41"/>
+      <c r="K372" s="41"/>
       <c r="L372" s="26"/>
       <c r="M372" s="26"/>
       <c r="N372" s="26"/>
@@ -19889,8 +19894,8 @@
       <c r="G373" s="26"/>
       <c r="H373" s="26"/>
       <c r="I373" s="26"/>
-      <c r="J373" s="40"/>
-      <c r="K373" s="40"/>
+      <c r="J373" s="41"/>
+      <c r="K373" s="41"/>
       <c r="L373" s="26"/>
       <c r="M373" s="26"/>
       <c r="N373" s="26"/>
@@ -19934,8 +19939,8 @@
       <c r="G374" s="26"/>
       <c r="H374" s="26"/>
       <c r="I374" s="26"/>
-      <c r="J374" s="40"/>
-      <c r="K374" s="40"/>
+      <c r="J374" s="41"/>
+      <c r="K374" s="41"/>
       <c r="L374" s="26"/>
       <c r="M374" s="26"/>
       <c r="N374" s="26"/>
@@ -19979,8 +19984,8 @@
       <c r="G375" s="26"/>
       <c r="H375" s="26"/>
       <c r="I375" s="26"/>
-      <c r="J375" s="40"/>
-      <c r="K375" s="40"/>
+      <c r="J375" s="41"/>
+      <c r="K375" s="41"/>
       <c r="L375" s="26"/>
       <c r="M375" s="26"/>
       <c r="N375" s="26"/>
@@ -20024,8 +20029,8 @@
       <c r="G376" s="26"/>
       <c r="H376" s="26"/>
       <c r="I376" s="26"/>
-      <c r="J376" s="40"/>
-      <c r="K376" s="40"/>
+      <c r="J376" s="41"/>
+      <c r="K376" s="41"/>
       <c r="L376" s="26"/>
       <c r="M376" s="26"/>
       <c r="N376" s="26"/>
@@ -20069,8 +20074,8 @@
       <c r="G377" s="26"/>
       <c r="H377" s="26"/>
       <c r="I377" s="26"/>
-      <c r="J377" s="40"/>
-      <c r="K377" s="40"/>
+      <c r="J377" s="41"/>
+      <c r="K377" s="41"/>
       <c r="L377" s="26"/>
       <c r="M377" s="26"/>
       <c r="N377" s="26"/>
@@ -20114,8 +20119,8 @@
       <c r="G378" s="26"/>
       <c r="H378" s="26"/>
       <c r="I378" s="26"/>
-      <c r="J378" s="40"/>
-      <c r="K378" s="40"/>
+      <c r="J378" s="41"/>
+      <c r="K378" s="41"/>
       <c r="L378" s="26"/>
       <c r="M378" s="26"/>
       <c r="N378" s="26"/>
@@ -20159,8 +20164,8 @@
       <c r="G379" s="26"/>
       <c r="H379" s="26"/>
       <c r="I379" s="26"/>
-      <c r="J379" s="40"/>
-      <c r="K379" s="40"/>
+      <c r="J379" s="41"/>
+      <c r="K379" s="41"/>
       <c r="L379" s="26"/>
       <c r="M379" s="26"/>
       <c r="N379" s="26"/>
@@ -20204,8 +20209,8 @@
       <c r="G380" s="26"/>
       <c r="H380" s="26"/>
       <c r="I380" s="26"/>
-      <c r="J380" s="40"/>
-      <c r="K380" s="40"/>
+      <c r="J380" s="41"/>
+      <c r="K380" s="41"/>
       <c r="L380" s="26"/>
       <c r="M380" s="26"/>
       <c r="N380" s="26"/>
@@ -20249,8 +20254,8 @@
       <c r="G381" s="26"/>
       <c r="H381" s="26"/>
       <c r="I381" s="26"/>
-      <c r="J381" s="40"/>
-      <c r="K381" s="40"/>
+      <c r="J381" s="41"/>
+      <c r="K381" s="41"/>
       <c r="L381" s="26"/>
       <c r="M381" s="26"/>
       <c r="N381" s="26"/>
@@ -20294,8 +20299,8 @@
       <c r="G382" s="26"/>
       <c r="H382" s="26"/>
       <c r="I382" s="26"/>
-      <c r="J382" s="40"/>
-      <c r="K382" s="40"/>
+      <c r="J382" s="41"/>
+      <c r="K382" s="41"/>
       <c r="L382" s="26"/>
       <c r="M382" s="26"/>
       <c r="N382" s="26"/>
@@ -20339,8 +20344,8 @@
       <c r="G383" s="26"/>
       <c r="H383" s="26"/>
       <c r="I383" s="26"/>
-      <c r="J383" s="40"/>
-      <c r="K383" s="40"/>
+      <c r="J383" s="41"/>
+      <c r="K383" s="41"/>
       <c r="L383" s="26"/>
       <c r="M383" s="26"/>
       <c r="N383" s="26"/>
@@ -20384,8 +20389,8 @@
       <c r="G384" s="26"/>
       <c r="H384" s="26"/>
       <c r="I384" s="26"/>
-      <c r="J384" s="40"/>
-      <c r="K384" s="40"/>
+      <c r="J384" s="41"/>
+      <c r="K384" s="41"/>
       <c r="L384" s="26"/>
       <c r="M384" s="26"/>
       <c r="N384" s="26"/>
@@ -20429,8 +20434,8 @@
       <c r="G385" s="26"/>
       <c r="H385" s="26"/>
       <c r="I385" s="26"/>
-      <c r="J385" s="40"/>
-      <c r="K385" s="40"/>
+      <c r="J385" s="41"/>
+      <c r="K385" s="41"/>
       <c r="L385" s="26"/>
       <c r="M385" s="26"/>
       <c r="N385" s="26"/>
@@ -20474,8 +20479,8 @@
       <c r="G386" s="26"/>
       <c r="H386" s="26"/>
       <c r="I386" s="26"/>
-      <c r="J386" s="40"/>
-      <c r="K386" s="40"/>
+      <c r="J386" s="41"/>
+      <c r="K386" s="41"/>
       <c r="L386" s="26"/>
       <c r="M386" s="26"/>
       <c r="N386" s="26"/>
@@ -20519,8 +20524,8 @@
       <c r="G387" s="26"/>
       <c r="H387" s="26"/>
       <c r="I387" s="26"/>
-      <c r="J387" s="40"/>
-      <c r="K387" s="40"/>
+      <c r="J387" s="41"/>
+      <c r="K387" s="41"/>
       <c r="L387" s="26"/>
       <c r="M387" s="26"/>
       <c r="N387" s="26"/>
@@ -20564,8 +20569,8 @@
       <c r="G388" s="26"/>
       <c r="H388" s="26"/>
       <c r="I388" s="26"/>
-      <c r="J388" s="40"/>
-      <c r="K388" s="40"/>
+      <c r="J388" s="41"/>
+      <c r="K388" s="41"/>
       <c r="L388" s="26"/>
       <c r="M388" s="26"/>
       <c r="N388" s="26"/>
@@ -20609,8 +20614,8 @@
       <c r="G389" s="26"/>
       <c r="H389" s="26"/>
       <c r="I389" s="26"/>
-      <c r="J389" s="40"/>
-      <c r="K389" s="40"/>
+      <c r="J389" s="41"/>
+      <c r="K389" s="41"/>
       <c r="L389" s="26"/>
       <c r="M389" s="26"/>
       <c r="N389" s="26"/>
@@ -20654,8 +20659,8 @@
       <c r="G390" s="26"/>
       <c r="H390" s="26"/>
       <c r="I390" s="26"/>
-      <c r="J390" s="40"/>
-      <c r="K390" s="40"/>
+      <c r="J390" s="41"/>
+      <c r="K390" s="41"/>
       <c r="L390" s="26"/>
       <c r="M390" s="26"/>
       <c r="N390" s="26"/>
@@ -20699,8 +20704,8 @@
       <c r="G391" s="26"/>
       <c r="H391" s="26"/>
       <c r="I391" s="26"/>
-      <c r="J391" s="40"/>
-      <c r="K391" s="40"/>
+      <c r="J391" s="41"/>
+      <c r="K391" s="41"/>
       <c r="L391" s="26"/>
       <c r="M391" s="26"/>
       <c r="N391" s="26"/>
@@ -20744,8 +20749,8 @@
       <c r="G392" s="26"/>
       <c r="H392" s="26"/>
       <c r="I392" s="26"/>
-      <c r="J392" s="40"/>
-      <c r="K392" s="40"/>
+      <c r="J392" s="41"/>
+      <c r="K392" s="41"/>
       <c r="L392" s="26"/>
       <c r="M392" s="26"/>
       <c r="N392" s="26"/>
@@ -20789,8 +20794,8 @@
       <c r="G393" s="26"/>
       <c r="H393" s="26"/>
       <c r="I393" s="26"/>
-      <c r="J393" s="40"/>
-      <c r="K393" s="40"/>
+      <c r="J393" s="41"/>
+      <c r="K393" s="41"/>
       <c r="L393" s="26"/>
       <c r="M393" s="26"/>
       <c r="N393" s="26"/>
@@ -20834,8 +20839,8 @@
       <c r="G394" s="26"/>
       <c r="H394" s="26"/>
       <c r="I394" s="26"/>
-      <c r="J394" s="40"/>
-      <c r="K394" s="40"/>
+      <c r="J394" s="41"/>
+      <c r="K394" s="41"/>
       <c r="L394" s="26"/>
       <c r="M394" s="26"/>
       <c r="N394" s="26"/>
@@ -20879,8 +20884,8 @@
       <c r="G395" s="26"/>
       <c r="H395" s="26"/>
       <c r="I395" s="26"/>
-      <c r="J395" s="40"/>
-      <c r="K395" s="40"/>
+      <c r="J395" s="41"/>
+      <c r="K395" s="41"/>
       <c r="L395" s="26"/>
       <c r="M395" s="26"/>
       <c r="N395" s="26"/>
@@ -20924,8 +20929,8 @@
       <c r="G396" s="26"/>
       <c r="H396" s="26"/>
       <c r="I396" s="26"/>
-      <c r="J396" s="40"/>
-      <c r="K396" s="40"/>
+      <c r="J396" s="41"/>
+      <c r="K396" s="41"/>
       <c r="L396" s="26"/>
       <c r="M396" s="26"/>
       <c r="N396" s="26"/>
@@ -20969,8 +20974,8 @@
       <c r="G397" s="26"/>
       <c r="H397" s="26"/>
       <c r="I397" s="26"/>
-      <c r="J397" s="40"/>
-      <c r="K397" s="40"/>
+      <c r="J397" s="41"/>
+      <c r="K397" s="41"/>
       <c r="L397" s="26"/>
       <c r="M397" s="26"/>
       <c r="N397" s="26"/>
@@ -21014,8 +21019,8 @@
       <c r="G398" s="26"/>
       <c r="H398" s="26"/>
       <c r="I398" s="26"/>
-      <c r="J398" s="40"/>
-      <c r="K398" s="40"/>
+      <c r="J398" s="41"/>
+      <c r="K398" s="41"/>
       <c r="L398" s="26"/>
       <c r="M398" s="26"/>
       <c r="N398" s="26"/>
@@ -21059,8 +21064,8 @@
       <c r="G399" s="26"/>
       <c r="H399" s="26"/>
       <c r="I399" s="26"/>
-      <c r="J399" s="40"/>
-      <c r="K399" s="40"/>
+      <c r="J399" s="41"/>
+      <c r="K399" s="41"/>
       <c r="L399" s="26"/>
       <c r="M399" s="26"/>
       <c r="N399" s="26"/>
@@ -21104,8 +21109,8 @@
       <c r="G400" s="26"/>
       <c r="H400" s="26"/>
       <c r="I400" s="26"/>
-      <c r="J400" s="40"/>
-      <c r="K400" s="40"/>
+      <c r="J400" s="41"/>
+      <c r="K400" s="41"/>
       <c r="L400" s="26"/>
       <c r="M400" s="26"/>
       <c r="N400" s="26"/>
@@ -21149,8 +21154,8 @@
       <c r="G401" s="26"/>
       <c r="H401" s="26"/>
       <c r="I401" s="26"/>
-      <c r="J401" s="40"/>
-      <c r="K401" s="40"/>
+      <c r="J401" s="41"/>
+      <c r="K401" s="41"/>
       <c r="L401" s="26"/>
       <c r="M401" s="26"/>
       <c r="N401" s="26"/>
@@ -21194,8 +21199,8 @@
       <c r="G402" s="26"/>
       <c r="H402" s="26"/>
       <c r="I402" s="26"/>
-      <c r="J402" s="40"/>
-      <c r="K402" s="40"/>
+      <c r="J402" s="41"/>
+      <c r="K402" s="41"/>
       <c r="L402" s="26"/>
       <c r="M402" s="26"/>
       <c r="N402" s="26"/>
@@ -21239,8 +21244,8 @@
       <c r="G403" s="26"/>
       <c r="H403" s="26"/>
       <c r="I403" s="26"/>
-      <c r="J403" s="40"/>
-      <c r="K403" s="40"/>
+      <c r="J403" s="41"/>
+      <c r="K403" s="41"/>
       <c r="L403" s="26"/>
       <c r="M403" s="26"/>
       <c r="N403" s="26"/>
@@ -21284,8 +21289,8 @@
       <c r="G404" s="26"/>
       <c r="H404" s="26"/>
       <c r="I404" s="26"/>
-      <c r="J404" s="40"/>
-      <c r="K404" s="40"/>
+      <c r="J404" s="41"/>
+      <c r="K404" s="41"/>
       <c r="L404" s="26"/>
       <c r="M404" s="26"/>
       <c r="N404" s="26"/>
@@ -21329,8 +21334,8 @@
       <c r="G405" s="26"/>
       <c r="H405" s="26"/>
       <c r="I405" s="26"/>
-      <c r="J405" s="40"/>
-      <c r="K405" s="40"/>
+      <c r="J405" s="41"/>
+      <c r="K405" s="41"/>
       <c r="L405" s="26"/>
       <c r="M405" s="26"/>
       <c r="N405" s="26"/>
@@ -21374,8 +21379,8 @@
       <c r="G406" s="26"/>
       <c r="H406" s="26"/>
       <c r="I406" s="26"/>
-      <c r="J406" s="40"/>
-      <c r="K406" s="40"/>
+      <c r="J406" s="41"/>
+      <c r="K406" s="41"/>
       <c r="L406" s="26"/>
       <c r="M406" s="26"/>
       <c r="N406" s="26"/>
@@ -21419,8 +21424,8 @@
       <c r="G407" s="26"/>
       <c r="H407" s="26"/>
       <c r="I407" s="26"/>
-      <c r="J407" s="40"/>
-      <c r="K407" s="40"/>
+      <c r="J407" s="41"/>
+      <c r="K407" s="41"/>
       <c r="L407" s="26"/>
       <c r="M407" s="26"/>
       <c r="N407" s="26"/>
@@ -21464,8 +21469,8 @@
       <c r="G408" s="26"/>
       <c r="H408" s="26"/>
       <c r="I408" s="26"/>
-      <c r="J408" s="40"/>
-      <c r="K408" s="40"/>
+      <c r="J408" s="41"/>
+      <c r="K408" s="41"/>
       <c r="L408" s="26"/>
       <c r="M408" s="26"/>
       <c r="N408" s="26"/>
@@ -21509,8 +21514,8 @@
       <c r="G409" s="26"/>
       <c r="H409" s="26"/>
       <c r="I409" s="26"/>
-      <c r="J409" s="40"/>
-      <c r="K409" s="40"/>
+      <c r="J409" s="41"/>
+      <c r="K409" s="41"/>
       <c r="L409" s="26"/>
       <c r="M409" s="26"/>
       <c r="N409" s="26"/>
@@ -21554,8 +21559,8 @@
       <c r="G410" s="26"/>
       <c r="H410" s="26"/>
       <c r="I410" s="26"/>
-      <c r="J410" s="40"/>
-      <c r="K410" s="40"/>
+      <c r="J410" s="41"/>
+      <c r="K410" s="41"/>
       <c r="L410" s="26"/>
       <c r="M410" s="26"/>
       <c r="N410" s="26"/>
@@ -21599,8 +21604,8 @@
       <c r="G411" s="26"/>
       <c r="H411" s="26"/>
       <c r="I411" s="26"/>
-      <c r="J411" s="40"/>
-      <c r="K411" s="40"/>
+      <c r="J411" s="41"/>
+      <c r="K411" s="41"/>
       <c r="L411" s="26"/>
       <c r="M411" s="26"/>
       <c r="N411" s="26"/>
@@ -21644,8 +21649,8 @@
       <c r="G412" s="26"/>
       <c r="H412" s="26"/>
       <c r="I412" s="26"/>
-      <c r="J412" s="40"/>
-      <c r="K412" s="40"/>
+      <c r="J412" s="41"/>
+      <c r="K412" s="41"/>
       <c r="L412" s="26"/>
       <c r="M412" s="26"/>
       <c r="N412" s="26"/>
@@ -21689,8 +21694,8 @@
       <c r="G413" s="26"/>
       <c r="H413" s="26"/>
       <c r="I413" s="26"/>
-      <c r="J413" s="40"/>
-      <c r="K413" s="40"/>
+      <c r="J413" s="41"/>
+      <c r="K413" s="41"/>
       <c r="L413" s="26"/>
       <c r="M413" s="26"/>
       <c r="N413" s="26"/>
@@ -21734,8 +21739,8 @@
       <c r="G414" s="26"/>
       <c r="H414" s="26"/>
       <c r="I414" s="26"/>
-      <c r="J414" s="40"/>
-      <c r="K414" s="40"/>
+      <c r="J414" s="41"/>
+      <c r="K414" s="41"/>
       <c r="L414" s="26"/>
       <c r="M414" s="26"/>
       <c r="N414" s="26"/>
@@ -21779,8 +21784,8 @@
       <c r="G415" s="26"/>
       <c r="H415" s="26"/>
       <c r="I415" s="26"/>
-      <c r="J415" s="40"/>
-      <c r="K415" s="40"/>
+      <c r="J415" s="41"/>
+      <c r="K415" s="41"/>
       <c r="L415" s="26"/>
       <c r="M415" s="26"/>
       <c r="N415" s="26"/>
@@ -21824,8 +21829,8 @@
       <c r="G416" s="26"/>
       <c r="H416" s="26"/>
       <c r="I416" s="26"/>
-      <c r="J416" s="40"/>
-      <c r="K416" s="40"/>
+      <c r="J416" s="41"/>
+      <c r="K416" s="41"/>
       <c r="L416" s="26"/>
       <c r="M416" s="26"/>
       <c r="N416" s="26"/>
@@ -21869,8 +21874,8 @@
       <c r="G417" s="26"/>
       <c r="H417" s="26"/>
       <c r="I417" s="26"/>
-      <c r="J417" s="40"/>
-      <c r="K417" s="40"/>
+      <c r="J417" s="41"/>
+      <c r="K417" s="41"/>
       <c r="L417" s="26"/>
       <c r="M417" s="26"/>
       <c r="N417" s="26"/>
@@ -21914,8 +21919,8 @@
       <c r="G418" s="26"/>
       <c r="H418" s="26"/>
       <c r="I418" s="26"/>
-      <c r="J418" s="40"/>
-      <c r="K418" s="40"/>
+      <c r="J418" s="41"/>
+      <c r="K418" s="41"/>
       <c r="L418" s="26"/>
       <c r="M418" s="26"/>
       <c r="N418" s="26"/>
@@ -21959,8 +21964,8 @@
       <c r="G419" s="26"/>
       <c r="H419" s="26"/>
       <c r="I419" s="26"/>
-      <c r="J419" s="40"/>
-      <c r="K419" s="40"/>
+      <c r="J419" s="41"/>
+      <c r="K419" s="41"/>
       <c r="L419" s="26"/>
       <c r="M419" s="26"/>
       <c r="N419" s="26"/>
@@ -22004,8 +22009,8 @@
       <c r="G420" s="26"/>
       <c r="H420" s="26"/>
       <c r="I420" s="26"/>
-      <c r="J420" s="40"/>
-      <c r="K420" s="40"/>
+      <c r="J420" s="41"/>
+      <c r="K420" s="41"/>
       <c r="L420" s="26"/>
       <c r="M420" s="26"/>
       <c r="N420" s="26"/>
@@ -22049,8 +22054,8 @@
       <c r="G421" s="26"/>
       <c r="H421" s="26"/>
       <c r="I421" s="26"/>
-      <c r="J421" s="40"/>
-      <c r="K421" s="40"/>
+      <c r="J421" s="41"/>
+      <c r="K421" s="41"/>
       <c r="L421" s="26"/>
       <c r="M421" s="26"/>
       <c r="N421" s="26"/>
@@ -22094,8 +22099,8 @@
       <c r="G422" s="26"/>
       <c r="H422" s="26"/>
       <c r="I422" s="26"/>
-      <c r="J422" s="40"/>
-      <c r="K422" s="40"/>
+      <c r="J422" s="41"/>
+      <c r="K422" s="41"/>
       <c r="L422" s="26"/>
       <c r="M422" s="26"/>
       <c r="N422" s="26"/>
@@ -22139,8 +22144,8 @@
       <c r="G423" s="26"/>
       <c r="H423" s="26"/>
       <c r="I423" s="26"/>
-      <c r="J423" s="40"/>
-      <c r="K423" s="40"/>
+      <c r="J423" s="41"/>
+      <c r="K423" s="41"/>
       <c r="L423" s="26"/>
       <c r="M423" s="26"/>
       <c r="N423" s="26"/>
@@ -22184,8 +22189,8 @@
       <c r="G424" s="26"/>
       <c r="H424" s="26"/>
       <c r="I424" s="26"/>
-      <c r="J424" s="40"/>
-      <c r="K424" s="40"/>
+      <c r="J424" s="41"/>
+      <c r="K424" s="41"/>
       <c r="L424" s="26"/>
       <c r="M424" s="26"/>
       <c r="N424" s="26"/>
@@ -22229,8 +22234,8 @@
       <c r="G425" s="26"/>
       <c r="H425" s="26"/>
       <c r="I425" s="26"/>
-      <c r="J425" s="40"/>
-      <c r="K425" s="40"/>
+      <c r="J425" s="41"/>
+      <c r="K425" s="41"/>
       <c r="L425" s="26"/>
       <c r="M425" s="26"/>
       <c r="N425" s="26"/>
@@ -22274,8 +22279,8 @@
       <c r="G426" s="26"/>
       <c r="H426" s="26"/>
       <c r="I426" s="26"/>
-      <c r="J426" s="40"/>
-      <c r="K426" s="40"/>
+      <c r="J426" s="41"/>
+      <c r="K426" s="41"/>
       <c r="L426" s="26"/>
       <c r="M426" s="26"/>
       <c r="N426" s="26"/>
@@ -22319,8 +22324,8 @@
       <c r="G427" s="26"/>
       <c r="H427" s="26"/>
       <c r="I427" s="26"/>
-      <c r="J427" s="40"/>
-      <c r="K427" s="40"/>
+      <c r="J427" s="41"/>
+      <c r="K427" s="41"/>
       <c r="L427" s="26"/>
       <c r="M427" s="26"/>
       <c r="N427" s="26"/>
@@ -22364,8 +22369,8 @@
       <c r="G428" s="26"/>
       <c r="H428" s="26"/>
       <c r="I428" s="26"/>
-      <c r="J428" s="40"/>
-      <c r="K428" s="40"/>
+      <c r="J428" s="41"/>
+      <c r="K428" s="41"/>
       <c r="L428" s="26"/>
       <c r="M428" s="26"/>
       <c r="N428" s="26"/>
@@ -22409,8 +22414,8 @@
       <c r="G429" s="26"/>
       <c r="H429" s="26"/>
       <c r="I429" s="26"/>
-      <c r="J429" s="40"/>
-      <c r="K429" s="40"/>
+      <c r="J429" s="41"/>
+      <c r="K429" s="41"/>
       <c r="L429" s="26"/>
       <c r="M429" s="26"/>
       <c r="N429" s="26"/>
@@ -22454,8 +22459,8 @@
       <c r="G430" s="26"/>
       <c r="H430" s="26"/>
       <c r="I430" s="26"/>
-      <c r="J430" s="40"/>
-      <c r="K430" s="40"/>
+      <c r="J430" s="41"/>
+      <c r="K430" s="41"/>
       <c r="L430" s="26"/>
       <c r="M430" s="26"/>
       <c r="N430" s="26"/>
@@ -22499,8 +22504,8 @@
       <c r="G431" s="26"/>
       <c r="H431" s="26"/>
       <c r="I431" s="26"/>
-      <c r="J431" s="40"/>
-      <c r="K431" s="40"/>
+      <c r="J431" s="41"/>
+      <c r="K431" s="41"/>
       <c r="L431" s="26"/>
       <c r="M431" s="26"/>
       <c r="N431" s="26"/>
@@ -22544,8 +22549,8 @@
       <c r="G432" s="26"/>
       <c r="H432" s="26"/>
       <c r="I432" s="26"/>
-      <c r="J432" s="40"/>
-      <c r="K432" s="40"/>
+      <c r="J432" s="41"/>
+      <c r="K432" s="41"/>
       <c r="L432" s="26"/>
       <c r="M432" s="26"/>
       <c r="N432" s="26"/>
@@ -22589,8 +22594,8 @@
       <c r="G433" s="26"/>
       <c r="H433" s="26"/>
       <c r="I433" s="26"/>
-      <c r="J433" s="40"/>
-      <c r="K433" s="40"/>
+      <c r="J433" s="41"/>
+      <c r="K433" s="41"/>
       <c r="L433" s="26"/>
       <c r="M433" s="26"/>
       <c r="N433" s="26"/>
@@ -22634,8 +22639,8 @@
       <c r="G434" s="26"/>
       <c r="H434" s="26"/>
       <c r="I434" s="26"/>
-      <c r="J434" s="40"/>
-      <c r="K434" s="40"/>
+      <c r="J434" s="41"/>
+      <c r="K434" s="41"/>
       <c r="L434" s="26"/>
       <c r="M434" s="26"/>
       <c r="N434" s="26"/>
@@ -22679,8 +22684,8 @@
       <c r="G435" s="26"/>
       <c r="H435" s="26"/>
       <c r="I435" s="26"/>
-      <c r="J435" s="40"/>
-      <c r="K435" s="40"/>
+      <c r="J435" s="41"/>
+      <c r="K435" s="41"/>
       <c r="L435" s="26"/>
       <c r="M435" s="26"/>
       <c r="N435" s="26"/>
@@ -22724,8 +22729,8 @@
       <c r="G436" s="26"/>
       <c r="H436" s="26"/>
       <c r="I436" s="26"/>
-      <c r="J436" s="40"/>
-      <c r="K436" s="40"/>
+      <c r="J436" s="41"/>
+      <c r="K436" s="41"/>
       <c r="L436" s="26"/>
       <c r="M436" s="26"/>
       <c r="N436" s="26"/>
@@ -22769,8 +22774,8 @@
       <c r="G437" s="26"/>
       <c r="H437" s="26"/>
       <c r="I437" s="26"/>
-      <c r="J437" s="40"/>
-      <c r="K437" s="40"/>
+      <c r="J437" s="41"/>
+      <c r="K437" s="41"/>
       <c r="L437" s="26"/>
       <c r="M437" s="26"/>
       <c r="N437" s="26"/>
@@ -22814,8 +22819,8 @@
       <c r="G438" s="26"/>
       <c r="H438" s="26"/>
       <c r="I438" s="26"/>
-      <c r="J438" s="40"/>
-      <c r="K438" s="40"/>
+      <c r="J438" s="41"/>
+      <c r="K438" s="41"/>
       <c r="L438" s="26"/>
       <c r="M438" s="26"/>
       <c r="N438" s="26"/>
@@ -22859,8 +22864,8 @@
       <c r="G439" s="26"/>
       <c r="H439" s="26"/>
       <c r="I439" s="26"/>
-      <c r="J439" s="40"/>
-      <c r="K439" s="40"/>
+      <c r="J439" s="41"/>
+      <c r="K439" s="41"/>
       <c r="L439" s="26"/>
       <c r="M439" s="26"/>
       <c r="N439" s="26"/>
@@ -22904,8 +22909,8 @@
       <c r="G440" s="26"/>
       <c r="H440" s="26"/>
       <c r="I440" s="26"/>
-      <c r="J440" s="40"/>
-      <c r="K440" s="40"/>
+      <c r="J440" s="41"/>
+      <c r="K440" s="41"/>
       <c r="L440" s="26"/>
       <c r="M440" s="26"/>
       <c r="N440" s="26"/>
@@ -22949,8 +22954,8 @@
       <c r="G441" s="26"/>
       <c r="H441" s="26"/>
       <c r="I441" s="26"/>
-      <c r="J441" s="40"/>
-      <c r="K441" s="40"/>
+      <c r="J441" s="41"/>
+      <c r="K441" s="41"/>
       <c r="L441" s="26"/>
       <c r="M441" s="26"/>
       <c r="N441" s="26"/>
@@ -22994,8 +22999,8 @@
       <c r="G442" s="26"/>
       <c r="H442" s="26"/>
       <c r="I442" s="26"/>
-      <c r="J442" s="40"/>
-      <c r="K442" s="40"/>
+      <c r="J442" s="41"/>
+      <c r="K442" s="41"/>
       <c r="L442" s="26"/>
       <c r="M442" s="26"/>
       <c r="N442" s="26"/>
@@ -23039,8 +23044,8 @@
       <c r="G443" s="26"/>
       <c r="H443" s="26"/>
       <c r="I443" s="26"/>
-      <c r="J443" s="40"/>
-      <c r="K443" s="40"/>
+      <c r="J443" s="41"/>
+      <c r="K443" s="41"/>
       <c r="L443" s="26"/>
       <c r="M443" s="26"/>
       <c r="N443" s="26"/>
@@ -23084,8 +23089,8 @@
       <c r="G444" s="26"/>
       <c r="H444" s="26"/>
       <c r="I444" s="26"/>
-      <c r="J444" s="40"/>
-      <c r="K444" s="40"/>
+      <c r="J444" s="41"/>
+      <c r="K444" s="41"/>
       <c r="L444" s="26"/>
       <c r="M444" s="26"/>
       <c r="N444" s="26"/>
@@ -23129,8 +23134,8 @@
       <c r="G445" s="26"/>
       <c r="H445" s="26"/>
       <c r="I445" s="26"/>
-      <c r="J445" s="40"/>
-      <c r="K445" s="40"/>
+      <c r="J445" s="41"/>
+      <c r="K445" s="41"/>
       <c r="L445" s="26"/>
       <c r="M445" s="26"/>
       <c r="N445" s="26"/>
@@ -23174,8 +23179,8 @@
       <c r="G446" s="26"/>
       <c r="H446" s="26"/>
       <c r="I446" s="26"/>
-      <c r="J446" s="40"/>
-      <c r="K446" s="40"/>
+      <c r="J446" s="41"/>
+      <c r="K446" s="41"/>
       <c r="L446" s="26"/>
       <c r="M446" s="26"/>
       <c r="N446" s="26"/>
@@ -23219,8 +23224,8 @@
       <c r="G447" s="26"/>
       <c r="H447" s="26"/>
       <c r="I447" s="26"/>
-      <c r="J447" s="40"/>
-      <c r="K447" s="40"/>
+      <c r="J447" s="41"/>
+      <c r="K447" s="41"/>
       <c r="L447" s="26"/>
       <c r="M447" s="26"/>
       <c r="N447" s="26"/>
@@ -23264,8 +23269,8 @@
       <c r="G448" s="26"/>
       <c r="H448" s="26"/>
       <c r="I448" s="26"/>
-      <c r="J448" s="40"/>
-      <c r="K448" s="40"/>
+      <c r="J448" s="41"/>
+      <c r="K448" s="41"/>
       <c r="L448" s="26"/>
       <c r="M448" s="26"/>
       <c r="N448" s="26"/>
@@ -23309,8 +23314,8 @@
       <c r="G449" s="26"/>
       <c r="H449" s="26"/>
       <c r="I449" s="26"/>
-      <c r="J449" s="40"/>
-      <c r="K449" s="40"/>
+      <c r="J449" s="41"/>
+      <c r="K449" s="41"/>
       <c r="L449" s="26"/>
       <c r="M449" s="26"/>
       <c r="N449" s="26"/>
@@ -23354,8 +23359,8 @@
       <c r="G450" s="26"/>
       <c r="H450" s="26"/>
       <c r="I450" s="26"/>
-      <c r="J450" s="40"/>
-      <c r="K450" s="40"/>
+      <c r="J450" s="41"/>
+      <c r="K450" s="41"/>
       <c r="L450" s="26"/>
       <c r="M450" s="26"/>
       <c r="N450" s="26"/>
@@ -23399,8 +23404,8 @@
       <c r="G451" s="26"/>
       <c r="H451" s="26"/>
       <c r="I451" s="26"/>
-      <c r="J451" s="40"/>
-      <c r="K451" s="40"/>
+      <c r="J451" s="41"/>
+      <c r="K451" s="41"/>
       <c r="L451" s="26"/>
       <c r="M451" s="26"/>
       <c r="N451" s="26"/>
@@ -23444,8 +23449,8 @@
       <c r="G452" s="26"/>
       <c r="H452" s="26"/>
       <c r="I452" s="26"/>
-      <c r="J452" s="40"/>
-      <c r="K452" s="40"/>
+      <c r="J452" s="41"/>
+      <c r="K452" s="41"/>
       <c r="L452" s="26"/>
       <c r="M452" s="26"/>
       <c r="N452" s="26"/>
@@ -23489,8 +23494,8 @@
       <c r="G453" s="26"/>
       <c r="H453" s="26"/>
       <c r="I453" s="26"/>
-      <c r="J453" s="40"/>
-      <c r="K453" s="40"/>
+      <c r="J453" s="41"/>
+      <c r="K453" s="41"/>
       <c r="L453" s="26"/>
       <c r="M453" s="26"/>
       <c r="N453" s="26"/>
@@ -23534,8 +23539,8 @@
       <c r="G454" s="26"/>
       <c r="H454" s="26"/>
       <c r="I454" s="26"/>
-      <c r="J454" s="40"/>
-      <c r="K454" s="40"/>
+      <c r="J454" s="41"/>
+      <c r="K454" s="41"/>
       <c r="L454" s="26"/>
       <c r="M454" s="26"/>
       <c r="N454" s="26"/>
@@ -23579,8 +23584,8 @@
       <c r="G455" s="26"/>
       <c r="H455" s="26"/>
       <c r="I455" s="26"/>
-      <c r="J455" s="40"/>
-      <c r="K455" s="40"/>
+      <c r="J455" s="41"/>
+      <c r="K455" s="41"/>
       <c r="L455" s="26"/>
       <c r="M455" s="26"/>
       <c r="N455" s="26"/>
@@ -23624,8 +23629,8 @@
       <c r="G456" s="26"/>
       <c r="H456" s="26"/>
       <c r="I456" s="26"/>
-      <c r="J456" s="40"/>
-      <c r="K456" s="40"/>
+      <c r="J456" s="41"/>
+      <c r="K456" s="41"/>
       <c r="L456" s="26"/>
       <c r="M456" s="26"/>
       <c r="N456" s="26"/>
@@ -23669,8 +23674,8 @@
       <c r="G457" s="26"/>
       <c r="H457" s="26"/>
       <c r="I457" s="26"/>
-      <c r="J457" s="40"/>
-      <c r="K457" s="40"/>
+      <c r="J457" s="41"/>
+      <c r="K457" s="41"/>
       <c r="L457" s="26"/>
       <c r="M457" s="26"/>
       <c r="N457" s="26"/>
@@ -23714,8 +23719,8 @@
       <c r="G458" s="26"/>
       <c r="H458" s="26"/>
       <c r="I458" s="26"/>
-      <c r="J458" s="40"/>
-      <c r="K458" s="40"/>
+      <c r="J458" s="41"/>
+      <c r="K458" s="41"/>
       <c r="L458" s="26"/>
       <c r="M458" s="26"/>
       <c r="N458" s="26"/>
@@ -23759,8 +23764,8 @@
       <c r="G459" s="26"/>
       <c r="H459" s="26"/>
       <c r="I459" s="26"/>
-      <c r="J459" s="40"/>
-      <c r="K459" s="40"/>
+      <c r="J459" s="41"/>
+      <c r="K459" s="41"/>
       <c r="L459" s="26"/>
       <c r="M459" s="26"/>
       <c r="N459" s="26"/>
@@ -23804,8 +23809,8 @@
       <c r="G460" s="26"/>
       <c r="H460" s="26"/>
       <c r="I460" s="26"/>
-      <c r="J460" s="40"/>
-      <c r="K460" s="40"/>
+      <c r="J460" s="41"/>
+      <c r="K460" s="41"/>
       <c r="L460" s="26"/>
       <c r="M460" s="26"/>
       <c r="N460" s="26"/>
@@ -23849,8 +23854,8 @@
       <c r="G461" s="26"/>
       <c r="H461" s="26"/>
       <c r="I461" s="26"/>
-      <c r="J461" s="40"/>
-      <c r="K461" s="40"/>
+      <c r="J461" s="41"/>
+      <c r="K461" s="41"/>
       <c r="L461" s="26"/>
       <c r="M461" s="26"/>
       <c r="N461" s="26"/>
@@ -23894,8 +23899,8 @@
       <c r="G462" s="26"/>
       <c r="H462" s="26"/>
       <c r="I462" s="26"/>
-      <c r="J462" s="40"/>
-      <c r="K462" s="40"/>
+      <c r="J462" s="41"/>
+      <c r="K462" s="41"/>
       <c r="L462" s="26"/>
       <c r="M462" s="26"/>
       <c r="N462" s="26"/>
@@ -23939,8 +23944,8 @@
       <c r="G463" s="26"/>
       <c r="H463" s="26"/>
       <c r="I463" s="26"/>
-      <c r="J463" s="40"/>
-      <c r="K463" s="40"/>
+      <c r="J463" s="41"/>
+      <c r="K463" s="41"/>
       <c r="L463" s="26"/>
       <c r="M463" s="26"/>
       <c r="N463" s="26"/>
@@ -23984,8 +23989,8 @@
       <c r="G464" s="26"/>
       <c r="H464" s="26"/>
       <c r="I464" s="26"/>
-      <c r="J464" s="40"/>
-      <c r="K464" s="40"/>
+      <c r="J464" s="41"/>
+      <c r="K464" s="41"/>
       <c r="L464" s="26"/>
       <c r="M464" s="26"/>
       <c r="N464" s="26"/>
@@ -24029,8 +24034,8 @@
       <c r="G465" s="26"/>
       <c r="H465" s="26"/>
       <c r="I465" s="26"/>
-      <c r="J465" s="40"/>
-      <c r="K465" s="40"/>
+      <c r="J465" s="41"/>
+      <c r="K465" s="41"/>
       <c r="L465" s="26"/>
       <c r="M465" s="26"/>
       <c r="N465" s="26"/>
@@ -24074,8 +24079,8 @@
       <c r="G466" s="26"/>
       <c r="H466" s="26"/>
       <c r="I466" s="26"/>
-      <c r="J466" s="40"/>
-      <c r="K466" s="40"/>
+      <c r="J466" s="41"/>
+      <c r="K466" s="41"/>
       <c r="L466" s="26"/>
       <c r="M466" s="26"/>
       <c r="N466" s="26"/>
@@ -24119,8 +24124,8 @@
       <c r="G467" s="26"/>
       <c r="H467" s="26"/>
       <c r="I467" s="26"/>
-      <c r="J467" s="40"/>
-      <c r="K467" s="40"/>
+      <c r="J467" s="41"/>
+      <c r="K467" s="41"/>
       <c r="L467" s="26"/>
       <c r="M467" s="26"/>
       <c r="N467" s="26"/>
@@ -24164,8 +24169,8 @@
       <c r="G468" s="26"/>
       <c r="H468" s="26"/>
       <c r="I468" s="26"/>
-      <c r="J468" s="40"/>
-      <c r="K468" s="40"/>
+      <c r="J468" s="41"/>
+      <c r="K468" s="41"/>
       <c r="L468" s="26"/>
       <c r="M468" s="26"/>
       <c r="N468" s="26"/>
@@ -24209,8 +24214,8 @@
       <c r="G469" s="26"/>
       <c r="H469" s="26"/>
       <c r="I469" s="26"/>
-      <c r="J469" s="40"/>
-      <c r="K469" s="40"/>
+      <c r="J469" s="41"/>
+      <c r="K469" s="41"/>
       <c r="L469" s="26"/>
       <c r="M469" s="26"/>
       <c r="N469" s="26"/>
@@ -24254,8 +24259,8 @@
       <c r="G470" s="26"/>
       <c r="H470" s="26"/>
       <c r="I470" s="26"/>
-      <c r="J470" s="40"/>
-      <c r="K470" s="40"/>
+      <c r="J470" s="41"/>
+      <c r="K470" s="41"/>
       <c r="L470" s="26"/>
       <c r="M470" s="26"/>
       <c r="N470" s="26"/>
@@ -24299,8 +24304,8 @@
       <c r="G471" s="26"/>
       <c r="H471" s="26"/>
       <c r="I471" s="26"/>
-      <c r="J471" s="40"/>
-      <c r="K471" s="40"/>
+      <c r="J471" s="41"/>
+      <c r="K471" s="41"/>
       <c r="L471" s="26"/>
       <c r="M471" s="26"/>
       <c r="N471" s="26"/>
@@ -24344,8 +24349,8 @@
       <c r="G472" s="26"/>
       <c r="H472" s="26"/>
       <c r="I472" s="26"/>
-      <c r="J472" s="40"/>
-      <c r="K472" s="40"/>
+      <c r="J472" s="41"/>
+      <c r="K472" s="41"/>
       <c r="L472" s="26"/>
       <c r="M472" s="26"/>
       <c r="N472" s="26"/>
@@ -24389,8 +24394,8 @@
       <c r="G473" s="26"/>
       <c r="H473" s="26"/>
       <c r="I473" s="26"/>
-      <c r="J473" s="40"/>
-      <c r="K473" s="40"/>
+      <c r="J473" s="41"/>
+      <c r="K473" s="41"/>
       <c r="L473" s="26"/>
       <c r="M473" s="26"/>
       <c r="N473" s="26"/>
@@ -24434,8 +24439,8 @@
       <c r="G474" s="26"/>
       <c r="H474" s="26"/>
       <c r="I474" s="26"/>
-      <c r="J474" s="40"/>
-      <c r="K474" s="40"/>
+      <c r="J474" s="41"/>
+      <c r="K474" s="41"/>
       <c r="L474" s="26"/>
       <c r="M474" s="26"/>
       <c r="N474" s="26"/>
@@ -24479,8 +24484,8 @@
       <c r="G475" s="26"/>
       <c r="H475" s="26"/>
       <c r="I475" s="26"/>
-      <c r="J475" s="40"/>
-      <c r="K475" s="40"/>
+      <c r="J475" s="41"/>
+      <c r="K475" s="41"/>
       <c r="L475" s="26"/>
       <c r="M475" s="26"/>
       <c r="N475" s="26"/>
@@ -24524,8 +24529,8 @@
       <c r="G476" s="26"/>
       <c r="H476" s="26"/>
       <c r="I476" s="26"/>
-      <c r="J476" s="40"/>
-      <c r="K476" s="40"/>
+      <c r="J476" s="41"/>
+      <c r="K476" s="41"/>
       <c r="L476" s="26"/>
       <c r="M476" s="26"/>
       <c r="N476" s="26"/>
@@ -24569,8 +24574,8 @@
       <c r="G477" s="26"/>
       <c r="H477" s="26"/>
       <c r="I477" s="26"/>
-      <c r="J477" s="40"/>
-      <c r="K477" s="40"/>
+      <c r="J477" s="41"/>
+      <c r="K477" s="41"/>
       <c r="L477" s="26"/>
       <c r="M477" s="26"/>
       <c r="N477" s="26"/>
@@ -24614,8 +24619,8 @@
       <c r="G478" s="26"/>
       <c r="H478" s="26"/>
       <c r="I478" s="26"/>
-      <c r="J478" s="40"/>
-      <c r="K478" s="40"/>
+      <c r="J478" s="41"/>
+      <c r="K478" s="41"/>
       <c r="L478" s="26"/>
       <c r="M478" s="26"/>
       <c r="N478" s="26"/>
@@ -24659,8 +24664,8 @@
       <c r="G479" s="26"/>
       <c r="H479" s="26"/>
       <c r="I479" s="26"/>
-      <c r="J479" s="40"/>
-      <c r="K479" s="40"/>
+      <c r="J479" s="41"/>
+      <c r="K479" s="41"/>
       <c r="L479" s="26"/>
       <c r="M479" s="26"/>
       <c r="N479" s="26"/>
@@ -24704,8 +24709,8 @@
       <c r="G480" s="26"/>
       <c r="H480" s="26"/>
       <c r="I480" s="26"/>
-      <c r="J480" s="40"/>
-      <c r="K480" s="40"/>
+      <c r="J480" s="41"/>
+      <c r="K480" s="41"/>
       <c r="L480" s="26"/>
       <c r="M480" s="26"/>
       <c r="N480" s="26"/>
@@ -24749,8 +24754,8 @@
       <c r="G481" s="26"/>
       <c r="H481" s="26"/>
       <c r="I481" s="26"/>
-      <c r="J481" s="40"/>
-      <c r="K481" s="40"/>
+      <c r="J481" s="41"/>
+      <c r="K481" s="41"/>
       <c r="L481" s="26"/>
       <c r="M481" s="26"/>
       <c r="N481" s="26"/>
@@ -24794,8 +24799,8 @@
       <c r="G482" s="26"/>
       <c r="H482" s="26"/>
       <c r="I482" s="26"/>
-      <c r="J482" s="40"/>
-      <c r="K482" s="40"/>
+      <c r="J482" s="41"/>
+      <c r="K482" s="41"/>
       <c r="L482" s="26"/>
       <c r="M482" s="26"/>
       <c r="N482" s="26"/>
@@ -24839,8 +24844,8 @@
       <c r="G483" s="26"/>
       <c r="H483" s="26"/>
       <c r="I483" s="26"/>
-      <c r="J483" s="40"/>
-      <c r="K483" s="40"/>
+      <c r="J483" s="41"/>
+      <c r="K483" s="41"/>
       <c r="L483" s="26"/>
       <c r="M483" s="26"/>
       <c r="N483" s="26"/>
@@ -24884,8 +24889,8 @@
       <c r="G484" s="26"/>
       <c r="H484" s="26"/>
       <c r="I484" s="26"/>
-      <c r="J484" s="40"/>
-      <c r="K484" s="40"/>
+      <c r="J484" s="41"/>
+      <c r="K484" s="41"/>
       <c r="L484" s="26"/>
       <c r="M484" s="26"/>
       <c r="N484" s="26"/>
@@ -24929,8 +24934,8 @@
       <c r="G485" s="26"/>
       <c r="H485" s="26"/>
       <c r="I485" s="26"/>
-      <c r="J485" s="40"/>
-      <c r="K485" s="40"/>
+      <c r="J485" s="41"/>
+      <c r="K485" s="41"/>
       <c r="L485" s="26"/>
       <c r="M485" s="26"/>
       <c r="N485" s="26"/>
@@ -24974,8 +24979,8 @@
       <c r="G486" s="26"/>
       <c r="H486" s="26"/>
       <c r="I486" s="26"/>
-      <c r="J486" s="40"/>
-      <c r="K486" s="40"/>
+      <c r="J486" s="41"/>
+      <c r="K486" s="41"/>
       <c r="L486" s="26"/>
       <c r="M486" s="26"/>
       <c r="N486" s="26"/>
@@ -25019,8 +25024,8 @@
       <c r="G487" s="26"/>
       <c r="H487" s="26"/>
       <c r="I487" s="26"/>
-      <c r="J487" s="40"/>
-      <c r="K487" s="40"/>
+      <c r="J487" s="41"/>
+      <c r="K487" s="41"/>
       <c r="L487" s="26"/>
       <c r="M487" s="26"/>
       <c r="N487" s="26"/>
@@ -25064,8 +25069,8 @@
       <c r="G488" s="26"/>
       <c r="H488" s="26"/>
       <c r="I488" s="26"/>
-      <c r="J488" s="40"/>
-      <c r="K488" s="40"/>
+      <c r="J488" s="41"/>
+      <c r="K488" s="41"/>
       <c r="L488" s="26"/>
       <c r="M488" s="26"/>
       <c r="N488" s="26"/>
@@ -25109,8 +25114,8 @@
       <c r="G489" s="26"/>
       <c r="H489" s="26"/>
       <c r="I489" s="26"/>
-      <c r="J489" s="40"/>
-      <c r="K489" s="40"/>
+      <c r="J489" s="41"/>
+      <c r="K489" s="41"/>
       <c r="L489" s="26"/>
       <c r="M489" s="26"/>
       <c r="N489" s="26"/>
@@ -25154,8 +25159,8 @@
       <c r="G490" s="26"/>
       <c r="H490" s="26"/>
       <c r="I490" s="26"/>
-      <c r="J490" s="40"/>
-      <c r="K490" s="40"/>
+      <c r="J490" s="41"/>
+      <c r="K490" s="41"/>
       <c r="L490" s="26"/>
       <c r="M490" s="26"/>
       <c r="N490" s="26"/>
@@ -25199,8 +25204,8 @@
       <c r="G491" s="26"/>
       <c r="H491" s="26"/>
       <c r="I491" s="26"/>
-      <c r="J491" s="40"/>
-      <c r="K491" s="40"/>
+      <c r="J491" s="41"/>
+      <c r="K491" s="41"/>
       <c r="L491" s="26"/>
       <c r="M491" s="26"/>
       <c r="N491" s="26"/>
@@ -25244,8 +25249,8 @@
       <c r="G492" s="26"/>
       <c r="H492" s="26"/>
       <c r="I492" s="26"/>
-      <c r="J492" s="40"/>
-      <c r="K492" s="40"/>
+      <c r="J492" s="41"/>
+      <c r="K492" s="41"/>
       <c r="L492" s="26"/>
       <c r="M492" s="26"/>
       <c r="N492" s="26"/>
@@ -25289,8 +25294,8 @@
       <c r="G493" s="26"/>
       <c r="H493" s="26"/>
       <c r="I493" s="26"/>
-      <c r="J493" s="40"/>
-      <c r="K493" s="40"/>
+      <c r="J493" s="41"/>
+      <c r="K493" s="41"/>
       <c r="L493" s="26"/>
       <c r="M493" s="26"/>
       <c r="N493" s="26"/>
@@ -25334,8 +25339,8 @@
       <c r="G494" s="26"/>
       <c r="H494" s="26"/>
       <c r="I494" s="26"/>
-      <c r="J494" s="40"/>
-      <c r="K494" s="40"/>
+      <c r="J494" s="41"/>
+      <c r="K494" s="41"/>
       <c r="L494" s="26"/>
       <c r="M494" s="26"/>
       <c r="N494" s="26"/>
@@ -25379,8 +25384,8 @@
       <c r="G495" s="26"/>
       <c r="H495" s="26"/>
       <c r="I495" s="26"/>
-      <c r="J495" s="40"/>
-      <c r="K495" s="40"/>
+      <c r="J495" s="41"/>
+      <c r="K495" s="41"/>
       <c r="L495" s="26"/>
       <c r="M495" s="26"/>
       <c r="N495" s="26"/>
@@ -25424,8 +25429,8 @@
       <c r="G496" s="26"/>
       <c r="H496" s="26"/>
       <c r="I496" s="26"/>
-      <c r="J496" s="40"/>
-      <c r="K496" s="40"/>
+      <c r="J496" s="41"/>
+      <c r="K496" s="41"/>
       <c r="L496" s="26"/>
       <c r="M496" s="26"/>
       <c r="N496" s="26"/>
@@ -25469,8 +25474,8 @@
       <c r="G497" s="26"/>
       <c r="H497" s="26"/>
       <c r="I497" s="26"/>
-      <c r="J497" s="40"/>
-      <c r="K497" s="40"/>
+      <c r="J497" s="41"/>
+      <c r="K497" s="41"/>
       <c r="L497" s="26"/>
       <c r="M497" s="26"/>
       <c r="N497" s="26"/>
@@ -25514,8 +25519,8 @@
       <c r="G498" s="26"/>
       <c r="H498" s="26"/>
       <c r="I498" s="26"/>
-      <c r="J498" s="40"/>
-      <c r="K498" s="40"/>
+      <c r="J498" s="41"/>
+      <c r="K498" s="41"/>
       <c r="L498" s="26"/>
       <c r="M498" s="26"/>
       <c r="N498" s="26"/>
@@ -25559,8 +25564,8 @@
       <c r="G499" s="26"/>
       <c r="H499" s="26"/>
       <c r="I499" s="26"/>
-      <c r="J499" s="40"/>
-      <c r="K499" s="40"/>
+      <c r="J499" s="41"/>
+      <c r="K499" s="41"/>
       <c r="L499" s="26"/>
       <c r="M499" s="26"/>
       <c r="N499" s="26"/>
@@ -25604,8 +25609,8 @@
       <c r="G500" s="26"/>
       <c r="H500" s="26"/>
       <c r="I500" s="26"/>
-      <c r="J500" s="40"/>
-      <c r="K500" s="40"/>
+      <c r="J500" s="41"/>
+      <c r="K500" s="41"/>
       <c r="L500" s="26"/>
       <c r="M500" s="26"/>
       <c r="N500" s="26"/>
@@ -25649,8 +25654,8 @@
       <c r="G501" s="26"/>
       <c r="H501" s="26"/>
       <c r="I501" s="26"/>
-      <c r="J501" s="40"/>
-      <c r="K501" s="40"/>
+      <c r="J501" s="41"/>
+      <c r="K501" s="41"/>
       <c r="L501" s="26"/>
       <c r="M501" s="26"/>
       <c r="N501" s="26"/>
@@ -25694,8 +25699,8 @@
       <c r="G502" s="26"/>
       <c r="H502" s="26"/>
       <c r="I502" s="26"/>
-      <c r="J502" s="40"/>
-      <c r="K502" s="40"/>
+      <c r="J502" s="41"/>
+      <c r="K502" s="41"/>
       <c r="L502" s="26"/>
       <c r="M502" s="26"/>
       <c r="N502" s="26"/>
@@ -25739,8 +25744,8 @@
       <c r="G503" s="26"/>
       <c r="H503" s="26"/>
       <c r="I503" s="26"/>
-      <c r="J503" s="40"/>
-      <c r="K503" s="40"/>
+      <c r="J503" s="41"/>
+      <c r="K503" s="41"/>
       <c r="L503" s="26"/>
       <c r="M503" s="26"/>
       <c r="N503" s="26"/>
@@ -25784,8 +25789,8 @@
       <c r="G504" s="26"/>
       <c r="H504" s="26"/>
       <c r="I504" s="26"/>
-      <c r="J504" s="40"/>
-      <c r="K504" s="40"/>
+      <c r="J504" s="41"/>
+      <c r="K504" s="41"/>
       <c r="L504" s="26"/>
       <c r="M504" s="26"/>
       <c r="N504" s="26"/>
@@ -25829,8 +25834,8 @@
       <c r="G505" s="26"/>
       <c r="H505" s="26"/>
       <c r="I505" s="26"/>
-      <c r="J505" s="40"/>
-      <c r="K505" s="40"/>
+      <c r="J505" s="41"/>
+      <c r="K505" s="41"/>
       <c r="L505" s="26"/>
       <c r="M505" s="26"/>
       <c r="N505" s="26"/>
@@ -25874,8 +25879,8 @@
       <c r="G506" s="26"/>
       <c r="H506" s="26"/>
       <c r="I506" s="26"/>
-      <c r="J506" s="40"/>
-      <c r="K506" s="40"/>
+      <c r="J506" s="41"/>
+      <c r="K506" s="41"/>
       <c r="L506" s="26"/>
       <c r="M506" s="26"/>
       <c r="N506" s="26"/>
@@ -25919,8 +25924,8 @@
       <c r="G507" s="26"/>
       <c r="H507" s="26"/>
       <c r="I507" s="26"/>
-      <c r="J507" s="40"/>
-      <c r="K507" s="40"/>
+      <c r="J507" s="41"/>
+      <c r="K507" s="41"/>
       <c r="L507" s="26"/>
       <c r="M507" s="26"/>
       <c r="N507" s="26"/>
@@ -25964,8 +25969,8 @@
       <c r="G508" s="26"/>
       <c r="H508" s="26"/>
       <c r="I508" s="26"/>
-      <c r="J508" s="40"/>
-      <c r="K508" s="40"/>
+      <c r="J508" s="41"/>
+      <c r="K508" s="41"/>
       <c r="L508" s="26"/>
       <c r="M508" s="26"/>
       <c r="N508" s="26"/>
@@ -26009,8 +26014,8 @@
       <c r="G509" s="26"/>
       <c r="H509" s="26"/>
       <c r="I509" s="26"/>
-      <c r="J509" s="40"/>
-      <c r="K509" s="40"/>
+      <c r="J509" s="41"/>
+      <c r="K509" s="41"/>
       <c r="L509" s="26"/>
       <c r="M509" s="26"/>
       <c r="N509" s="26"/>
@@ -26054,8 +26059,8 @@
       <c r="G510" s="26"/>
       <c r="H510" s="26"/>
       <c r="I510" s="26"/>
-      <c r="J510" s="40"/>
-      <c r="K510" s="40"/>
+      <c r="J510" s="41"/>
+      <c r="K510" s="41"/>
       <c r="L510" s="26"/>
       <c r="M510" s="26"/>
       <c r="N510" s="26"/>
@@ -26099,8 +26104,8 @@
       <c r="G511" s="26"/>
       <c r="H511" s="26"/>
       <c r="I511" s="26"/>
-      <c r="J511" s="40"/>
-      <c r="K511" s="40"/>
+      <c r="J511" s="41"/>
+      <c r="K511" s="41"/>
       <c r="L511" s="26"/>
       <c r="M511" s="26"/>
       <c r="N511" s="26"/>
@@ -26144,8 +26149,8 @@
       <c r="G512" s="26"/>
       <c r="H512" s="26"/>
       <c r="I512" s="26"/>
-      <c r="J512" s="40"/>
-      <c r="K512" s="40"/>
+      <c r="J512" s="41"/>
+      <c r="K512" s="41"/>
       <c r="L512" s="26"/>
       <c r="M512" s="26"/>
       <c r="N512" s="26"/>
@@ -26189,8 +26194,8 @@
       <c r="G513" s="26"/>
       <c r="H513" s="26"/>
       <c r="I513" s="26"/>
-      <c r="J513" s="40"/>
-      <c r="K513" s="40"/>
+      <c r="J513" s="41"/>
+      <c r="K513" s="41"/>
       <c r="L513" s="26"/>
       <c r="M513" s="26"/>
       <c r="N513" s="26"/>
@@ -26234,8 +26239,8 @@
       <c r="G514" s="26"/>
       <c r="H514" s="26"/>
       <c r="I514" s="26"/>
-      <c r="J514" s="40"/>
-      <c r="K514" s="40"/>
+      <c r="J514" s="41"/>
+      <c r="K514" s="41"/>
       <c r="L514" s="26"/>
       <c r="M514" s="26"/>
       <c r="N514" s="26"/>
@@ -26279,8 +26284,8 @@
       <c r="G515" s="26"/>
       <c r="H515" s="26"/>
       <c r="I515" s="26"/>
-      <c r="J515" s="40"/>
-      <c r="K515" s="40"/>
+      <c r="J515" s="41"/>
+      <c r="K515" s="41"/>
       <c r="L515" s="26"/>
       <c r="M515" s="26"/>
       <c r="N515" s="26"/>
@@ -26324,8 +26329,8 @@
       <c r="G516" s="26"/>
       <c r="H516" s="26"/>
       <c r="I516" s="26"/>
-      <c r="J516" s="40"/>
-      <c r="K516" s="40"/>
+      <c r="J516" s="41"/>
+      <c r="K516" s="41"/>
       <c r="L516" s="26"/>
       <c r="M516" s="26"/>
       <c r="N516" s="26"/>
@@ -26369,8 +26374,8 @@
       <c r="G517" s="26"/>
       <c r="H517" s="26"/>
       <c r="I517" s="26"/>
-      <c r="J517" s="40"/>
-      <c r="K517" s="40"/>
+      <c r="J517" s="41"/>
+      <c r="K517" s="41"/>
       <c r="L517" s="26"/>
       <c r="M517" s="26"/>
       <c r="N517" s="26"/>
@@ -26414,8 +26419,8 @@
       <c r="G518" s="26"/>
       <c r="H518" s="26"/>
       <c r="I518" s="26"/>
-      <c r="J518" s="40"/>
-      <c r="K518" s="40"/>
+      <c r="J518" s="41"/>
+      <c r="K518" s="41"/>
       <c r="L518" s="26"/>
       <c r="M518" s="26"/>
       <c r="N518" s="26"/>
@@ -26459,8 +26464,8 @@
       <c r="G519" s="26"/>
       <c r="H519" s="26"/>
       <c r="I519" s="26"/>
-      <c r="J519" s="40"/>
-      <c r="K519" s="40"/>
+      <c r="J519" s="41"/>
+      <c r="K519" s="41"/>
       <c r="L519" s="26"/>
       <c r="M519" s="26"/>
       <c r="N519" s="26"/>
@@ -26504,8 +26509,8 @@
       <c r="G520" s="26"/>
       <c r="H520" s="26"/>
       <c r="I520" s="26"/>
-      <c r="J520" s="40"/>
-      <c r="K520" s="40"/>
+      <c r="J520" s="41"/>
+      <c r="K520" s="41"/>
       <c r="L520" s="26"/>
       <c r="M520" s="26"/>
       <c r="N520" s="26"/>
@@ -26549,8 +26554,8 @@
       <c r="G521" s="26"/>
       <c r="H521" s="26"/>
       <c r="I521" s="26"/>
-      <c r="J521" s="40"/>
-      <c r="K521" s="40"/>
+      <c r="J521" s="41"/>
+      <c r="K521" s="41"/>
       <c r="L521" s="26"/>
       <c r="M521" s="26"/>
       <c r="N521" s="26"/>
@@ -26594,8 +26599,8 @@
       <c r="G522" s="26"/>
       <c r="H522" s="26"/>
       <c r="I522" s="26"/>
-      <c r="J522" s="40"/>
-      <c r="K522" s="40"/>
+      <c r="J522" s="41"/>
+      <c r="K522" s="41"/>
       <c r="L522" s="26"/>
       <c r="M522" s="26"/>
       <c r="N522" s="26"/>
@@ -26639,8 +26644,8 @@
       <c r="G523" s="26"/>
       <c r="H523" s="26"/>
       <c r="I523" s="26"/>
-      <c r="J523" s="40"/>
-      <c r="K523" s="40"/>
+      <c r="J523" s="41"/>
+      <c r="K523" s="41"/>
       <c r="L523" s="26"/>
       <c r="M523" s="26"/>
       <c r="N523" s="26"/>
@@ -26684,8 +26689,8 @@
       <c r="G524" s="26"/>
       <c r="H524" s="26"/>
       <c r="I524" s="26"/>
-      <c r="J524" s="40"/>
-      <c r="K524" s="40"/>
+      <c r="J524" s="41"/>
+      <c r="K524" s="41"/>
       <c r="L524" s="26"/>
       <c r="M524" s="26"/>
       <c r="N524" s="26"/>
@@ -26729,8 +26734,8 @@
       <c r="G525" s="26"/>
       <c r="H525" s="26"/>
       <c r="I525" s="26"/>
-      <c r="J525" s="40"/>
-      <c r="K525" s="40"/>
+      <c r="J525" s="41"/>
+      <c r="K525" s="41"/>
       <c r="L525" s="26"/>
       <c r="M525" s="26"/>
       <c r="N525" s="26"/>
@@ -26774,8 +26779,8 @@
       <c r="G526" s="26"/>
       <c r="H526" s="26"/>
       <c r="I526" s="26"/>
-      <c r="J526" s="40"/>
-      <c r="K526" s="40"/>
+      <c r="J526" s="41"/>
+      <c r="K526" s="41"/>
       <c r="L526" s="26"/>
       <c r="M526" s="26"/>
       <c r="N526" s="26"/>
@@ -26819,8 +26824,8 @@
       <c r="G527" s="26"/>
       <c r="H527" s="26"/>
       <c r="I527" s="26"/>
-      <c r="J527" s="40"/>
-      <c r="K527" s="40"/>
+      <c r="J527" s="41"/>
+      <c r="K527" s="41"/>
       <c r="L527" s="26"/>
       <c r="M527" s="26"/>
       <c r="N527" s="26"/>
@@ -26864,8 +26869,8 @@
       <c r="G528" s="26"/>
       <c r="H528" s="26"/>
       <c r="I528" s="26"/>
-      <c r="J528" s="40"/>
-      <c r="K528" s="40"/>
+      <c r="J528" s="41"/>
+      <c r="K528" s="41"/>
       <c r="L528" s="26"/>
       <c r="M528" s="26"/>
       <c r="N528" s="26"/>
@@ -26909,8 +26914,8 @@
       <c r="G529" s="26"/>
       <c r="H529" s="26"/>
       <c r="I529" s="26"/>
-      <c r="J529" s="40"/>
-      <c r="K529" s="40"/>
+      <c r="J529" s="41"/>
+      <c r="K529" s="41"/>
       <c r="L529" s="26"/>
       <c r="M529" s="26"/>
       <c r="N529" s="26"/>
@@ -26954,8 +26959,8 @@
       <c r="G530" s="26"/>
       <c r="H530" s="26"/>
       <c r="I530" s="26"/>
-      <c r="J530" s="40"/>
-      <c r="K530" s="40"/>
+      <c r="J530" s="41"/>
+      <c r="K530" s="41"/>
       <c r="L530" s="26"/>
       <c r="M530" s="26"/>
       <c r="N530" s="26"/>
@@ -26999,8 +27004,8 @@
       <c r="G531" s="26"/>
       <c r="H531" s="26"/>
       <c r="I531" s="26"/>
-      <c r="J531" s="40"/>
-      <c r="K531" s="40"/>
+      <c r="J531" s="41"/>
+      <c r="K531" s="41"/>
       <c r="L531" s="26"/>
       <c r="M531" s="26"/>
       <c r="N531" s="26"/>
@@ -27044,8 +27049,8 @@
       <c r="G532" s="26"/>
       <c r="H532" s="26"/>
       <c r="I532" s="26"/>
-      <c r="J532" s="40"/>
-      <c r="K532" s="40"/>
+      <c r="J532" s="41"/>
+      <c r="K532" s="41"/>
       <c r="L532" s="26"/>
       <c r="M532" s="26"/>
       <c r="N532" s="26"/>
@@ -27089,8 +27094,8 @@
       <c r="G533" s="26"/>
       <c r="H533" s="26"/>
       <c r="I533" s="26"/>
-      <c r="J533" s="40"/>
-      <c r="K533" s="40"/>
+      <c r="J533" s="41"/>
+      <c r="K533" s="41"/>
       <c r="L533" s="26"/>
       <c r="M533" s="26"/>
       <c r="N533" s="26"/>
@@ -27134,8 +27139,8 @@
       <c r="G534" s="26"/>
       <c r="H534" s="26"/>
       <c r="I534" s="26"/>
-      <c r="J534" s="40"/>
-      <c r="K534" s="40"/>
+      <c r="J534" s="41"/>
+      <c r="K534" s="41"/>
       <c r="L534" s="26"/>
       <c r="M534" s="26"/>
       <c r="N534" s="26"/>
@@ -27179,8 +27184,8 @@
       <c r="G535" s="26"/>
       <c r="H535" s="26"/>
       <c r="I535" s="26"/>
-      <c r="J535" s="40"/>
-      <c r="K535" s="40"/>
+      <c r="J535" s="41"/>
+      <c r="K535" s="41"/>
       <c r="L535" s="26"/>
       <c r="M535" s="26"/>
       <c r="N535" s="26"/>
@@ -27224,8 +27229,8 @@
       <c r="G536" s="26"/>
       <c r="H536" s="26"/>
       <c r="I536" s="26"/>
-      <c r="J536" s="40"/>
-      <c r="K536" s="40"/>
+      <c r="J536" s="41"/>
+      <c r="K536" s="41"/>
       <c r="L536" s="26"/>
       <c r="M536" s="26"/>
       <c r="N536" s="26"/>
@@ -27269,8 +27274,8 @@
       <c r="G537" s="26"/>
       <c r="H537" s="26"/>
       <c r="I537" s="26"/>
-      <c r="J537" s="40"/>
-      <c r="K537" s="40"/>
+      <c r="J537" s="41"/>
+      <c r="K537" s="41"/>
       <c r="L537" s="26"/>
       <c r="M537" s="26"/>
       <c r="N537" s="26"/>
@@ -27314,8 +27319,8 @@
       <c r="G538" s="26"/>
       <c r="H538" s="26"/>
       <c r="I538" s="26"/>
-      <c r="J538" s="40"/>
-      <c r="K538" s="40"/>
+      <c r="J538" s="41"/>
+      <c r="K538" s="41"/>
       <c r="L538" s="26"/>
       <c r="M538" s="26"/>
       <c r="N538" s="26"/>
@@ -27359,8 +27364,8 @@
       <c r="G539" s="26"/>
       <c r="H539" s="26"/>
       <c r="I539" s="26"/>
-      <c r="J539" s="40"/>
-      <c r="K539" s="40"/>
+      <c r="J539" s="41"/>
+      <c r="K539" s="41"/>
       <c r="L539" s="26"/>
       <c r="M539" s="26"/>
       <c r="N539" s="26"/>
@@ -27404,8 +27409,8 @@
       <c r="G540" s="26"/>
       <c r="H540" s="26"/>
       <c r="I540" s="26"/>
-      <c r="J540" s="40"/>
-      <c r="K540" s="40"/>
+      <c r="J540" s="41"/>
+      <c r="K540" s="41"/>
       <c r="L540" s="26"/>
       <c r="M540" s="26"/>
       <c r="N540" s="26"/>
@@ -27449,8 +27454,8 @@
       <c r="G541" s="26"/>
       <c r="H541" s="26"/>
       <c r="I541" s="26"/>
-      <c r="J541" s="40"/>
-      <c r="K541" s="40"/>
+      <c r="J541" s="41"/>
+      <c r="K541" s="41"/>
       <c r="L541" s="26"/>
       <c r="M541" s="26"/>
       <c r="N541" s="26"/>
@@ -27494,8 +27499,8 @@
       <c r="G542" s="26"/>
       <c r="H542" s="26"/>
       <c r="I542" s="26"/>
-      <c r="J542" s="40"/>
-      <c r="K542" s="40"/>
+      <c r="J542" s="41"/>
+      <c r="K542" s="41"/>
       <c r="L542" s="26"/>
       <c r="M542" s="26"/>
       <c r="N542" s="26"/>
@@ -27539,8 +27544,8 @@
       <c r="G543" s="26"/>
       <c r="H543" s="26"/>
       <c r="I543" s="26"/>
-      <c r="J543" s="40"/>
-      <c r="K543" s="40"/>
+      <c r="J543" s="41"/>
+      <c r="K543" s="41"/>
       <c r="L543" s="26"/>
       <c r="M543" s="26"/>
       <c r="N543" s="26"/>
@@ -27584,8 +27589,8 @@
       <c r="G544" s="26"/>
       <c r="H544" s="26"/>
       <c r="I544" s="26"/>
-      <c r="J544" s="40"/>
-      <c r="K544" s="40"/>
+      <c r="J544" s="41"/>
+      <c r="K544" s="41"/>
       <c r="L544" s="26"/>
       <c r="M544" s="26"/>
       <c r="N544" s="26"/>
@@ -27629,8 +27634,8 @@
       <c r="G545" s="26"/>
       <c r="H545" s="26"/>
       <c r="I545" s="26"/>
-      <c r="J545" s="40"/>
-      <c r="K545" s="40"/>
+      <c r="J545" s="41"/>
+      <c r="K545" s="41"/>
       <c r="L545" s="26"/>
       <c r="M545" s="26"/>
       <c r="N545" s="26"/>
@@ -27674,8 +27679,8 @@
       <c r="G546" s="26"/>
       <c r="H546" s="26"/>
       <c r="I546" s="26"/>
-      <c r="J546" s="40"/>
-      <c r="K546" s="40"/>
+      <c r="J546" s="41"/>
+      <c r="K546" s="41"/>
       <c r="L546" s="26"/>
       <c r="M546" s="26"/>
       <c r="N546" s="26"/>
@@ -27719,8 +27724,8 @@
       <c r="G547" s="26"/>
       <c r="H547" s="26"/>
       <c r="I547" s="26"/>
-      <c r="J547" s="40"/>
-      <c r="K547" s="40"/>
+      <c r="J547" s="41"/>
+      <c r="K547" s="41"/>
       <c r="L547" s="26"/>
       <c r="M547" s="26"/>
       <c r="N547" s="26"/>
@@ -27764,8 +27769,8 @@
       <c r="G548" s="26"/>
       <c r="H548" s="26"/>
       <c r="I548" s="26"/>
-      <c r="J548" s="40"/>
-      <c r="K548" s="40"/>
+      <c r="J548" s="41"/>
+      <c r="K548" s="41"/>
       <c r="L548" s="26"/>
       <c r="M548" s="26"/>
       <c r="N548" s="26"/>
@@ -27809,8 +27814,8 @@
       <c r="G549" s="26"/>
       <c r="H549" s="26"/>
       <c r="I549" s="26"/>
-      <c r="J549" s="40"/>
-      <c r="K549" s="40"/>
+      <c r="J549" s="41"/>
+      <c r="K549" s="41"/>
       <c r="L549" s="26"/>
       <c r="M549" s="26"/>
       <c r="N549" s="26"/>
@@ -27854,8 +27859,8 @@
       <c r="G550" s="26"/>
       <c r="H550" s="26"/>
       <c r="I550" s="26"/>
-      <c r="J550" s="40"/>
-      <c r="K550" s="40"/>
+      <c r="J550" s="41"/>
+      <c r="K550" s="41"/>
       <c r="L550" s="26"/>
       <c r="M550" s="26"/>
       <c r="N550" s="26"/>
@@ -27899,8 +27904,8 @@
       <c r="G551" s="26"/>
       <c r="H551" s="26"/>
       <c r="I551" s="26"/>
-      <c r="J551" s="40"/>
-      <c r="K551" s="40"/>
+      <c r="J551" s="41"/>
+      <c r="K551" s="41"/>
       <c r="L551" s="26"/>
       <c r="M551" s="26"/>
       <c r="N551" s="26"/>
@@ -27944,8 +27949,8 @@
       <c r="G552" s="26"/>
       <c r="H552" s="26"/>
       <c r="I552" s="26"/>
-      <c r="J552" s="40"/>
-      <c r="K552" s="40"/>
+      <c r="J552" s="41"/>
+      <c r="K552" s="41"/>
       <c r="L552" s="26"/>
       <c r="M552" s="26"/>
       <c r="N552" s="26"/>
@@ -27989,8 +27994,8 @@
       <c r="G553" s="26"/>
       <c r="H553" s="26"/>
       <c r="I553" s="26"/>
-      <c r="J553" s="40"/>
-      <c r="K553" s="40"/>
+      <c r="J553" s="41"/>
+      <c r="K553" s="41"/>
       <c r="L553" s="26"/>
       <c r="M553" s="26"/>
       <c r="N553" s="26"/>
@@ -28034,8 +28039,8 @@
       <c r="G554" s="26"/>
       <c r="H554" s="26"/>
       <c r="I554" s="26"/>
-      <c r="J554" s="40"/>
-      <c r="K554" s="40"/>
+      <c r="J554" s="41"/>
+      <c r="K554" s="41"/>
       <c r="L554" s="26"/>
       <c r="M554" s="26"/>
       <c r="N554" s="26"/>
@@ -28079,8 +28084,8 @@
       <c r="G555" s="26"/>
       <c r="H555" s="26"/>
       <c r="I555" s="26"/>
-      <c r="J555" s="40"/>
-      <c r="K555" s="40"/>
+      <c r="J555" s="41"/>
+      <c r="K555" s="41"/>
       <c r="L555" s="26"/>
       <c r="M555" s="26"/>
       <c r="N555" s="26"/>
@@ -28124,8 +28129,8 @@
       <c r="G556" s="26"/>
       <c r="H556" s="26"/>
       <c r="I556" s="26"/>
-      <c r="J556" s="40"/>
-      <c r="K556" s="40"/>
+      <c r="J556" s="41"/>
+      <c r="K556" s="41"/>
       <c r="L556" s="26"/>
       <c r="M556" s="26"/>
       <c r="N556" s="26"/>
@@ -28169,8 +28174,8 @@
       <c r="G557" s="26"/>
       <c r="H557" s="26"/>
       <c r="I557" s="26"/>
-      <c r="J557" s="40"/>
-      <c r="K557" s="40"/>
+      <c r="J557" s="41"/>
+      <c r="K557" s="41"/>
       <c r="L557" s="26"/>
       <c r="M557" s="26"/>
       <c r="N557" s="26"/>
@@ -28214,8 +28219,8 @@
       <c r="G558" s="26"/>
       <c r="H558" s="26"/>
       <c r="I558" s="26"/>
-      <c r="J558" s="40"/>
-      <c r="K558" s="40"/>
+      <c r="J558" s="41"/>
+      <c r="K558" s="41"/>
       <c r="L558" s="26"/>
       <c r="M558" s="26"/>
       <c r="N558" s="26"/>
@@ -28259,8 +28264,8 @@
       <c r="G559" s="26"/>
       <c r="H559" s="26"/>
       <c r="I559" s="26"/>
-      <c r="J559" s="40"/>
-      <c r="K559" s="40"/>
+      <c r="J559" s="41"/>
+      <c r="K559" s="41"/>
       <c r="L559" s="26"/>
       <c r="M559" s="26"/>
       <c r="N559" s="26"/>
@@ -28304,8 +28309,8 @@
       <c r="G560" s="26"/>
       <c r="H560" s="26"/>
       <c r="I560" s="26"/>
-      <c r="J560" s="40"/>
-      <c r="K560" s="40"/>
+      <c r="J560" s="41"/>
+      <c r="K560" s="41"/>
       <c r="L560" s="26"/>
       <c r="M560" s="26"/>
       <c r="N560" s="26"/>
@@ -28349,8 +28354,8 @@
       <c r="G561" s="26"/>
       <c r="H561" s="26"/>
       <c r="I561" s="26"/>
-      <c r="J561" s="40"/>
-      <c r="K561" s="40"/>
+      <c r="J561" s="41"/>
+      <c r="K561" s="41"/>
       <c r="L561" s="26"/>
       <c r="M561" s="26"/>
       <c r="N561" s="26"/>
@@ -28394,8 +28399,8 @@
       <c r="G562" s="26"/>
       <c r="H562" s="26"/>
       <c r="I562" s="26"/>
-      <c r="J562" s="40"/>
-      <c r="K562" s="40"/>
+      <c r="J562" s="41"/>
+      <c r="K562" s="41"/>
       <c r="L562" s="26"/>
       <c r="M562" s="26"/>
       <c r="N562" s="26"/>
@@ -28439,8 +28444,8 @@
       <c r="G563" s="26"/>
       <c r="H563" s="26"/>
       <c r="I563" s="26"/>
-      <c r="J563" s="40"/>
-      <c r="K563" s="40"/>
+      <c r="J563" s="41"/>
+      <c r="K563" s="41"/>
       <c r="L563" s="26"/>
       <c r="M563" s="26"/>
       <c r="N563" s="26"/>
@@ -28484,8 +28489,8 @@
       <c r="G564" s="26"/>
       <c r="H564" s="26"/>
       <c r="I564" s="26"/>
-      <c r="J564" s="40"/>
-      <c r="K564" s="40"/>
+      <c r="J564" s="41"/>
+      <c r="K564" s="41"/>
       <c r="L564" s="26"/>
       <c r="M564" s="26"/>
       <c r="N564" s="26"/>
@@ -28529,8 +28534,8 @@
       <c r="G565" s="26"/>
       <c r="H565" s="26"/>
       <c r="I565" s="26"/>
-      <c r="J565" s="40"/>
-      <c r="K565" s="40"/>
+      <c r="J565" s="41"/>
+      <c r="K565" s="41"/>
       <c r="L565" s="26"/>
       <c r="M565" s="26"/>
       <c r="N565" s="26"/>
@@ -28574,8 +28579,8 @@
       <c r="G566" s="26"/>
       <c r="H566" s="26"/>
       <c r="I566" s="26"/>
-      <c r="J566" s="40"/>
-      <c r="K566" s="40"/>
+      <c r="J566" s="41"/>
+      <c r="K566" s="41"/>
       <c r="L566" s="26"/>
       <c r="M566" s="26"/>
       <c r="N566" s="26"/>
@@ -28619,8 +28624,8 @@
       <c r="G567" s="26"/>
       <c r="H567" s="26"/>
       <c r="I567" s="26"/>
-      <c r="J567" s="40"/>
-      <c r="K567" s="40"/>
+      <c r="J567" s="41"/>
+      <c r="K567" s="41"/>
       <c r="L567" s="26"/>
       <c r="M567" s="26"/>
       <c r="N567" s="26"/>
@@ -28664,8 +28669,8 @@
       <c r="G568" s="26"/>
       <c r="H568" s="26"/>
       <c r="I568" s="26"/>
-      <c r="J568" s="40"/>
-      <c r="K568" s="40"/>
+      <c r="J568" s="41"/>
+      <c r="K568" s="41"/>
       <c r="L568" s="26"/>
       <c r="M568" s="26"/>
       <c r="N568" s="26"/>
@@ -28709,8 +28714,8 @@
       <c r="G569" s="26"/>
       <c r="H569" s="26"/>
       <c r="I569" s="26"/>
-      <c r="J569" s="40"/>
-      <c r="K569" s="40"/>
+      <c r="J569" s="41"/>
+      <c r="K569" s="41"/>
       <c r="L569" s="26"/>
       <c r="M569" s="26"/>
       <c r="N569" s="26"/>
@@ -28754,8 +28759,8 @@
       <c r="G570" s="26"/>
       <c r="H570" s="26"/>
       <c r="I570" s="26"/>
-      <c r="J570" s="40"/>
-      <c r="K570" s="40"/>
+      <c r="J570" s="41"/>
+      <c r="K570" s="41"/>
       <c r="L570" s="26"/>
       <c r="M570" s="26"/>
       <c r="N570" s="26"/>
@@ -28799,8 +28804,8 @@
       <c r="G571" s="26"/>
       <c r="H571" s="26"/>
       <c r="I571" s="26"/>
-      <c r="J571" s="40"/>
-      <c r="K571" s="40"/>
+      <c r="J571" s="41"/>
+      <c r="K571" s="41"/>
       <c r="L571" s="26"/>
       <c r="M571" s="26"/>
       <c r="N571" s="26"/>
@@ -28844,8 +28849,8 @@
       <c r="G572" s="26"/>
       <c r="H572" s="26"/>
       <c r="I572" s="26"/>
-      <c r="J572" s="40"/>
-      <c r="K572" s="40"/>
+      <c r="J572" s="41"/>
+      <c r="K572" s="41"/>
       <c r="L572" s="26"/>
       <c r="M572" s="26"/>
       <c r="N572" s="26"/>
@@ -28889,8 +28894,8 @@
       <c r="G573" s="26"/>
       <c r="H573" s="26"/>
       <c r="I573" s="26"/>
-      <c r="J573" s="40"/>
-      <c r="K573" s="40"/>
+      <c r="J573" s="41"/>
+      <c r="K573" s="41"/>
       <c r="L573" s="26"/>
       <c r="M573" s="26"/>
       <c r="N573" s="26"/>
@@ -28934,8 +28939,8 @@
       <c r="G574" s="26"/>
       <c r="H574" s="26"/>
       <c r="I574" s="26"/>
-      <c r="J574" s="40"/>
-      <c r="K574" s="40"/>
+      <c r="J574" s="41"/>
+      <c r="K574" s="41"/>
       <c r="L574" s="26"/>
       <c r="M574" s="26"/>
       <c r="N574" s="26"/>
@@ -28979,8 +28984,8 @@
       <c r="G575" s="26"/>
       <c r="H575" s="26"/>
       <c r="I575" s="26"/>
-      <c r="J575" s="40"/>
-      <c r="K575" s="40"/>
+      <c r="J575" s="41"/>
+      <c r="K575" s="41"/>
       <c r="L575" s="26"/>
       <c r="M575" s="26"/>
       <c r="N575" s="26"/>
@@ -29024,8 +29029,8 @@
       <c r="G576" s="26"/>
       <c r="H576" s="26"/>
       <c r="I576" s="26"/>
-      <c r="J576" s="40"/>
-      <c r="K576" s="40"/>
+      <c r="J576" s="41"/>
+      <c r="K576" s="41"/>
       <c r="L576" s="26"/>
       <c r="M576" s="26"/>
       <c r="N576" s="26"/>
@@ -29069,8 +29074,8 @@
       <c r="G577" s="26"/>
       <c r="H577" s="26"/>
       <c r="I577" s="26"/>
-      <c r="J577" s="40"/>
-      <c r="K577" s="40"/>
+      <c r="J577" s="41"/>
+      <c r="K577" s="41"/>
       <c r="L577" s="26"/>
       <c r="M577" s="26"/>
       <c r="N577" s="26"/>
@@ -29114,8 +29119,8 @@
       <c r="G578" s="26"/>
       <c r="H578" s="26"/>
       <c r="I578" s="26"/>
-      <c r="J578" s="40"/>
-      <c r="K578" s="40"/>
+      <c r="J578" s="41"/>
+      <c r="K578" s="41"/>
       <c r="L578" s="26"/>
       <c r="M578" s="26"/>
       <c r="N578" s="26"/>
@@ -29159,8 +29164,8 @@
       <c r="G579" s="26"/>
       <c r="H579" s="26"/>
       <c r="I579" s="26"/>
-      <c r="J579" s="40"/>
-      <c r="K579" s="40"/>
+      <c r="J579" s="41"/>
+      <c r="K579" s="41"/>
       <c r="L579" s="26"/>
       <c r="M579" s="26"/>
       <c r="N579" s="26"/>
@@ -29204,8 +29209,8 @@
       <c r="G580" s="26"/>
       <c r="H580" s="26"/>
       <c r="I580" s="26"/>
-      <c r="J580" s="40"/>
-      <c r="K580" s="40"/>
+      <c r="J580" s="41"/>
+      <c r="K580" s="41"/>
       <c r="L580" s="26"/>
       <c r="M580" s="26"/>
       <c r="N580" s="26"/>
@@ -29249,8 +29254,8 @@
       <c r="G581" s="26"/>
       <c r="H581" s="26"/>
       <c r="I581" s="26"/>
-      <c r="J581" s="40"/>
-      <c r="K581" s="40"/>
+      <c r="J581" s="41"/>
+      <c r="K581" s="41"/>
       <c r="L581" s="26"/>
       <c r="M581" s="26"/>
       <c r="N581" s="26"/>
@@ -29294,8 +29299,8 @@
       <c r="G582" s="26"/>
       <c r="H582" s="26"/>
       <c r="I582" s="26"/>
-      <c r="J582" s="40"/>
-      <c r="K582" s="40"/>
+      <c r="J582" s="41"/>
+      <c r="K582" s="41"/>
       <c r="L582" s="26"/>
       <c r="M582" s="26"/>
       <c r="N582" s="26"/>
@@ -29339,8 +29344,8 @@
       <c r="G583" s="26"/>
       <c r="H583" s="26"/>
       <c r="I583" s="26"/>
-      <c r="J583" s="40"/>
-      <c r="K583" s="40"/>
+      <c r="J583" s="41"/>
+      <c r="K583" s="41"/>
       <c r="L583" s="26"/>
       <c r="M583" s="26"/>
       <c r="N583" s="26"/>
@@ -29384,8 +29389,8 @@
       <c r="G584" s="26"/>
       <c r="H584" s="26"/>
       <c r="I584" s="26"/>
-      <c r="J584" s="40"/>
-      <c r="K584" s="40"/>
+      <c r="J584" s="41"/>
+      <c r="K584" s="41"/>
       <c r="L584" s="26"/>
       <c r="M584" s="26"/>
       <c r="N584" s="26"/>
@@ -29429,8 +29434,8 @@
       <c r="G585" s="26"/>
       <c r="H585" s="26"/>
       <c r="I585" s="26"/>
-      <c r="J585" s="40"/>
-      <c r="K585" s="40"/>
+      <c r="J585" s="41"/>
+      <c r="K585" s="41"/>
       <c r="L585" s="26"/>
       <c r="M585" s="26"/>
       <c r="N585" s="26"/>
@@ -29474,8 +29479,8 @@
       <c r="G586" s="26"/>
       <c r="H586" s="26"/>
       <c r="I586" s="26"/>
-      <c r="J586" s="40"/>
-      <c r="K586" s="40"/>
+      <c r="J586" s="41"/>
+      <c r="K586" s="41"/>
       <c r="L586" s="26"/>
       <c r="M586" s="26"/>
       <c r="N586" s="26"/>
@@ -29519,8 +29524,8 @@
       <c r="G587" s="26"/>
       <c r="H587" s="26"/>
       <c r="I587" s="26"/>
-      <c r="J587" s="40"/>
-      <c r="K587" s="40"/>
+      <c r="J587" s="41"/>
+      <c r="K587" s="41"/>
       <c r="L587" s="26"/>
       <c r="M587" s="26"/>
       <c r="N587" s="26"/>
@@ -29564,8 +29569,8 @@
       <c r="G588" s="26"/>
       <c r="H588" s="26"/>
       <c r="I588" s="26"/>
-      <c r="J588" s="40"/>
-      <c r="K588" s="40"/>
+      <c r="J588" s="41"/>
+      <c r="K588" s="41"/>
       <c r="L588" s="26"/>
       <c r="M588" s="26"/>
       <c r="N588" s="26"/>
@@ -29609,8 +29614,8 @@
       <c r="G589" s="26"/>
       <c r="H589" s="26"/>
       <c r="I589" s="26"/>
-      <c r="J589" s="40"/>
-      <c r="K589" s="40"/>
+      <c r="J589" s="41"/>
+      <c r="K589" s="41"/>
       <c r="L589" s="26"/>
       <c r="M589" s="26"/>
       <c r="N589" s="26"/>
@@ -29654,8 +29659,8 @@
       <c r="G590" s="26"/>
       <c r="H590" s="26"/>
       <c r="I590" s="26"/>
-      <c r="J590" s="40"/>
-      <c r="K590" s="40"/>
+      <c r="J590" s="41"/>
+      <c r="K590" s="41"/>
       <c r="L590" s="26"/>
       <c r="M590" s="26"/>
       <c r="N590" s="26"/>
@@ -29699,8 +29704,8 @@
       <c r="G591" s="26"/>
       <c r="H591" s="26"/>
       <c r="I591" s="26"/>
-      <c r="J591" s="40"/>
-      <c r="K591" s="40"/>
+      <c r="J591" s="41"/>
+      <c r="K591" s="41"/>
       <c r="L591" s="26"/>
       <c r="M591" s="26"/>
       <c r="N591" s="26"/>
@@ -29744,8 +29749,8 @@
       <c r="G592" s="26"/>
       <c r="H592" s="26"/>
       <c r="I592" s="26"/>
-      <c r="J592" s="40"/>
-      <c r="K592" s="40"/>
+      <c r="J592" s="41"/>
+      <c r="K592" s="41"/>
       <c r="L592" s="26"/>
       <c r="M592" s="26"/>
       <c r="N592" s="26"/>
@@ -29789,8 +29794,8 @@
       <c r="G593" s="26"/>
       <c r="H593" s="26"/>
       <c r="I593" s="26"/>
-      <c r="J593" s="40"/>
-      <c r="K593" s="40"/>
+      <c r="J593" s="41"/>
+      <c r="K593" s="41"/>
       <c r="L593" s="26"/>
       <c r="M593" s="26"/>
       <c r="N593" s="26"/>
@@ -29834,8 +29839,8 @@
       <c r="G594" s="26"/>
       <c r="H594" s="26"/>
       <c r="I594" s="26"/>
-      <c r="J594" s="40"/>
-      <c r="K594" s="40"/>
+      <c r="J594" s="41"/>
+      <c r="K594" s="41"/>
       <c r="L594" s="26"/>
       <c r="M594" s="26"/>
       <c r="N594" s="26"/>
@@ -29879,8 +29884,8 @@
       <c r="G595" s="26"/>
       <c r="H595" s="26"/>
       <c r="I595" s="26"/>
-      <c r="J595" s="40"/>
-      <c r="K595" s="40"/>
+      <c r="J595" s="41"/>
+      <c r="K595" s="41"/>
       <c r="L595" s="26"/>
       <c r="M595" s="26"/>
       <c r="N595" s="26"/>
@@ -29924,8 +29929,8 @@
       <c r="G596" s="26"/>
       <c r="H596" s="26"/>
       <c r="I596" s="26"/>
-      <c r="J596" s="40"/>
-      <c r="K596" s="40"/>
+      <c r="J596" s="41"/>
+      <c r="K596" s="41"/>
       <c r="L596" s="26"/>
       <c r="M596" s="26"/>
       <c r="N596" s="26"/>
@@ -29969,8 +29974,8 @@
       <c r="G597" s="26"/>
       <c r="H597" s="26"/>
       <c r="I597" s="26"/>
-      <c r="J597" s="40"/>
-      <c r="K597" s="40"/>
+      <c r="J597" s="41"/>
+      <c r="K597" s="41"/>
       <c r="L597" s="26"/>
       <c r="M597" s="26"/>
       <c r="N597" s="26"/>
@@ -30014,8 +30019,8 @@
       <c r="G598" s="26"/>
       <c r="H598" s="26"/>
       <c r="I598" s="26"/>
-      <c r="J598" s="40"/>
-      <c r="K598" s="40"/>
+      <c r="J598" s="41"/>
+      <c r="K598" s="41"/>
       <c r="L598" s="26"/>
       <c r="M598" s="26"/>
       <c r="N598" s="26"/>
@@ -30059,8 +30064,8 @@
       <c r="G599" s="26"/>
       <c r="H599" s="26"/>
       <c r="I599" s="26"/>
-      <c r="J599" s="40"/>
-      <c r="K599" s="40"/>
+      <c r="J599" s="41"/>
+      <c r="K599" s="41"/>
       <c r="L599" s="26"/>
       <c r="M599" s="26"/>
       <c r="N599" s="26"/>
@@ -30104,8 +30109,8 @@
       <c r="G600" s="26"/>
       <c r="H600" s="26"/>
       <c r="I600" s="26"/>
-      <c r="J600" s="40"/>
-      <c r="K600" s="40"/>
+      <c r="J600" s="41"/>
+      <c r="K600" s="41"/>
       <c r="L600" s="26"/>
       <c r="M600" s="26"/>
       <c r="N600" s="26"/>
@@ -30149,8 +30154,8 @@
       <c r="G601" s="26"/>
       <c r="H601" s="26"/>
       <c r="I601" s="26"/>
-      <c r="J601" s="40"/>
-      <c r="K601" s="40"/>
+      <c r="J601" s="41"/>
+      <c r="K601" s="41"/>
       <c r="L601" s="26"/>
       <c r="M601" s="26"/>
       <c r="N601" s="26"/>
@@ -30194,8 +30199,8 @@
       <c r="G602" s="26"/>
       <c r="H602" s="26"/>
       <c r="I602" s="26"/>
-      <c r="J602" s="40"/>
-      <c r="K602" s="40"/>
+      <c r="J602" s="41"/>
+      <c r="K602" s="41"/>
       <c r="L602" s="26"/>
       <c r="M602" s="26"/>
       <c r="N602" s="26"/>
@@ -30239,8 +30244,8 @@
       <c r="G603" s="26"/>
       <c r="H603" s="26"/>
       <c r="I603" s="26"/>
-      <c r="J603" s="40"/>
-      <c r="K603" s="40"/>
+      <c r="J603" s="41"/>
+      <c r="K603" s="41"/>
       <c r="L603" s="26"/>
       <c r="M603" s="26"/>
       <c r="N603" s="26"/>
@@ -30284,8 +30289,8 @@
       <c r="G604" s="26"/>
       <c r="H604" s="26"/>
       <c r="I604" s="26"/>
-      <c r="J604" s="40"/>
-      <c r="K604" s="40"/>
+      <c r="J604" s="41"/>
+      <c r="K604" s="41"/>
       <c r="L604" s="26"/>
       <c r="M604" s="26"/>
       <c r="N604" s="26"/>
@@ -30329,8 +30334,8 @@
       <c r="G605" s="26"/>
       <c r="H605" s="26"/>
       <c r="I605" s="26"/>
-      <c r="J605" s="40"/>
-      <c r="K605" s="40"/>
+      <c r="J605" s="41"/>
+      <c r="K605" s="41"/>
       <c r="L605" s="26"/>
       <c r="M605" s="26"/>
       <c r="N605" s="26"/>
@@ -30374,8 +30379,8 @@
       <c r="G606" s="26"/>
       <c r="H606" s="26"/>
       <c r="I606" s="26"/>
-      <c r="J606" s="40"/>
-      <c r="K606" s="40"/>
+      <c r="J606" s="41"/>
+      <c r="K606" s="41"/>
       <c r="L606" s="26"/>
       <c r="M606" s="26"/>
       <c r="N606" s="26"/>
@@ -30419,8 +30424,8 @@
       <c r="G607" s="26"/>
       <c r="H607" s="26"/>
       <c r="I607" s="26"/>
-      <c r="J607" s="40"/>
-      <c r="K607" s="40"/>
+      <c r="J607" s="41"/>
+      <c r="K607" s="41"/>
       <c r="L607" s="26"/>
       <c r="M607" s="26"/>
       <c r="N607" s="26"/>
@@ -30464,8 +30469,8 @@
       <c r="G608" s="26"/>
       <c r="H608" s="26"/>
       <c r="I608" s="26"/>
-      <c r="J608" s="40"/>
-      <c r="K608" s="40"/>
+      <c r="J608" s="41"/>
+      <c r="K608" s="41"/>
       <c r="L608" s="26"/>
       <c r="M608" s="26"/>
       <c r="N608" s="26"/>
@@ -30509,8 +30514,8 @@
       <c r="G609" s="26"/>
       <c r="H609" s="26"/>
       <c r="I609" s="26"/>
-      <c r="J609" s="40"/>
-      <c r="K609" s="40"/>
+      <c r="J609" s="41"/>
+      <c r="K609" s="41"/>
       <c r="L609" s="26"/>
       <c r="M609" s="26"/>
       <c r="N609" s="26"/>
@@ -30554,8 +30559,8 @@
       <c r="G610" s="26"/>
       <c r="H610" s="26"/>
       <c r="I610" s="26"/>
-      <c r="J610" s="40"/>
-      <c r="K610" s="40"/>
+      <c r="J610" s="41"/>
+      <c r="K610" s="41"/>
       <c r="L610" s="26"/>
       <c r="M610" s="26"/>
       <c r="N610" s="26"/>
@@ -30599,8 +30604,8 @@
       <c r="G611" s="26"/>
       <c r="H611" s="26"/>
       <c r="I611" s="26"/>
-      <c r="J611" s="40"/>
-      <c r="K611" s="40"/>
+      <c r="J611" s="41"/>
+      <c r="K611" s="41"/>
       <c r="L611" s="26"/>
       <c r="M611" s="26"/>
       <c r="N611" s="26"/>
@@ -30644,8 +30649,8 @@
       <c r="G612" s="26"/>
       <c r="H612" s="26"/>
       <c r="I612" s="26"/>
-      <c r="J612" s="40"/>
-      <c r="K612" s="40"/>
+      <c r="J612" s="41"/>
+      <c r="K612" s="41"/>
       <c r="L612" s="26"/>
       <c r="M612" s="26"/>
       <c r="N612" s="26"/>
@@ -30689,8 +30694,8 @@
       <c r="G613" s="26"/>
       <c r="H613" s="26"/>
       <c r="I613" s="26"/>
-      <c r="J613" s="40"/>
-      <c r="K613" s="40"/>
+      <c r="J613" s="41"/>
+      <c r="K613" s="41"/>
       <c r="L613" s="26"/>
       <c r="M613" s="26"/>
       <c r="N613" s="26"/>
@@ -30734,8 +30739,8 @@
       <c r="G614" s="26"/>
       <c r="H614" s="26"/>
       <c r="I614" s="26"/>
-      <c r="J614" s="40"/>
-      <c r="K614" s="40"/>
+      <c r="J614" s="41"/>
+      <c r="K614" s="41"/>
       <c r="L614" s="26"/>
       <c r="M614" s="26"/>
       <c r="N614" s="26"/>
@@ -30779,8 +30784,8 @@
       <c r="G615" s="26"/>
       <c r="H615" s="26"/>
       <c r="I615" s="26"/>
-      <c r="J615" s="40"/>
-      <c r="K615" s="40"/>
+      <c r="J615" s="41"/>
+      <c r="K615" s="41"/>
       <c r="L615" s="26"/>
       <c r="M615" s="26"/>
       <c r="N615" s="26"/>
@@ -30824,8 +30829,8 @@
       <c r="G616" s="26"/>
       <c r="H616" s="26"/>
       <c r="I616" s="26"/>
-      <c r="J616" s="40"/>
-      <c r="K616" s="40"/>
+      <c r="J616" s="41"/>
+      <c r="K616" s="41"/>
       <c r="L616" s="26"/>
       <c r="M616" s="26"/>
       <c r="N616" s="26"/>
@@ -30869,8 +30874,8 @@
       <c r="G617" s="26"/>
       <c r="H617" s="26"/>
       <c r="I617" s="26"/>
-      <c r="J617" s="40"/>
-      <c r="K617" s="40"/>
+      <c r="J617" s="41"/>
+      <c r="K617" s="41"/>
       <c r="L617" s="26"/>
       <c r="M617" s="26"/>
       <c r="N617" s="26"/>
@@ -30914,8 +30919,8 @@
       <c r="G618" s="26"/>
       <c r="H618" s="26"/>
       <c r="I618" s="26"/>
-      <c r="J618" s="40"/>
-      <c r="K618" s="40"/>
+      <c r="J618" s="41"/>
+      <c r="K618" s="41"/>
       <c r="L618" s="26"/>
       <c r="M618" s="26"/>
       <c r="N618" s="26"/>
@@ -30959,8 +30964,8 @@
       <c r="G619" s="26"/>
       <c r="H619" s="26"/>
       <c r="I619" s="26"/>
-      <c r="J619" s="40"/>
-      <c r="K619" s="40"/>
+      <c r="J619" s="41"/>
+      <c r="K619" s="41"/>
       <c r="L619" s="26"/>
       <c r="M619" s="26"/>
       <c r="N619" s="26"/>
@@ -31004,8 +31009,8 @@
       <c r="G620" s="26"/>
       <c r="H620" s="26"/>
       <c r="I620" s="26"/>
-      <c r="J620" s="40"/>
-      <c r="K620" s="40"/>
+      <c r="J620" s="41"/>
+      <c r="K620" s="41"/>
       <c r="L620" s="26"/>
       <c r="M620" s="26"/>
       <c r="N620" s="26"/>
@@ -31049,8 +31054,8 @@
       <c r="G621" s="26"/>
       <c r="H621" s="26"/>
       <c r="I621" s="26"/>
-      <c r="J621" s="40"/>
-      <c r="K621" s="40"/>
+      <c r="J621" s="41"/>
+      <c r="K621" s="41"/>
       <c r="L621" s="26"/>
       <c r="M621" s="26"/>
       <c r="N621" s="26"/>
@@ -31094,8 +31099,8 @@
       <c r="G622" s="26"/>
       <c r="H622" s="26"/>
       <c r="I622" s="26"/>
-      <c r="J622" s="40"/>
-      <c r="K622" s="40"/>
+      <c r="J622" s="41"/>
+      <c r="K622" s="41"/>
       <c r="L622" s="26"/>
       <c r="M622" s="26"/>
       <c r="N622" s="26"/>
@@ -31139,8 +31144,8 @@
       <c r="G623" s="26"/>
       <c r="H623" s="26"/>
       <c r="I623" s="26"/>
-      <c r="J623" s="40"/>
-      <c r="K623" s="40"/>
+      <c r="J623" s="41"/>
+      <c r="K623" s="41"/>
       <c r="L623" s="26"/>
       <c r="M623" s="26"/>
       <c r="N623" s="26"/>
@@ -31184,8 +31189,8 @@
       <c r="G624" s="26"/>
       <c r="H624" s="26"/>
       <c r="I624" s="26"/>
-      <c r="J624" s="40"/>
-      <c r="K624" s="40"/>
+      <c r="J624" s="41"/>
+      <c r="K624" s="41"/>
       <c r="L624" s="26"/>
       <c r="M624" s="26"/>
       <c r="N624" s="26"/>
@@ -31229,8 +31234,8 @@
       <c r="G625" s="26"/>
       <c r="H625" s="26"/>
       <c r="I625" s="26"/>
-      <c r="J625" s="40"/>
-      <c r="K625" s="40"/>
+      <c r="J625" s="41"/>
+      <c r="K625" s="41"/>
       <c r="L625" s="26"/>
       <c r="M625" s="26"/>
       <c r="N625" s="26"/>
@@ -31274,8 +31279,8 @@
       <c r="G626" s="26"/>
       <c r="H626" s="26"/>
       <c r="I626" s="26"/>
-      <c r="J626" s="40"/>
-      <c r="K626" s="40"/>
+      <c r="J626" s="41"/>
+      <c r="K626" s="41"/>
       <c r="L626" s="26"/>
       <c r="M626" s="26"/>
       <c r="N626" s="26"/>
@@ -31319,8 +31324,8 @@
       <c r="G627" s="26"/>
       <c r="H627" s="26"/>
       <c r="I627" s="26"/>
-      <c r="J627" s="40"/>
-      <c r="K627" s="40"/>
+      <c r="J627" s="41"/>
+      <c r="K627" s="41"/>
       <c r="L627" s="26"/>
       <c r="M627" s="26"/>
       <c r="N627" s="26"/>
@@ -31364,8 +31369,8 @@
       <c r="G628" s="26"/>
       <c r="H628" s="26"/>
       <c r="I628" s="26"/>
-      <c r="J628" s="40"/>
-      <c r="K628" s="40"/>
+      <c r="J628" s="41"/>
+      <c r="K628" s="41"/>
       <c r="L628" s="26"/>
       <c r="M628" s="26"/>
       <c r="N628" s="26"/>
@@ -31409,8 +31414,8 @@
       <c r="G629" s="26"/>
       <c r="H629" s="26"/>
       <c r="I629" s="26"/>
-      <c r="J629" s="40"/>
-      <c r="K629" s="40"/>
+      <c r="J629" s="41"/>
+      <c r="K629" s="41"/>
       <c r="L629" s="26"/>
       <c r="M629" s="26"/>
       <c r="N629" s="26"/>
@@ -31454,8 +31459,8 @@
       <c r="G630" s="26"/>
       <c r="H630" s="26"/>
       <c r="I630" s="26"/>
-      <c r="J630" s="40"/>
-      <c r="K630" s="40"/>
+      <c r="J630" s="41"/>
+      <c r="K630" s="41"/>
       <c r="L630" s="26"/>
       <c r="M630" s="26"/>
       <c r="N630" s="26"/>
@@ -31499,8 +31504,8 @@
       <c r="G631" s="26"/>
       <c r="H631" s="26"/>
       <c r="I631" s="26"/>
-      <c r="J631" s="40"/>
-      <c r="K631" s="40"/>
+      <c r="J631" s="41"/>
+      <c r="K631" s="41"/>
       <c r="L631" s="26"/>
       <c r="M631" s="26"/>
       <c r="N631" s="26"/>
@@ -31544,8 +31549,8 @@
       <c r="G632" s="26"/>
       <c r="H632" s="26"/>
       <c r="I632" s="26"/>
-      <c r="J632" s="40"/>
-      <c r="K632" s="40"/>
+      <c r="J632" s="41"/>
+      <c r="K632" s="41"/>
       <c r="L632" s="26"/>
       <c r="M632" s="26"/>
       <c r="N632" s="26"/>
@@ -31589,8 +31594,8 @@
       <c r="G633" s="26"/>
       <c r="H633" s="26"/>
       <c r="I633" s="26"/>
-      <c r="J633" s="40"/>
-      <c r="K633" s="40"/>
+      <c r="J633" s="41"/>
+      <c r="K633" s="41"/>
       <c r="L633" s="26"/>
       <c r="M633" s="26"/>
       <c r="N633" s="26"/>
@@ -31634,8 +31639,8 @@
       <c r="G634" s="26"/>
       <c r="H634" s="26"/>
       <c r="I634" s="26"/>
-      <c r="J634" s="40"/>
-      <c r="K634" s="40"/>
+      <c r="J634" s="41"/>
+      <c r="K634" s="41"/>
       <c r="L634" s="26"/>
       <c r="M634" s="26"/>
       <c r="N634" s="26"/>
@@ -31679,8 +31684,8 @@
       <c r="G635" s="26"/>
       <c r="H635" s="26"/>
       <c r="I635" s="26"/>
-      <c r="J635" s="40"/>
-      <c r="K635" s="40"/>
+      <c r="J635" s="41"/>
+      <c r="K635" s="41"/>
       <c r="L635" s="26"/>
       <c r="M635" s="26"/>
       <c r="N635" s="26"/>
@@ -31724,8 +31729,8 @@
       <c r="G636" s="26"/>
       <c r="H636" s="26"/>
       <c r="I636" s="26"/>
-      <c r="J636" s="40"/>
-      <c r="K636" s="40"/>
+      <c r="J636" s="41"/>
+      <c r="K636" s="41"/>
       <c r="L636" s="26"/>
       <c r="M636" s="26"/>
       <c r="N636" s="26"/>
@@ -31769,8 +31774,8 @@
       <c r="G637" s="26"/>
       <c r="H637" s="26"/>
       <c r="I637" s="26"/>
-      <c r="J637" s="40"/>
-      <c r="K637" s="40"/>
+      <c r="J637" s="41"/>
+      <c r="K637" s="41"/>
       <c r="L637" s="26"/>
       <c r="M637" s="26"/>
       <c r="N637" s="26"/>
@@ -31814,8 +31819,8 @@
       <c r="G638" s="26"/>
       <c r="H638" s="26"/>
       <c r="I638" s="26"/>
-      <c r="J638" s="40"/>
-      <c r="K638" s="40"/>
+      <c r="J638" s="41"/>
+      <c r="K638" s="41"/>
       <c r="L638" s="26"/>
       <c r="M638" s="26"/>
       <c r="N638" s="26"/>
@@ -31859,8 +31864,8 @@
       <c r="G639" s="26"/>
       <c r="H639" s="26"/>
       <c r="I639" s="26"/>
-      <c r="J639" s="40"/>
-      <c r="K639" s="40"/>
+      <c r="J639" s="41"/>
+      <c r="K639" s="41"/>
       <c r="L639" s="26"/>
       <c r="M639" s="26"/>
       <c r="N639" s="26"/>
@@ -31904,8 +31909,8 @@
       <c r="G640" s="26"/>
       <c r="H640" s="26"/>
       <c r="I640" s="26"/>
-      <c r="J640" s="40"/>
-      <c r="K640" s="40"/>
+      <c r="J640" s="41"/>
+      <c r="K640" s="41"/>
       <c r="L640" s="26"/>
       <c r="M640" s="26"/>
       <c r="N640" s="26"/>
@@ -31949,8 +31954,8 @@
       <c r="G641" s="26"/>
       <c r="H641" s="26"/>
       <c r="I641" s="26"/>
-      <c r="J641" s="40"/>
-      <c r="K641" s="40"/>
+      <c r="J641" s="41"/>
+      <c r="K641" s="41"/>
       <c r="L641" s="26"/>
       <c r="M641" s="26"/>
       <c r="N641" s="26"/>
@@ -31994,8 +31999,8 @@
       <c r="G642" s="26"/>
       <c r="H642" s="26"/>
       <c r="I642" s="26"/>
-      <c r="J642" s="40"/>
-      <c r="K642" s="40"/>
+      <c r="J642" s="41"/>
+      <c r="K642" s="41"/>
       <c r="L642" s="26"/>
       <c r="M642" s="26"/>
       <c r="N642" s="26"/>
@@ -32039,8 +32044,8 @@
       <c r="G643" s="26"/>
       <c r="H643" s="26"/>
       <c r="I643" s="26"/>
-      <c r="J643" s="40"/>
-      <c r="K643" s="40"/>
+      <c r="J643" s="41"/>
+      <c r="K643" s="41"/>
       <c r="L643" s="26"/>
       <c r="M643" s="26"/>
       <c r="N643" s="26"/>
@@ -32084,8 +32089,8 @@
       <c r="G644" s="26"/>
       <c r="H644" s="26"/>
       <c r="I644" s="26"/>
-      <c r="J644" s="40"/>
-      <c r="K644" s="40"/>
+      <c r="J644" s="41"/>
+      <c r="K644" s="41"/>
       <c r="L644" s="26"/>
       <c r="M644" s="26"/>
       <c r="N644" s="26"/>
@@ -32129,8 +32134,8 @@
       <c r="G645" s="26"/>
       <c r="H645" s="26"/>
       <c r="I645" s="26"/>
-      <c r="J645" s="40"/>
-      <c r="K645" s="40"/>
+      <c r="J645" s="41"/>
+      <c r="K645" s="41"/>
       <c r="L645" s="26"/>
       <c r="M645" s="26"/>
       <c r="N645" s="26"/>
@@ -32174,8 +32179,8 @@
       <c r="G646" s="26"/>
       <c r="H646" s="26"/>
       <c r="I646" s="26"/>
-      <c r="J646" s="40"/>
-      <c r="K646" s="40"/>
+      <c r="J646" s="41"/>
+      <c r="K646" s="41"/>
       <c r="L646" s="26"/>
       <c r="M646" s="26"/>
       <c r="N646" s="26"/>
@@ -32219,8 +32224,8 @@
       <c r="G647" s="26"/>
       <c r="H647" s="26"/>
       <c r="I647" s="26"/>
-      <c r="J647" s="40"/>
-      <c r="K647" s="40"/>
+      <c r="J647" s="41"/>
+      <c r="K647" s="41"/>
       <c r="L647" s="26"/>
       <c r="M647" s="26"/>
       <c r="N647" s="26"/>
@@ -32264,8 +32269,8 @@
       <c r="G648" s="26"/>
       <c r="H648" s="26"/>
       <c r="I648" s="26"/>
-      <c r="J648" s="40"/>
-      <c r="K648" s="40"/>
+      <c r="J648" s="41"/>
+      <c r="K648" s="41"/>
       <c r="L648" s="26"/>
       <c r="M648" s="26"/>
       <c r="N648" s="26"/>
@@ -32309,8 +32314,8 @@
       <c r="G649" s="26"/>
       <c r="H649" s="26"/>
       <c r="I649" s="26"/>
-      <c r="J649" s="40"/>
-      <c r="K649" s="40"/>
+      <c r="J649" s="41"/>
+      <c r="K649" s="41"/>
       <c r="L649" s="26"/>
       <c r="M649" s="26"/>
       <c r="N649" s="26"/>
@@ -32354,8 +32359,8 @@
       <c r="G650" s="26"/>
       <c r="H650" s="26"/>
       <c r="I650" s="26"/>
-      <c r="J650" s="40"/>
-      <c r="K650" s="40"/>
+      <c r="J650" s="41"/>
+      <c r="K650" s="41"/>
       <c r="L650" s="26"/>
       <c r="M650" s="26"/>
       <c r="N650" s="26"/>
@@ -32399,8 +32404,8 @@
       <c r="G651" s="26"/>
       <c r="H651" s="26"/>
       <c r="I651" s="26"/>
-      <c r="J651" s="40"/>
-      <c r="K651" s="40"/>
+      <c r="J651" s="41"/>
+      <c r="K651" s="41"/>
       <c r="L651" s="26"/>
       <c r="M651" s="26"/>
       <c r="N651" s="26"/>
@@ -32444,8 +32449,8 @@
       <c r="G652" s="26"/>
       <c r="H652" s="26"/>
       <c r="I652" s="26"/>
-      <c r="J652" s="40"/>
-      <c r="K652" s="40"/>
+      <c r="J652" s="41"/>
+      <c r="K652" s="41"/>
       <c r="L652" s="26"/>
       <c r="M652" s="26"/>
       <c r="N652" s="26"/>
@@ -32489,8 +32494,8 @@
       <c r="G653" s="26"/>
       <c r="H653" s="26"/>
       <c r="I653" s="26"/>
-      <c r="J653" s="40"/>
-      <c r="K653" s="40"/>
+      <c r="J653" s="41"/>
+      <c r="K653" s="41"/>
       <c r="L653" s="26"/>
       <c r="M653" s="26"/>
       <c r="N653" s="26"/>
@@ -32534,8 +32539,8 @@
       <c r="G654" s="26"/>
       <c r="H654" s="26"/>
       <c r="I654" s="26"/>
-      <c r="J654" s="40"/>
-      <c r="K654" s="40"/>
+      <c r="J654" s="41"/>
+      <c r="K654" s="41"/>
       <c r="L654" s="26"/>
       <c r="M654" s="26"/>
       <c r="N654" s="26"/>
@@ -32579,8 +32584,8 @@
       <c r="G655" s="26"/>
       <c r="H655" s="26"/>
       <c r="I655" s="26"/>
-      <c r="J655" s="40"/>
-      <c r="K655" s="40"/>
+      <c r="J655" s="41"/>
+      <c r="K655" s="41"/>
       <c r="L655" s="26"/>
       <c r="M655" s="26"/>
       <c r="N655" s="26"/>
@@ -32624,8 +32629,8 @@
       <c r="G656" s="26"/>
       <c r="H656" s="26"/>
       <c r="I656" s="26"/>
-      <c r="J656" s="40"/>
-      <c r="K656" s="40"/>
+      <c r="J656" s="41"/>
+      <c r="K656" s="41"/>
       <c r="L656" s="26"/>
       <c r="M656" s="26"/>
       <c r="N656" s="26"/>
@@ -32669,8 +32674,8 @@
       <c r="G657" s="26"/>
       <c r="H657" s="26"/>
       <c r="I657" s="26"/>
-      <c r="J657" s="40"/>
-      <c r="K657" s="40"/>
+      <c r="J657" s="41"/>
+      <c r="K657" s="41"/>
       <c r="L657" s="26"/>
       <c r="M657" s="26"/>
       <c r="N657" s="26"/>
@@ -32714,8 +32719,8 @@
       <c r="G658" s="26"/>
       <c r="H658" s="26"/>
       <c r="I658" s="26"/>
-      <c r="J658" s="40"/>
-      <c r="K658" s="40"/>
+      <c r="J658" s="41"/>
+      <c r="K658" s="41"/>
       <c r="L658" s="26"/>
       <c r="M658" s="26"/>
       <c r="N658" s="26"/>
@@ -32759,8 +32764,8 @@
       <c r="G659" s="26"/>
       <c r="H659" s="26"/>
       <c r="I659" s="26"/>
-      <c r="J659" s="40"/>
-      <c r="K659" s="40"/>
+      <c r="J659" s="41"/>
+      <c r="K659" s="41"/>
       <c r="L659" s="26"/>
       <c r="M659" s="26"/>
       <c r="N659" s="26"/>
@@ -32804,8 +32809,8 @@
       <c r="G660" s="26"/>
       <c r="H660" s="26"/>
       <c r="I660" s="26"/>
-      <c r="J660" s="40"/>
-      <c r="K660" s="40"/>
+      <c r="J660" s="41"/>
+      <c r="K660" s="41"/>
       <c r="L660" s="26"/>
       <c r="M660" s="26"/>
       <c r="N660" s="26"/>
@@ -32849,8 +32854,8 @@
       <c r="G661" s="26"/>
       <c r="H661" s="26"/>
       <c r="I661" s="26"/>
-      <c r="J661" s="40"/>
-      <c r="K661" s="40"/>
+      <c r="J661" s="41"/>
+      <c r="K661" s="41"/>
       <c r="L661" s="26"/>
       <c r="M661" s="26"/>
       <c r="N661" s="26"/>
@@ -32894,8 +32899,8 @@
       <c r="G662" s="26"/>
       <c r="H662" s="26"/>
       <c r="I662" s="26"/>
-      <c r="J662" s="40"/>
-      <c r="K662" s="40"/>
+      <c r="J662" s="41"/>
+      <c r="K662" s="41"/>
       <c r="L662" s="26"/>
       <c r="M662" s="26"/>
       <c r="N662" s="26"/>
@@ -32939,8 +32944,8 @@
       <c r="G663" s="26"/>
       <c r="H663" s="26"/>
       <c r="I663" s="26"/>
-      <c r="J663" s="40"/>
-      <c r="K663" s="40"/>
+      <c r="J663" s="41"/>
+      <c r="K663" s="41"/>
       <c r="L663" s="26"/>
       <c r="M663" s="26"/>
       <c r="N663" s="26"/>
@@ -32984,8 +32989,8 @@
       <c r="G664" s="26"/>
       <c r="H664" s="26"/>
       <c r="I664" s="26"/>
-      <c r="J664" s="40"/>
-      <c r="K664" s="40"/>
+      <c r="J664" s="41"/>
+      <c r="K664" s="41"/>
       <c r="L664" s="26"/>
       <c r="M664" s="26"/>
       <c r="N664" s="26"/>
@@ -33029,8 +33034,8 @@
       <c r="G665" s="26"/>
       <c r="H665" s="26"/>
       <c r="I665" s="26"/>
-      <c r="J665" s="40"/>
-      <c r="K665" s="40"/>
+      <c r="J665" s="41"/>
+      <c r="K665" s="41"/>
       <c r="L665" s="26"/>
       <c r="M665" s="26"/>
       <c r="N665" s="26"/>
@@ -33074,8 +33079,8 @@
       <c r="G666" s="26"/>
       <c r="H666" s="26"/>
       <c r="I666" s="26"/>
-      <c r="J666" s="40"/>
-      <c r="K666" s="40"/>
+      <c r="J666" s="41"/>
+      <c r="K666" s="41"/>
       <c r="L666" s="26"/>
       <c r="M666" s="26"/>
       <c r="N666" s="26"/>
@@ -33119,8 +33124,8 @@
       <c r="G667" s="26"/>
       <c r="H667" s="26"/>
       <c r="I667" s="26"/>
-      <c r="J667" s="40"/>
-      <c r="K667" s="40"/>
+      <c r="J667" s="41"/>
+      <c r="K667" s="41"/>
       <c r="L667" s="26"/>
       <c r="M667" s="26"/>
       <c r="N667" s="26"/>
@@ -33164,8 +33169,8 @@
       <c r="G668" s="26"/>
       <c r="H668" s="26"/>
       <c r="I668" s="26"/>
-      <c r="J668" s="40"/>
-      <c r="K668" s="40"/>
+      <c r="J668" s="41"/>
+      <c r="K668" s="41"/>
       <c r="L668" s="26"/>
       <c r="M668" s="26"/>
       <c r="N668" s="26"/>
@@ -33209,8 +33214,8 @@
       <c r="G669" s="26"/>
       <c r="H669" s="26"/>
       <c r="I669" s="26"/>
-      <c r="J669" s="40"/>
-      <c r="K669" s="40"/>
+      <c r="J669" s="41"/>
+      <c r="K669" s="41"/>
       <c r="L669" s="26"/>
       <c r="M669" s="26"/>
       <c r="N669" s="26"/>
@@ -33254,8 +33259,8 @@
       <c r="G670" s="26"/>
       <c r="H670" s="26"/>
       <c r="I670" s="26"/>
-      <c r="J670" s="40"/>
-      <c r="K670" s="40"/>
+      <c r="J670" s="41"/>
+      <c r="K670" s="41"/>
       <c r="L670" s="26"/>
       <c r="M670" s="26"/>
       <c r="N670" s="26"/>
@@ -33299,8 +33304,8 @@
       <c r="G671" s="26"/>
       <c r="H671" s="26"/>
       <c r="I671" s="26"/>
-      <c r="J671" s="40"/>
-      <c r="K671" s="40"/>
+      <c r="J671" s="41"/>
+      <c r="K671" s="41"/>
       <c r="L671" s="26"/>
       <c r="M671" s="26"/>
       <c r="N671" s="26"/>
@@ -33344,8 +33349,8 @@
       <c r="G672" s="26"/>
       <c r="H672" s="26"/>
       <c r="I672" s="26"/>
-      <c r="J672" s="40"/>
-      <c r="K672" s="40"/>
+      <c r="J672" s="41"/>
+      <c r="K672" s="41"/>
       <c r="L672" s="26"/>
       <c r="M672" s="26"/>
       <c r="N672" s="26"/>
@@ -33389,8 +33394,8 @@
       <c r="G673" s="26"/>
       <c r="H673" s="26"/>
       <c r="I673" s="26"/>
-      <c r="J673" s="40"/>
-      <c r="K673" s="40"/>
+      <c r="J673" s="41"/>
+      <c r="K673" s="41"/>
       <c r="L673" s="26"/>
       <c r="M673" s="26"/>
       <c r="N673" s="26"/>
@@ -33434,8 +33439,8 @@
       <c r="G674" s="26"/>
       <c r="H674" s="26"/>
       <c r="I674" s="26"/>
-      <c r="J674" s="40"/>
-      <c r="K674" s="40"/>
+      <c r="J674" s="41"/>
+      <c r="K674" s="41"/>
       <c r="L674" s="26"/>
       <c r="M674" s="26"/>
       <c r="N674" s="26"/>
@@ -33479,8 +33484,8 @@
       <c r="G675" s="26"/>
       <c r="H675" s="26"/>
       <c r="I675" s="26"/>
-      <c r="J675" s="40"/>
-      <c r="K675" s="40"/>
+      <c r="J675" s="41"/>
+      <c r="K675" s="41"/>
       <c r="L675" s="26"/>
       <c r="M675" s="26"/>
       <c r="N675" s="26"/>
@@ -33524,8 +33529,8 @@
       <c r="G676" s="26"/>
       <c r="H676" s="26"/>
       <c r="I676" s="26"/>
-      <c r="J676" s="40"/>
-      <c r="K676" s="40"/>
+      <c r="J676" s="41"/>
+      <c r="K676" s="41"/>
       <c r="L676" s="26"/>
       <c r="M676" s="26"/>
       <c r="N676" s="26"/>
@@ -33569,8 +33574,8 @@
       <c r="G677" s="26"/>
       <c r="H677" s="26"/>
       <c r="I677" s="26"/>
-      <c r="J677" s="40"/>
-      <c r="K677" s="40"/>
+      <c r="J677" s="41"/>
+      <c r="K677" s="41"/>
       <c r="L677" s="26"/>
       <c r="M677" s="26"/>
       <c r="N677" s="26"/>
@@ -33614,8 +33619,8 @@
       <c r="G678" s="26"/>
       <c r="H678" s="26"/>
       <c r="I678" s="26"/>
-      <c r="J678" s="40"/>
-      <c r="K678" s="40"/>
+      <c r="J678" s="41"/>
+      <c r="K678" s="41"/>
       <c r="L678" s="26"/>
       <c r="M678" s="26"/>
       <c r="N678" s="26"/>
@@ -33659,8 +33664,8 @@
       <c r="G679" s="26"/>
       <c r="H679" s="26"/>
       <c r="I679" s="26"/>
-      <c r="J679" s="40"/>
-      <c r="K679" s="40"/>
+      <c r="J679" s="41"/>
+      <c r="K679" s="41"/>
       <c r="L679" s="26"/>
       <c r="M679" s="26"/>
       <c r="N679" s="26"/>
@@ -33704,8 +33709,8 @@
       <c r="G680" s="26"/>
       <c r="H680" s="26"/>
       <c r="I680" s="26"/>
-      <c r="J680" s="40"/>
-      <c r="K680" s="40"/>
+      <c r="J680" s="41"/>
+      <c r="K680" s="41"/>
       <c r="L680" s="26"/>
       <c r="M680" s="26"/>
       <c r="N680" s="26"/>
@@ -33749,8 +33754,8 @@
       <c r="G681" s="26"/>
       <c r="H681" s="26"/>
       <c r="I681" s="26"/>
-      <c r="J681" s="40"/>
-      <c r="K681" s="40"/>
+      <c r="J681" s="41"/>
+      <c r="K681" s="41"/>
       <c r="L681" s="26"/>
       <c r="M681" s="26"/>
       <c r="N681" s="26"/>
@@ -33794,8 +33799,8 @@
       <c r="G682" s="26"/>
       <c r="H682" s="26"/>
       <c r="I682" s="26"/>
-      <c r="J682" s="40"/>
-      <c r="K682" s="40"/>
+      <c r="J682" s="41"/>
+      <c r="K682" s="41"/>
       <c r="L682" s="26"/>
       <c r="M682" s="26"/>
       <c r="N682" s="26"/>
@@ -33839,8 +33844,8 @@
       <c r="G683" s="26"/>
       <c r="H683" s="26"/>
       <c r="I683" s="26"/>
-      <c r="J683" s="40"/>
-      <c r="K683" s="40"/>
+      <c r="J683" s="41"/>
+      <c r="K683" s="41"/>
       <c r="L683" s="26"/>
       <c r="M683" s="26"/>
       <c r="N683" s="26"/>
@@ -33884,8 +33889,8 @@
       <c r="G684" s="26"/>
       <c r="H684" s="26"/>
       <c r="I684" s="26"/>
-      <c r="J684" s="40"/>
-      <c r="K684" s="40"/>
+      <c r="J684" s="41"/>
+      <c r="K684" s="41"/>
       <c r="L684" s="26"/>
       <c r="M684" s="26"/>
       <c r="N684" s="26"/>
@@ -33929,8 +33934,8 @@
       <c r="G685" s="26"/>
       <c r="H685" s="26"/>
       <c r="I685" s="26"/>
-      <c r="J685" s="40"/>
-      <c r="K685" s="40"/>
+      <c r="J685" s="41"/>
+      <c r="K685" s="41"/>
       <c r="L685" s="26"/>
       <c r="M685" s="26"/>
       <c r="N685" s="26"/>
@@ -33974,8 +33979,8 @@
       <c r="G686" s="26"/>
       <c r="H686" s="26"/>
       <c r="I686" s="26"/>
-      <c r="J686" s="40"/>
-      <c r="K686" s="40"/>
+      <c r="J686" s="41"/>
+      <c r="K686" s="41"/>
       <c r="L686" s="26"/>
       <c r="M686" s="26"/>
       <c r="N686" s="26"/>
@@ -34019,8 +34024,8 @@
       <c r="G687" s="26"/>
       <c r="H687" s="26"/>
       <c r="I687" s="26"/>
-      <c r="J687" s="40"/>
-      <c r="K687" s="40"/>
+      <c r="J687" s="41"/>
+      <c r="K687" s="41"/>
       <c r="L687" s="26"/>
       <c r="M687" s="26"/>
       <c r="N687" s="26"/>
@@ -34064,8 +34069,8 @@
       <c r="G688" s="26"/>
       <c r="H688" s="26"/>
       <c r="I688" s="26"/>
-      <c r="J688" s="40"/>
-      <c r="K688" s="40"/>
+      <c r="J688" s="41"/>
+      <c r="K688" s="41"/>
       <c r="L688" s="26"/>
       <c r="M688" s="26"/>
       <c r="N688" s="26"/>
@@ -34109,8 +34114,8 @@
       <c r="G689" s="26"/>
       <c r="H689" s="26"/>
       <c r="I689" s="26"/>
-      <c r="J689" s="40"/>
-      <c r="K689" s="40"/>
+      <c r="J689" s="41"/>
+      <c r="K689" s="41"/>
       <c r="L689" s="26"/>
       <c r="M689" s="26"/>
       <c r="N689" s="26"/>
@@ -34154,8 +34159,8 @@
       <c r="G690" s="26"/>
       <c r="H690" s="26"/>
       <c r="I690" s="26"/>
-      <c r="J690" s="40"/>
-      <c r="K690" s="40"/>
+      <c r="J690" s="41"/>
+      <c r="K690" s="41"/>
       <c r="L690" s="26"/>
       <c r="M690" s="26"/>
       <c r="N690" s="26"/>
@@ -34199,8 +34204,8 @@
       <c r="G691" s="26"/>
       <c r="H691" s="26"/>
       <c r="I691" s="26"/>
-      <c r="J691" s="40"/>
-      <c r="K691" s="40"/>
+      <c r="J691" s="41"/>
+      <c r="K691" s="41"/>
       <c r="L691" s="26"/>
       <c r="M691" s="26"/>
       <c r="N691" s="26"/>
@@ -34244,8 +34249,8 @@
       <c r="G692" s="26"/>
       <c r="H692" s="26"/>
       <c r="I692" s="26"/>
-      <c r="J692" s="40"/>
-      <c r="K692" s="40"/>
+      <c r="J692" s="41"/>
+      <c r="K692" s="41"/>
       <c r="L692" s="26"/>
       <c r="M692" s="26"/>
       <c r="N692" s="26"/>
@@ -34289,8 +34294,8 @@
       <c r="G693" s="26"/>
       <c r="H693" s="26"/>
       <c r="I693" s="26"/>
-      <c r="J693" s="40"/>
-      <c r="K693" s="40"/>
+      <c r="J693" s="41"/>
+      <c r="K693" s="41"/>
       <c r="L693" s="26"/>
       <c r="M693" s="26"/>
       <c r="N693" s="26"/>
@@ -34334,8 +34339,8 @@
       <c r="G694" s="26"/>
       <c r="H694" s="26"/>
       <c r="I694" s="26"/>
-      <c r="J694" s="40"/>
-      <c r="K694" s="40"/>
+      <c r="J694" s="41"/>
+      <c r="K694" s="41"/>
       <c r="L694" s="26"/>
       <c r="M694" s="26"/>
       <c r="N694" s="26"/>
@@ -34379,8 +34384,8 @@
       <c r="G695" s="26"/>
       <c r="H695" s="26"/>
       <c r="I695" s="26"/>
-      <c r="J695" s="40"/>
-      <c r="K695" s="40"/>
+      <c r="J695" s="41"/>
+      <c r="K695" s="41"/>
       <c r="L695" s="26"/>
       <c r="M695" s="26"/>
       <c r="N695" s="26"/>
@@ -34424,8 +34429,8 @@
       <c r="G696" s="26"/>
       <c r="H696" s="26"/>
       <c r="I696" s="26"/>
-      <c r="J696" s="40"/>
-      <c r="K696" s="40"/>
+      <c r="J696" s="41"/>
+      <c r="K696" s="41"/>
       <c r="L696" s="26"/>
       <c r="M696" s="26"/>
       <c r="N696" s="26"/>
@@ -34469,8 +34474,8 @@
       <c r="G697" s="26"/>
       <c r="H697" s="26"/>
       <c r="I697" s="26"/>
-      <c r="J697" s="40"/>
-      <c r="K697" s="40"/>
+      <c r="J697" s="41"/>
+      <c r="K697" s="41"/>
       <c r="L697" s="26"/>
       <c r="M697" s="26"/>
       <c r="N697" s="26"/>
@@ -34514,8 +34519,8 @@
       <c r="G698" s="26"/>
       <c r="H698" s="26"/>
       <c r="I698" s="26"/>
-      <c r="J698" s="40"/>
-      <c r="K698" s="40"/>
+      <c r="J698" s="41"/>
+      <c r="K698" s="41"/>
       <c r="L698" s="26"/>
       <c r="M698" s="26"/>
       <c r="N698" s="26"/>
@@ -34559,8 +34564,8 @@
       <c r="G699" s="26"/>
       <c r="H699" s="26"/>
       <c r="I699" s="26"/>
-      <c r="J699" s="40"/>
-      <c r="K699" s="40"/>
+      <c r="J699" s="41"/>
+      <c r="K699" s="41"/>
       <c r="L699" s="26"/>
       <c r="M699" s="26"/>
       <c r="N699" s="26"/>
@@ -34604,8 +34609,8 @@
       <c r="G700" s="26"/>
       <c r="H700" s="26"/>
       <c r="I700" s="26"/>
-      <c r="J700" s="40"/>
-      <c r="K700" s="40"/>
+      <c r="J700" s="41"/>
+      <c r="K700" s="41"/>
       <c r="L700" s="26"/>
       <c r="M700" s="26"/>
       <c r="N700" s="26"/>
@@ -34649,8 +34654,8 @@
       <c r="G701" s="26"/>
       <c r="H701" s="26"/>
       <c r="I701" s="26"/>
-      <c r="J701" s="40"/>
-      <c r="K701" s="40"/>
+      <c r="J701" s="41"/>
+      <c r="K701" s="41"/>
       <c r="L701" s="26"/>
       <c r="M701" s="26"/>
       <c r="N701" s="26"/>
@@ -34694,8 +34699,8 @@
       <c r="G702" s="26"/>
       <c r="H702" s="26"/>
       <c r="I702" s="26"/>
-      <c r="J702" s="40"/>
-      <c r="K702" s="40"/>
+      <c r="J702" s="41"/>
+      <c r="K702" s="41"/>
       <c r="L702" s="26"/>
       <c r="M702" s="26"/>
       <c r="N702" s="26"/>
@@ -34739,8 +34744,8 @@
       <c r="G703" s="26"/>
       <c r="H703" s="26"/>
       <c r="I703" s="26"/>
-      <c r="J703" s="40"/>
-      <c r="K703" s="40"/>
+      <c r="J703" s="41"/>
+      <c r="K703" s="41"/>
       <c r="L703" s="26"/>
       <c r="M703" s="26"/>
       <c r="N703" s="26"/>
@@ -34784,8 +34789,8 @@
       <c r="G704" s="26"/>
       <c r="H704" s="26"/>
       <c r="I704" s="26"/>
-      <c r="J704" s="40"/>
-      <c r="K704" s="40"/>
+      <c r="J704" s="41"/>
+      <c r="K704" s="41"/>
       <c r="L704" s="26"/>
       <c r="M704" s="26"/>
       <c r="N704" s="26"/>
@@ -34829,8 +34834,8 @@
       <c r="G705" s="26"/>
       <c r="H705" s="26"/>
       <c r="I705" s="26"/>
-      <c r="J705" s="40"/>
-      <c r="K705" s="40"/>
+      <c r="J705" s="41"/>
+      <c r="K705" s="41"/>
       <c r="L705" s="26"/>
       <c r="M705" s="26"/>
       <c r="N705" s="26"/>
@@ -34874,8 +34879,8 @@
       <c r="G706" s="26"/>
       <c r="H706" s="26"/>
       <c r="I706" s="26"/>
-      <c r="J706" s="40"/>
-      <c r="K706" s="40"/>
+      <c r="J706" s="41"/>
+      <c r="K706" s="41"/>
       <c r="L706" s="26"/>
       <c r="M706" s="26"/>
       <c r="N706" s="26"/>
@@ -34919,8 +34924,8 @@
       <c r="G707" s="26"/>
       <c r="H707" s="26"/>
       <c r="I707" s="26"/>
-      <c r="J707" s="40"/>
-      <c r="K707" s="40"/>
+      <c r="J707" s="41"/>
+      <c r="K707" s="41"/>
       <c r="L707" s="26"/>
       <c r="M707" s="26"/>
       <c r="N707" s="26"/>
@@ -34964,8 +34969,8 @@
       <c r="G708" s="26"/>
       <c r="H708" s="26"/>
       <c r="I708" s="26"/>
-      <c r="J708" s="40"/>
-      <c r="K708" s="40"/>
+      <c r="J708" s="41"/>
+      <c r="K708" s="41"/>
       <c r="L708" s="26"/>
       <c r="M708" s="26"/>
       <c r="N708" s="26"/>
@@ -35009,8 +35014,8 @@
       <c r="G709" s="26"/>
       <c r="H709" s="26"/>
       <c r="I709" s="26"/>
-      <c r="J709" s="40"/>
-      <c r="K709" s="40"/>
+      <c r="J709" s="41"/>
+      <c r="K709" s="41"/>
       <c r="L709" s="26"/>
       <c r="M709" s="26"/>
       <c r="N709" s="26"/>
@@ -35054,8 +35059,8 @@
       <c r="G710" s="26"/>
       <c r="H710" s="26"/>
       <c r="I710" s="26"/>
-      <c r="J710" s="40"/>
-      <c r="K710" s="40"/>
+      <c r="J710" s="41"/>
+      <c r="K710" s="41"/>
       <c r="L710" s="26"/>
       <c r="M710" s="26"/>
       <c r="N710" s="26"/>
@@ -35099,8 +35104,8 @@
       <c r="G711" s="26"/>
       <c r="H711" s="26"/>
       <c r="I711" s="26"/>
-      <c r="J711" s="40"/>
-      <c r="K711" s="40"/>
+      <c r="J711" s="41"/>
+      <c r="K711" s="41"/>
       <c r="L711" s="26"/>
       <c r="M711" s="26"/>
       <c r="N711" s="26"/>
@@ -35144,8 +35149,8 @@
       <c r="G712" s="26"/>
       <c r="H712" s="26"/>
       <c r="I712" s="26"/>
-      <c r="J712" s="40"/>
-      <c r="K712" s="40"/>
+      <c r="J712" s="41"/>
+      <c r="K712" s="41"/>
       <c r="L712" s="26"/>
       <c r="M712" s="26"/>
       <c r="N712" s="26"/>
@@ -35189,8 +35194,8 @@
       <c r="G713" s="26"/>
       <c r="H713" s="26"/>
       <c r="I713" s="26"/>
-      <c r="J713" s="40"/>
-      <c r="K713" s="40"/>
+      <c r="J713" s="41"/>
+      <c r="K713" s="41"/>
       <c r="L713" s="26"/>
       <c r="M713" s="26"/>
       <c r="N713" s="26"/>
@@ -35234,8 +35239,8 @@
       <c r="G714" s="26"/>
       <c r="H714" s="26"/>
       <c r="I714" s="26"/>
-      <c r="J714" s="40"/>
-      <c r="K714" s="40"/>
+      <c r="J714" s="41"/>
+      <c r="K714" s="41"/>
       <c r="L714" s="26"/>
       <c r="M714" s="26"/>
       <c r="N714" s="26"/>
@@ -35279,8 +35284,8 @@
       <c r="G715" s="26"/>
       <c r="H715" s="26"/>
       <c r="I715" s="26"/>
-      <c r="J715" s="40"/>
-      <c r="K715" s="40"/>
+      <c r="J715" s="41"/>
+      <c r="K715" s="41"/>
       <c r="L715" s="26"/>
       <c r="M715" s="26"/>
       <c r="N715" s="26"/>
@@ -35324,8 +35329,8 @@
       <c r="G716" s="26"/>
       <c r="H716" s="26"/>
       <c r="I716" s="26"/>
-      <c r="J716" s="40"/>
-      <c r="K716" s="40"/>
+      <c r="J716" s="41"/>
+      <c r="K716" s="41"/>
       <c r="L716" s="26"/>
       <c r="M716" s="26"/>
       <c r="N716" s="26"/>
@@ -35369,8 +35374,8 @@
       <c r="G717" s="26"/>
       <c r="H717" s="26"/>
       <c r="I717" s="26"/>
-      <c r="J717" s="40"/>
-      <c r="K717" s="40"/>
+      <c r="J717" s="41"/>
+      <c r="K717" s="41"/>
       <c r="L717" s="26"/>
       <c r="M717" s="26"/>
       <c r="N717" s="26"/>
@@ -35414,8 +35419,8 @@
       <c r="G718" s="26"/>
       <c r="H718" s="26"/>
       <c r="I718" s="26"/>
-      <c r="J718" s="40"/>
-      <c r="K718" s="40"/>
+      <c r="J718" s="41"/>
+      <c r="K718" s="41"/>
       <c r="L718" s="26"/>
       <c r="M718" s="26"/>
       <c r="N718" s="26"/>
@@ -35459,8 +35464,8 @@
       <c r="G719" s="26"/>
       <c r="H719" s="26"/>
       <c r="I719" s="26"/>
-      <c r="J719" s="40"/>
-      <c r="K719" s="40"/>
+      <c r="J719" s="41"/>
+      <c r="K719" s="41"/>
       <c r="L719" s="26"/>
       <c r="M719" s="26"/>
       <c r="N719" s="26"/>
@@ -35504,8 +35509,8 @@
       <c r="G720" s="26"/>
       <c r="H720" s="26"/>
       <c r="I720" s="26"/>
-      <c r="J720" s="40"/>
-      <c r="K720" s="40"/>
+      <c r="J720" s="41"/>
+      <c r="K720" s="41"/>
       <c r="L720" s="26"/>
       <c r="M720" s="26"/>
       <c r="N720" s="26"/>
@@ -35549,8 +35554,8 @@
       <c r="G721" s="26"/>
       <c r="H721" s="26"/>
       <c r="I721" s="26"/>
-      <c r="J721" s="40"/>
-      <c r="K721" s="40"/>
+      <c r="J721" s="41"/>
+      <c r="K721" s="41"/>
       <c r="L721" s="26"/>
       <c r="M721" s="26"/>
       <c r="N721" s="26"/>
@@ -35594,8 +35599,8 @@
       <c r="G722" s="26"/>
       <c r="H722" s="26"/>
       <c r="I722" s="26"/>
-      <c r="J722" s="40"/>
-      <c r="K722" s="40"/>
+      <c r="J722" s="41"/>
+      <c r="K722" s="41"/>
       <c r="L722" s="26"/>
       <c r="M722" s="26"/>
       <c r="N722" s="26"/>
@@ -35639,8 +35644,8 @@
       <c r="G723" s="26"/>
       <c r="H723" s="26"/>
       <c r="I723" s="26"/>
-      <c r="J723" s="40"/>
-      <c r="K723" s="40"/>
+      <c r="J723" s="41"/>
+      <c r="K723" s="41"/>
       <c r="L723" s="26"/>
       <c r="M723" s="26"/>
       <c r="N723" s="26"/>
@@ -35684,8 +35689,8 @@
       <c r="G724" s="26"/>
       <c r="H724" s="26"/>
       <c r="I724" s="26"/>
-      <c r="J724" s="40"/>
-      <c r="K724" s="40"/>
+      <c r="J724" s="41"/>
+      <c r="K724" s="41"/>
       <c r="L724" s="26"/>
       <c r="M724" s="26"/>
       <c r="N724" s="26"/>
@@ -35729,8 +35734,8 @@
       <c r="G725" s="26"/>
       <c r="H725" s="26"/>
       <c r="I725" s="26"/>
-      <c r="J725" s="40"/>
-      <c r="K725" s="40"/>
+      <c r="J725" s="41"/>
+      <c r="K725" s="41"/>
       <c r="L725" s="26"/>
       <c r="M725" s="26"/>
       <c r="N725" s="26"/>
@@ -35774,8 +35779,8 @@
       <c r="G726" s="26"/>
       <c r="H726" s="26"/>
       <c r="I726" s="26"/>
-      <c r="J726" s="40"/>
-      <c r="K726" s="40"/>
+      <c r="J726" s="41"/>
+      <c r="K726" s="41"/>
       <c r="L726" s="26"/>
       <c r="M726" s="26"/>
       <c r="N726" s="26"/>
@@ -35819,8 +35824,8 @@
       <c r="G727" s="26"/>
       <c r="H727" s="26"/>
       <c r="I727" s="26"/>
-      <c r="J727" s="40"/>
-      <c r="K727" s="40"/>
+      <c r="J727" s="41"/>
+      <c r="K727" s="41"/>
       <c r="L727" s="26"/>
       <c r="M727" s="26"/>
       <c r="N727" s="26"/>
@@ -35864,8 +35869,8 @@
       <c r="G728" s="26"/>
       <c r="H728" s="26"/>
       <c r="I728" s="26"/>
-      <c r="J728" s="40"/>
-      <c r="K728" s="40"/>
+      <c r="J728" s="41"/>
+      <c r="K728" s="41"/>
       <c r="L728" s="26"/>
       <c r="M728" s="26"/>
       <c r="N728" s="26"/>
@@ -35909,8 +35914,8 @@
       <c r="G729" s="26"/>
       <c r="H729" s="26"/>
       <c r="I729" s="26"/>
-      <c r="J729" s="40"/>
-      <c r="K729" s="40"/>
+      <c r="J729" s="41"/>
+      <c r="K729" s="41"/>
       <c r="L729" s="26"/>
       <c r="M729" s="26"/>
       <c r="N729" s="26"/>
@@ -35954,8 +35959,8 @@
       <c r="G730" s="26"/>
       <c r="H730" s="26"/>
       <c r="I730" s="26"/>
-      <c r="J730" s="40"/>
-      <c r="K730" s="40"/>
+      <c r="J730" s="41"/>
+      <c r="K730" s="41"/>
       <c r="L730" s="26"/>
       <c r="M730" s="26"/>
       <c r="N730" s="26"/>
@@ -35999,8 +36004,8 @@
       <c r="G731" s="26"/>
       <c r="H731" s="26"/>
       <c r="I731" s="26"/>
-      <c r="J731" s="40"/>
-      <c r="K731" s="40"/>
+      <c r="J731" s="41"/>
+      <c r="K731" s="41"/>
       <c r="L731" s="26"/>
       <c r="M731" s="26"/>
       <c r="N731" s="26"/>
@@ -36044,8 +36049,8 @@
       <c r="G732" s="26"/>
       <c r="H732" s="26"/>
       <c r="I732" s="26"/>
-      <c r="J732" s="40"/>
-      <c r="K732" s="40"/>
+      <c r="J732" s="41"/>
+      <c r="K732" s="41"/>
       <c r="L732" s="26"/>
       <c r="M732" s="26"/>
       <c r="N732" s="26"/>
@@ -36089,8 +36094,8 @@
       <c r="G733" s="26"/>
       <c r="H733" s="26"/>
       <c r="I733" s="26"/>
-      <c r="J733" s="40"/>
-      <c r="K733" s="40"/>
+      <c r="J733" s="41"/>
+      <c r="K733" s="41"/>
       <c r="L733" s="26"/>
       <c r="M733" s="26"/>
       <c r="N733" s="26"/>
@@ -36134,8 +36139,8 @@
       <c r="G734" s="26"/>
       <c r="H734" s="26"/>
       <c r="I734" s="26"/>
-      <c r="J734" s="40"/>
-      <c r="K734" s="40"/>
+      <c r="J734" s="41"/>
+      <c r="K734" s="41"/>
       <c r="L734" s="26"/>
       <c r="M734" s="26"/>
       <c r="N734" s="26"/>
@@ -36179,8 +36184,8 @@
       <c r="G735" s="26"/>
       <c r="H735" s="26"/>
       <c r="I735" s="26"/>
-      <c r="J735" s="40"/>
-      <c r="K735" s="40"/>
+      <c r="J735" s="41"/>
+      <c r="K735" s="41"/>
       <c r="L735" s="26"/>
       <c r="M735" s="26"/>
       <c r="N735" s="26"/>
@@ -36224,8 +36229,8 @@
       <c r="G736" s="26"/>
       <c r="H736" s="26"/>
       <c r="I736" s="26"/>
-      <c r="J736" s="40"/>
-      <c r="K736" s="40"/>
+      <c r="J736" s="41"/>
+      <c r="K736" s="41"/>
       <c r="L736" s="26"/>
       <c r="M736" s="26"/>
       <c r="N736" s="26"/>
@@ -36269,8 +36274,8 @@
       <c r="G737" s="26"/>
       <c r="H737" s="26"/>
       <c r="I737" s="26"/>
-      <c r="J737" s="40"/>
-      <c r="K737" s="40"/>
+      <c r="J737" s="41"/>
+      <c r="K737" s="41"/>
       <c r="L737" s="26"/>
       <c r="M737" s="26"/>
       <c r="N737" s="26"/>
@@ -36314,8 +36319,8 @@
       <c r="G738" s="26"/>
       <c r="H738" s="26"/>
       <c r="I738" s="26"/>
-      <c r="J738" s="40"/>
-      <c r="K738" s="40"/>
+      <c r="J738" s="41"/>
+      <c r="K738" s="41"/>
       <c r="L738" s="26"/>
       <c r="M738" s="26"/>
       <c r="N738" s="26"/>
@@ -36359,8 +36364,8 @@
       <c r="G739" s="26"/>
       <c r="H739" s="26"/>
       <c r="I739" s="26"/>
-      <c r="J739" s="40"/>
-      <c r="K739" s="40"/>
+      <c r="J739" s="41"/>
+      <c r="K739" s="41"/>
       <c r="L739" s="26"/>
       <c r="M739" s="26"/>
       <c r="N739" s="26"/>
@@ -36404,8 +36409,8 @@
       <c r="G740" s="26"/>
       <c r="H740" s="26"/>
       <c r="I740" s="26"/>
-      <c r="J740" s="40"/>
-      <c r="K740" s="40"/>
+      <c r="J740" s="41"/>
+      <c r="K740" s="41"/>
       <c r="L740" s="26"/>
       <c r="M740" s="26"/>
       <c r="N740" s="26"/>
@@ -36449,8 +36454,8 @@
       <c r="G741" s="26"/>
       <c r="H741" s="26"/>
       <c r="I741" s="26"/>
-      <c r="J741" s="40"/>
-      <c r="K741" s="40"/>
+      <c r="J741" s="41"/>
+      <c r="K741" s="41"/>
       <c r="L741" s="26"/>
       <c r="M741" s="26"/>
       <c r="N741" s="26"/>
@@ -36494,8 +36499,8 @@
       <c r="G742" s="26"/>
       <c r="H742" s="26"/>
       <c r="I742" s="26"/>
-      <c r="J742" s="40"/>
-      <c r="K742" s="40"/>
+      <c r="J742" s="41"/>
+      <c r="K742" s="41"/>
       <c r="L742" s="26"/>
       <c r="M742" s="26"/>
       <c r="N742" s="26"/>
@@ -36539,8 +36544,8 @@
       <c r="G743" s="26"/>
       <c r="H743" s="26"/>
       <c r="I743" s="26"/>
-      <c r="J743" s="40"/>
-      <c r="K743" s="40"/>
+      <c r="J743" s="41"/>
+      <c r="K743" s="41"/>
       <c r="L743" s="26"/>
       <c r="M743" s="26"/>
       <c r="N743" s="26"/>
@@ -36584,8 +36589,8 @@
       <c r="G744" s="26"/>
       <c r="H744" s="26"/>
       <c r="I744" s="26"/>
-      <c r="J744" s="40"/>
-      <c r="K744" s="40"/>
+      <c r="J744" s="41"/>
+      <c r="K744" s="41"/>
       <c r="L744" s="26"/>
       <c r="M744" s="26"/>
       <c r="N744" s="26"/>
@@ -36629,8 +36634,8 @@
       <c r="G745" s="26"/>
       <c r="H745" s="26"/>
       <c r="I745" s="26"/>
-      <c r="J745" s="40"/>
-      <c r="K745" s="40"/>
+      <c r="J745" s="41"/>
+      <c r="K745" s="41"/>
       <c r="L745" s="26"/>
       <c r="M745" s="26"/>
       <c r="N745" s="26"/>
@@ -36674,8 +36679,8 @@
       <c r="G746" s="26"/>
       <c r="H746" s="26"/>
       <c r="I746" s="26"/>
-      <c r="J746" s="40"/>
-      <c r="K746" s="40"/>
+      <c r="J746" s="41"/>
+      <c r="K746" s="41"/>
       <c r="L746" s="26"/>
       <c r="M746" s="26"/>
       <c r="N746" s="26"/>
@@ -36719,8 +36724,8 @@
       <c r="G747" s="26"/>
       <c r="H747" s="26"/>
       <c r="I747" s="26"/>
-      <c r="J747" s="40"/>
-      <c r="K747" s="40"/>
+      <c r="J747" s="41"/>
+      <c r="K747" s="41"/>
       <c r="L747" s="26"/>
       <c r="M747" s="26"/>
       <c r="N747" s="26"/>
@@ -36764,8 +36769,8 @@
       <c r="G748" s="26"/>
       <c r="H748" s="26"/>
       <c r="I748" s="26"/>
-      <c r="J748" s="40"/>
-      <c r="K748" s="40"/>
+      <c r="J748" s="41"/>
+      <c r="K748" s="41"/>
       <c r="L748" s="26"/>
       <c r="M748" s="26"/>
       <c r="N748" s="26"/>
@@ -36809,8 +36814,8 @@
       <c r="G749" s="26"/>
       <c r="H749" s="26"/>
       <c r="I749" s="26"/>
-      <c r="J749" s="40"/>
-      <c r="K749" s="40"/>
+      <c r="J749" s="41"/>
+      <c r="K749" s="41"/>
       <c r="L749" s="26"/>
       <c r="M749" s="26"/>
       <c r="N749" s="26"/>
@@ -36854,8 +36859,8 @@
       <c r="G750" s="26"/>
       <c r="H750" s="26"/>
       <c r="I750" s="26"/>
-      <c r="J750" s="40"/>
-      <c r="K750" s="40"/>
+      <c r="J750" s="41"/>
+      <c r="K750" s="41"/>
       <c r="L750" s="26"/>
       <c r="M750" s="26"/>
       <c r="N750" s="26"/>
@@ -36899,8 +36904,8 @@
       <c r="G751" s="26"/>
       <c r="H751" s="26"/>
       <c r="I751" s="26"/>
-      <c r="J751" s="40"/>
-      <c r="K751" s="40"/>
+      <c r="J751" s="41"/>
+      <c r="K751" s="41"/>
       <c r="L751" s="26"/>
       <c r="M751" s="26"/>
       <c r="N751" s="26"/>
@@ -36944,8 +36949,8 @@
       <c r="G752" s="26"/>
       <c r="H752" s="26"/>
       <c r="I752" s="26"/>
-      <c r="J752" s="40"/>
-      <c r="K752" s="40"/>
+      <c r="J752" s="41"/>
+      <c r="K752" s="41"/>
       <c r="L752" s="26"/>
       <c r="M752" s="26"/>
       <c r="N752" s="26"/>
@@ -36989,8 +36994,8 @@
       <c r="G753" s="26"/>
       <c r="H753" s="26"/>
       <c r="I753" s="26"/>
-      <c r="J753" s="40"/>
-      <c r="K753" s="40"/>
+      <c r="J753" s="41"/>
+      <c r="K753" s="41"/>
       <c r="L753" s="26"/>
       <c r="M753" s="26"/>
       <c r="N753" s="26"/>
@@ -37034,8 +37039,8 @@
       <c r="G754" s="26"/>
       <c r="H754" s="26"/>
       <c r="I754" s="26"/>
-      <c r="J754" s="40"/>
-      <c r="K754" s="40"/>
+      <c r="J754" s="41"/>
+      <c r="K754" s="41"/>
       <c r="L754" s="26"/>
       <c r="M754" s="26"/>
       <c r="N754" s="26"/>
@@ -37079,8 +37084,8 @@
       <c r="G755" s="26"/>
       <c r="H755" s="26"/>
       <c r="I755" s="26"/>
-      <c r="J755" s="40"/>
-      <c r="K755" s="40"/>
+      <c r="J755" s="41"/>
+      <c r="K755" s="41"/>
       <c r="L755" s="26"/>
       <c r="M755" s="26"/>
       <c r="N755" s="26"/>
@@ -37124,8 +37129,8 @@
       <c r="G756" s="26"/>
       <c r="H756" s="26"/>
       <c r="I756" s="26"/>
-      <c r="J756" s="40"/>
-      <c r="K756" s="40"/>
+      <c r="J756" s="41"/>
+      <c r="K756" s="41"/>
       <c r="L756" s="26"/>
       <c r="M756" s="26"/>
       <c r="N756" s="26"/>
@@ -37169,8 +37174,8 @@
       <c r="G757" s="26"/>
       <c r="H757" s="26"/>
       <c r="I757" s="26"/>
-      <c r="J757" s="40"/>
-      <c r="K757" s="40"/>
+      <c r="J757" s="41"/>
+      <c r="K757" s="41"/>
       <c r="L757" s="26"/>
       <c r="M757" s="26"/>
       <c r="N757" s="26"/>
@@ -37214,8 +37219,8 @@
       <c r="G758" s="26"/>
       <c r="H758" s="26"/>
       <c r="I758" s="26"/>
-      <c r="J758" s="40"/>
-      <c r="K758" s="40"/>
+      <c r="J758" s="41"/>
+      <c r="K758" s="41"/>
       <c r="L758" s="26"/>
       <c r="M758" s="26"/>
       <c r="N758" s="26"/>
@@ -37259,8 +37264,8 @@
       <c r="G759" s="26"/>
       <c r="H759" s="26"/>
       <c r="I759" s="26"/>
-      <c r="J759" s="40"/>
-      <c r="K759" s="40"/>
+      <c r="J759" s="41"/>
+      <c r="K759" s="41"/>
       <c r="L759" s="26"/>
       <c r="M759" s="26"/>
       <c r="N759" s="26"/>
@@ -37304,8 +37309,8 @@
       <c r="G760" s="26"/>
       <c r="H760" s="26"/>
       <c r="I760" s="26"/>
-      <c r="J760" s="40"/>
-      <c r="K760" s="40"/>
+      <c r="J760" s="41"/>
+      <c r="K760" s="41"/>
       <c r="L760" s="26"/>
       <c r="M760" s="26"/>
       <c r="N760" s="26"/>
@@ -37349,8 +37354,8 @@
       <c r="G761" s="26"/>
       <c r="H761" s="26"/>
       <c r="I761" s="26"/>
-      <c r="J761" s="40"/>
-      <c r="K761" s="40"/>
+      <c r="J761" s="41"/>
+      <c r="K761" s="41"/>
       <c r="L761" s="26"/>
       <c r="M761" s="26"/>
       <c r="N761" s="26"/>
@@ -37394,8 +37399,8 @@
       <c r="G762" s="26"/>
       <c r="H762" s="26"/>
       <c r="I762" s="26"/>
-      <c r="J762" s="40"/>
-      <c r="K762" s="40"/>
+      <c r="J762" s="41"/>
+      <c r="K762" s="41"/>
       <c r="L762" s="26"/>
       <c r="M762" s="26"/>
       <c r="N762" s="26"/>
@@ -37439,8 +37444,8 @@
       <c r="G763" s="26"/>
       <c r="H763" s="26"/>
       <c r="I763" s="26"/>
-      <c r="J763" s="40"/>
-      <c r="K763" s="40"/>
+      <c r="J763" s="41"/>
+      <c r="K763" s="41"/>
       <c r="L763" s="26"/>
       <c r="M763" s="26"/>
       <c r="N763" s="26"/>
@@ -37484,8 +37489,8 @@
       <c r="G764" s="26"/>
       <c r="H764" s="26"/>
       <c r="I764" s="26"/>
-      <c r="J764" s="40"/>
-      <c r="K764" s="40"/>
+      <c r="J764" s="41"/>
+      <c r="K764" s="41"/>
       <c r="L764" s="26"/>
       <c r="M764" s="26"/>
       <c r="N764" s="26"/>
@@ -37529,8 +37534,8 @@
       <c r="G765" s="26"/>
       <c r="H765" s="26"/>
       <c r="I765" s="26"/>
-      <c r="J765" s="40"/>
-      <c r="K765" s="40"/>
+      <c r="J765" s="41"/>
+      <c r="K765" s="41"/>
       <c r="L765" s="26"/>
       <c r="M765" s="26"/>
       <c r="N765" s="26"/>
@@ -37574,8 +37579,8 @@
       <c r="G766" s="26"/>
       <c r="H766" s="26"/>
       <c r="I766" s="26"/>
-      <c r="J766" s="40"/>
-      <c r="K766" s="40"/>
+      <c r="J766" s="41"/>
+      <c r="K766" s="41"/>
       <c r="L766" s="26"/>
       <c r="M766" s="26"/>
       <c r="N766" s="26"/>
@@ -37619,8 +37624,8 @@
       <c r="G767" s="26"/>
       <c r="H767" s="26"/>
       <c r="I767" s="26"/>
-      <c r="J767" s="40"/>
-      <c r="K767" s="40"/>
+      <c r="J767" s="41"/>
+      <c r="K767" s="41"/>
       <c r="L767" s="26"/>
       <c r="M767" s="26"/>
       <c r="N767" s="26"/>
@@ -37664,8 +37669,8 @@
       <c r="G768" s="26"/>
       <c r="H768" s="26"/>
       <c r="I768" s="26"/>
-      <c r="J768" s="40"/>
-      <c r="K768" s="40"/>
+      <c r="J768" s="41"/>
+      <c r="K768" s="41"/>
       <c r="L768" s="26"/>
       <c r="M768" s="26"/>
       <c r="N768" s="26"/>
@@ -37709,8 +37714,8 @@
       <c r="G769" s="26"/>
       <c r="H769" s="26"/>
       <c r="I769" s="26"/>
-      <c r="J769" s="40"/>
-      <c r="K769" s="40"/>
+      <c r="J769" s="41"/>
+      <c r="K769" s="41"/>
       <c r="L769" s="26"/>
       <c r="M769" s="26"/>
       <c r="N769" s="26"/>
@@ -37754,8 +37759,8 @@
       <c r="G770" s="26"/>
       <c r="H770" s="26"/>
       <c r="I770" s="26"/>
-      <c r="J770" s="40"/>
-      <c r="K770" s="40"/>
+      <c r="J770" s="41"/>
+      <c r="K770" s="41"/>
       <c r="L770" s="26"/>
       <c r="M770" s="26"/>
       <c r="N770" s="26"/>
@@ -37799,8 +37804,8 @@
       <c r="G771" s="26"/>
       <c r="H771" s="26"/>
       <c r="I771" s="26"/>
-      <c r="J771" s="40"/>
-      <c r="K771" s="40"/>
+      <c r="J771" s="41"/>
+      <c r="K771" s="41"/>
       <c r="L771" s="26"/>
       <c r="M771" s="26"/>
       <c r="N771" s="26"/>
@@ -37844,8 +37849,8 @@
       <c r="G772" s="26"/>
       <c r="H772" s="26"/>
       <c r="I772" s="26"/>
-      <c r="J772" s="40"/>
-      <c r="K772" s="40"/>
+      <c r="J772" s="41"/>
+      <c r="K772" s="41"/>
       <c r="L772" s="26"/>
       <c r="M772" s="26"/>
       <c r="N772" s="26"/>
@@ -37889,8 +37894,8 @@
       <c r="G773" s="26"/>
       <c r="H773" s="26"/>
       <c r="I773" s="26"/>
-      <c r="J773" s="40"/>
-      <c r="K773" s="40"/>
+      <c r="J773" s="41"/>
+      <c r="K773" s="41"/>
       <c r="L773" s="26"/>
       <c r="M773" s="26"/>
       <c r="N773" s="26"/>
@@ -37934,8 +37939,8 @@
       <c r="G774" s="26"/>
       <c r="H774" s="26"/>
       <c r="I774" s="26"/>
-      <c r="J774" s="40"/>
-      <c r="K774" s="40"/>
+      <c r="J774" s="41"/>
+      <c r="K774" s="41"/>
       <c r="L774" s="26"/>
       <c r="M774" s="26"/>
       <c r="N774" s="26"/>
@@ -37979,8 +37984,8 @@
       <c r="G775" s="26"/>
       <c r="H775" s="26"/>
       <c r="I775" s="26"/>
-      <c r="J775" s="40"/>
-      <c r="K775" s="40"/>
+      <c r="J775" s="41"/>
+      <c r="K775" s="41"/>
       <c r="L775" s="26"/>
       <c r="M775" s="26"/>
       <c r="N775" s="26"/>
@@ -38024,8 +38029,8 @@
       <c r="G776" s="26"/>
       <c r="H776" s="26"/>
       <c r="I776" s="26"/>
-      <c r="J776" s="40"/>
-      <c r="K776" s="40"/>
+      <c r="J776" s="41"/>
+      <c r="K776" s="41"/>
       <c r="L776" s="26"/>
       <c r="M776" s="26"/>
       <c r="N776" s="26"/>
@@ -38069,8 +38074,8 @@
       <c r="G777" s="26"/>
       <c r="H777" s="26"/>
       <c r="I777" s="26"/>
-      <c r="J777" s="40"/>
-      <c r="K777" s="40"/>
+      <c r="J777" s="41"/>
+      <c r="K777" s="41"/>
       <c r="L777" s="26"/>
       <c r="M777" s="26"/>
       <c r="N777" s="26"/>
@@ -38114,8 +38119,8 @@
       <c r="G778" s="26"/>
       <c r="H778" s="26"/>
       <c r="I778" s="26"/>
-      <c r="J778" s="40"/>
-      <c r="K778" s="40"/>
+      <c r="J778" s="41"/>
+      <c r="K778" s="41"/>
       <c r="L778" s="26"/>
       <c r="M778" s="26"/>
       <c r="N778" s="26"/>
@@ -38159,8 +38164,8 @@
       <c r="G779" s="26"/>
       <c r="H779" s="26"/>
       <c r="I779" s="26"/>
-      <c r="J779" s="40"/>
-      <c r="K779" s="40"/>
+      <c r="J779" s="41"/>
+      <c r="K779" s="41"/>
       <c r="L779" s="26"/>
       <c r="M779" s="26"/>
       <c r="N779" s="26"/>
@@ -38204,8 +38209,8 @@
       <c r="G780" s="26"/>
       <c r="H780" s="26"/>
       <c r="I780" s="26"/>
-      <c r="J780" s="40"/>
-      <c r="K780" s="40"/>
+      <c r="J780" s="41"/>
+      <c r="K780" s="41"/>
       <c r="L780" s="26"/>
       <c r="M780" s="26"/>
       <c r="N780" s="26"/>
@@ -38249,8 +38254,8 @@
       <c r="G781" s="26"/>
       <c r="H781" s="26"/>
       <c r="I781" s="26"/>
-      <c r="J781" s="40"/>
-      <c r="K781" s="40"/>
+      <c r="J781" s="41"/>
+      <c r="K781" s="41"/>
       <c r="L781" s="26"/>
       <c r="M781" s="26"/>
       <c r="N781" s="26"/>
@@ -38294,8 +38299,8 @@
       <c r="G782" s="26"/>
       <c r="H782" s="26"/>
       <c r="I782" s="26"/>
-      <c r="J782" s="40"/>
-      <c r="K782" s="40"/>
+      <c r="J782" s="41"/>
+      <c r="K782" s="41"/>
       <c r="L782" s="26"/>
       <c r="M782" s="26"/>
       <c r="N782" s="26"/>
@@ -38339,8 +38344,8 @@
       <c r="G783" s="26"/>
       <c r="H783" s="26"/>
       <c r="I783" s="26"/>
-      <c r="J783" s="40"/>
-      <c r="K783" s="40"/>
+      <c r="J783" s="41"/>
+      <c r="K783" s="41"/>
       <c r="L783" s="26"/>
       <c r="M783" s="26"/>
       <c r="N783" s="26"/>
@@ -38384,8 +38389,8 @@
       <c r="G784" s="26"/>
       <c r="H784" s="26"/>
       <c r="I784" s="26"/>
-      <c r="J784" s="40"/>
-      <c r="K784" s="40"/>
+      <c r="J784" s="41"/>
+      <c r="K784" s="41"/>
       <c r="L784" s="26"/>
       <c r="M784" s="26"/>
       <c r="N784" s="26"/>
@@ -38429,8 +38434,8 @@
       <c r="G785" s="26"/>
       <c r="H785" s="26"/>
       <c r="I785" s="26"/>
-      <c r="J785" s="40"/>
-      <c r="K785" s="40"/>
+      <c r="J785" s="41"/>
+      <c r="K785" s="41"/>
       <c r="L785" s="26"/>
       <c r="M785" s="26"/>
       <c r="N785" s="26"/>
@@ -38474,8 +38479,8 @@
       <c r="G786" s="26"/>
       <c r="H786" s="26"/>
       <c r="I786" s="26"/>
-      <c r="J786" s="40"/>
-      <c r="K786" s="40"/>
+      <c r="J786" s="41"/>
+      <c r="K786" s="41"/>
       <c r="L786" s="26"/>
       <c r="M786" s="26"/>
       <c r="N786" s="26"/>
@@ -38519,8 +38524,8 @@
       <c r="G787" s="26"/>
       <c r="H787" s="26"/>
       <c r="I787" s="26"/>
-      <c r="J787" s="40"/>
-      <c r="K787" s="40"/>
+      <c r="J787" s="41"/>
+      <c r="K787" s="41"/>
       <c r="L787" s="26"/>
       <c r="M787" s="26"/>
       <c r="N787" s="26"/>
@@ -38564,8 +38569,8 @@
       <c r="G788" s="26"/>
       <c r="H788" s="26"/>
       <c r="I788" s="26"/>
-      <c r="J788" s="40"/>
-      <c r="K788" s="40"/>
+      <c r="J788" s="41"/>
+      <c r="K788" s="41"/>
       <c r="L788" s="26"/>
       <c r="M788" s="26"/>
       <c r="N788" s="26"/>
@@ -38609,8 +38614,8 @@
       <c r="G789" s="26"/>
       <c r="H789" s="26"/>
       <c r="I789" s="26"/>
-      <c r="J789" s="40"/>
-      <c r="K789" s="40"/>
+      <c r="J789" s="41"/>
+      <c r="K789" s="41"/>
       <c r="L789" s="26"/>
       <c r="M789" s="26"/>
       <c r="N789" s="26"/>
@@ -38654,8 +38659,8 @@
       <c r="G790" s="26"/>
       <c r="H790" s="26"/>
       <c r="I790" s="26"/>
-      <c r="J790" s="40"/>
-      <c r="K790" s="40"/>
+      <c r="J790" s="41"/>
+      <c r="K790" s="41"/>
       <c r="L790" s="26"/>
       <c r="M790" s="26"/>
       <c r="N790" s="26"/>
@@ -38699,8 +38704,8 @@
       <c r="G791" s="26"/>
       <c r="H791" s="26"/>
       <c r="I791" s="26"/>
-      <c r="J791" s="40"/>
-      <c r="K791" s="40"/>
+      <c r="J791" s="41"/>
+      <c r="K791" s="41"/>
       <c r="L791" s="26"/>
       <c r="M791" s="26"/>
       <c r="N791" s="26"/>
@@ -38744,8 +38749,8 @@
       <c r="G792" s="26"/>
       <c r="H792" s="26"/>
       <c r="I792" s="26"/>
-      <c r="J792" s="40"/>
-      <c r="K792" s="40"/>
+      <c r="J792" s="41"/>
+      <c r="K792" s="41"/>
       <c r="L792" s="26"/>
       <c r="M792" s="26"/>
       <c r="N792" s="26"/>
@@ -38789,8 +38794,8 @@
       <c r="G793" s="26"/>
       <c r="H793" s="26"/>
       <c r="I793" s="26"/>
-      <c r="J793" s="40"/>
-      <c r="K793" s="40"/>
+      <c r="J793" s="41"/>
+      <c r="K793" s="41"/>
       <c r="L793" s="26"/>
       <c r="M793" s="26"/>
       <c r="N793" s="26"/>
@@ -38834,8 +38839,8 @@
       <c r="G794" s="26"/>
       <c r="H794" s="26"/>
       <c r="I794" s="26"/>
-      <c r="J794" s="40"/>
-      <c r="K794" s="40"/>
+      <c r="J794" s="41"/>
+      <c r="K794" s="41"/>
       <c r="L794" s="26"/>
       <c r="M794" s="26"/>
       <c r="N794" s="26"/>
@@ -38879,8 +38884,8 @@
       <c r="G795" s="26"/>
       <c r="H795" s="26"/>
       <c r="I795" s="26"/>
-      <c r="J795" s="40"/>
-      <c r="K795" s="40"/>
+      <c r="J795" s="41"/>
+      <c r="K795" s="41"/>
       <c r="L795" s="26"/>
       <c r="M795" s="26"/>
       <c r="N795" s="26"/>
@@ -38924,8 +38929,8 @@
       <c r="G796" s="26"/>
       <c r="H796" s="26"/>
       <c r="I796" s="26"/>
-      <c r="J796" s="40"/>
-      <c r="K796" s="40"/>
+      <c r="J796" s="41"/>
+      <c r="K796" s="41"/>
       <c r="L796" s="26"/>
       <c r="M796" s="26"/>
       <c r="N796" s="26"/>
@@ -38969,8 +38974,8 @@
       <c r="G797" s="26"/>
       <c r="H797" s="26"/>
       <c r="I797" s="26"/>
-      <c r="J797" s="40"/>
-      <c r="K797" s="40"/>
+      <c r="J797" s="41"/>
+      <c r="K797" s="41"/>
       <c r="L797" s="26"/>
       <c r="M797" s="26"/>
       <c r="N797" s="26"/>
@@ -39014,8 +39019,8 @@
       <c r="G798" s="26"/>
       <c r="H798" s="26"/>
       <c r="I798" s="26"/>
-      <c r="J798" s="40"/>
-      <c r="K798" s="40"/>
+      <c r="J798" s="41"/>
+      <c r="K798" s="41"/>
       <c r="L798" s="26"/>
       <c r="M798" s="26"/>
       <c r="N798" s="26"/>
@@ -39059,8 +39064,8 @@
       <c r="G799" s="26"/>
       <c r="H799" s="26"/>
       <c r="I799" s="26"/>
-      <c r="J799" s="40"/>
-      <c r="K799" s="40"/>
+      <c r="J799" s="41"/>
+      <c r="K799" s="41"/>
       <c r="L799" s="26"/>
       <c r="M799" s="26"/>
       <c r="N799" s="26"/>
@@ -39104,8 +39109,8 @@
       <c r="G800" s="26"/>
       <c r="H800" s="26"/>
       <c r="I800" s="26"/>
-      <c r="J800" s="40"/>
-      <c r="K800" s="40"/>
+      <c r="J800" s="41"/>
+      <c r="K800" s="41"/>
       <c r="L800" s="26"/>
       <c r="M800" s="26"/>
       <c r="N800" s="26"/>
@@ -39149,8 +39154,8 @@
       <c r="G801" s="26"/>
       <c r="H801" s="26"/>
       <c r="I801" s="26"/>
-      <c r="J801" s="40"/>
-      <c r="K801" s="40"/>
+      <c r="J801" s="41"/>
+      <c r="K801" s="41"/>
       <c r="L801" s="26"/>
       <c r="M801" s="26"/>
       <c r="N801" s="26"/>
@@ -39194,8 +39199,8 @@
       <c r="G802" s="26"/>
       <c r="H802" s="26"/>
       <c r="I802" s="26"/>
-      <c r="J802" s="40"/>
-      <c r="K802" s="40"/>
+      <c r="J802" s="41"/>
+      <c r="K802" s="41"/>
       <c r="L802" s="26"/>
       <c r="M802" s="26"/>
       <c r="N802" s="26"/>
@@ -39239,8 +39244,8 @@
       <c r="G803" s="26"/>
       <c r="H803" s="26"/>
       <c r="I803" s="26"/>
-      <c r="J803" s="40"/>
-      <c r="K803" s="40"/>
+      <c r="J803" s="41"/>
+      <c r="K803" s="41"/>
       <c r="L803" s="26"/>
       <c r="M803" s="26"/>
       <c r="N803" s="26"/>
@@ -39284,8 +39289,8 @@
       <c r="G804" s="26"/>
       <c r="H804" s="26"/>
       <c r="I804" s="26"/>
-      <c r="J804" s="40"/>
-      <c r="K804" s="40"/>
+      <c r="J804" s="41"/>
+      <c r="K804" s="41"/>
       <c r="L804" s="26"/>
       <c r="M804" s="26"/>
       <c r="N804" s="26"/>
@@ -39329,8 +39334,8 @@
       <c r="G805" s="26"/>
       <c r="H805" s="26"/>
       <c r="I805" s="26"/>
-      <c r="J805" s="40"/>
-      <c r="K805" s="40"/>
+      <c r="J805" s="41"/>
+      <c r="K805" s="41"/>
       <c r="L805" s="26"/>
       <c r="M805" s="26"/>
       <c r="N805" s="26"/>
@@ -39374,8 +39379,8 @@
       <c r="G806" s="26"/>
       <c r="H806" s="26"/>
       <c r="I806" s="26"/>
-      <c r="J806" s="40"/>
-      <c r="K806" s="40"/>
+      <c r="J806" s="41"/>
+      <c r="K806" s="41"/>
       <c r="L806" s="26"/>
       <c r="M806" s="26"/>
       <c r="N806" s="26"/>
@@ -39419,8 +39424,8 @@
       <c r="G807" s="26"/>
       <c r="H807" s="26"/>
       <c r="I807" s="26"/>
-      <c r="J807" s="40"/>
-      <c r="K807" s="40"/>
+      <c r="J807" s="41"/>
+      <c r="K807" s="41"/>
       <c r="L807" s="26"/>
       <c r="M807" s="26"/>
       <c r="N807" s="26"/>
@@ -39464,8 +39469,8 @@
       <c r="G808" s="26"/>
       <c r="H808" s="26"/>
       <c r="I808" s="26"/>
-      <c r="J808" s="40"/>
-      <c r="K808" s="40"/>
+      <c r="J808" s="41"/>
+      <c r="K808" s="41"/>
       <c r="L808" s="26"/>
       <c r="M808" s="26"/>
       <c r="N808" s="26"/>
@@ -39509,8 +39514,8 @@
       <c r="G809" s="26"/>
       <c r="H809" s="26"/>
       <c r="I809" s="26"/>
-      <c r="J809" s="40"/>
-      <c r="K809" s="40"/>
+      <c r="J809" s="41"/>
+      <c r="K809" s="41"/>
       <c r="L809" s="26"/>
       <c r="M809" s="26"/>
       <c r="N809" s="26"/>
@@ -39554,8 +39559,8 @@
       <c r="G810" s="26"/>
       <c r="H810" s="26"/>
       <c r="I810" s="26"/>
-      <c r="J810" s="40"/>
-      <c r="K810" s="40"/>
+      <c r="J810" s="41"/>
+      <c r="K810" s="41"/>
       <c r="L810" s="26"/>
       <c r="M810" s="26"/>
       <c r="N810" s="26"/>
@@ -39599,8 +39604,8 @@
       <c r="G811" s="26"/>
       <c r="H811" s="26"/>
       <c r="I811" s="26"/>
-      <c r="J811" s="40"/>
-      <c r="K811" s="40"/>
+      <c r="J811" s="41"/>
+      <c r="K811" s="41"/>
       <c r="L811" s="26"/>
       <c r="M811" s="26"/>
       <c r="N811" s="26"/>
@@ -39644,8 +39649,8 @@
       <c r="G812" s="26"/>
       <c r="H812" s="26"/>
       <c r="I812" s="26"/>
-      <c r="J812" s="40"/>
-      <c r="K812" s="40"/>
+      <c r="J812" s="41"/>
+      <c r="K812" s="41"/>
       <c r="L812" s="26"/>
       <c r="M812" s="26"/>
       <c r="N812" s="26"/>
